--- a/data/pdb.xlsx
+++ b/data/pdb.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DAA7FE-5CAE-4A2D-B230-3CE08709E9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1717970-9BE2-4B79-B15A-A867F7B99DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25780" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="share" sheetId="24" r:id="rId1"/>
-    <sheet name="pdbkonstan" sheetId="1" r:id="rId2"/>
-    <sheet name="pdbberlaku" sheetId="2" r:id="rId3"/>
-    <sheet name="deflator" sheetId="7" r:id="rId4"/>
-    <sheet name="growth" sheetId="18" r:id="rId5"/>
-    <sheet name="gkonstan" sheetId="3" r:id="rId6"/>
-    <sheet name="gberlaku" sheetId="4" r:id="rId7"/>
-    <sheet name="dkonstan" sheetId="10" r:id="rId8"/>
-    <sheet name="dberlaku" sheetId="11" r:id="rId9"/>
-    <sheet name="pmdn" sheetId="8" r:id="rId10"/>
-    <sheet name="pma" sheetId="12" r:id="rId11"/>
-    <sheet name="pmarp" sheetId="20" r:id="rId12"/>
-    <sheet name="inves" sheetId="13" r:id="rId13"/>
-    <sheet name="pmapct" sheetId="16" r:id="rId14"/>
-    <sheet name="ICORr" sheetId="14" r:id="rId15"/>
-    <sheet name="ICORr (2)" sheetId="22" r:id="rId16"/>
-    <sheet name="skonstan" sheetId="5" r:id="rId17"/>
-    <sheet name="APBN" sheetId="19" r:id="rId18"/>
-    <sheet name="Sheet4" sheetId="23" r:id="rId19"/>
+    <sheet name="share (2)" sheetId="25" r:id="rId2"/>
+    <sheet name="pdbkonstan" sheetId="1" r:id="rId3"/>
+    <sheet name="pdbberlaku" sheetId="2" r:id="rId4"/>
+    <sheet name="deflator" sheetId="7" r:id="rId5"/>
+    <sheet name="growth" sheetId="18" r:id="rId6"/>
+    <sheet name="gkonstan" sheetId="3" r:id="rId7"/>
+    <sheet name="gberlaku" sheetId="4" r:id="rId8"/>
+    <sheet name="dkonstan" sheetId="10" r:id="rId9"/>
+    <sheet name="dberlaku" sheetId="11" r:id="rId10"/>
+    <sheet name="pmdn" sheetId="8" r:id="rId11"/>
+    <sheet name="pma" sheetId="12" r:id="rId12"/>
+    <sheet name="pmarp" sheetId="20" r:id="rId13"/>
+    <sheet name="inves" sheetId="13" r:id="rId14"/>
+    <sheet name="pmapct" sheetId="16" r:id="rId15"/>
+    <sheet name="ICORr" sheetId="14" r:id="rId16"/>
+    <sheet name="ICORr (2)" sheetId="22" r:id="rId17"/>
+    <sheet name="skonstan" sheetId="5" r:id="rId18"/>
+    <sheet name="APBN" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet4" sheetId="23" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'ICORr (2)'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'ICORr (2)'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="98">
   <si>
     <t>Pertanian, Peternakan, Perburuan dan Jasa Pertanian</t>
   </si>
@@ -409,14 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1005,6 +1005,542 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Share PDB manufaktur non-migas dalam</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Share PDB Riil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'share (2)'!$B$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'share (2)'!$B$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>18.632194063952522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.8593424810926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.028280450551367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.00953127211044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.118872207536775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.150770110974797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.041424633255239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.001617695582805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.929259871800021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.807529209056618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.719730775325143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.714421110526956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.661118181793572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.596756387016182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD9E-43BF-A27A-5E59DEDCD377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Share PDB Nominal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'share (2)'!$B$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'share (2)'!$B$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>18.632194063952522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.133318249387173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.98747856312853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.73714154861015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.884920594711375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.202203913459794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.213619174133672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.883520021894025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.623794070068946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.577095018516538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.874585035068684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.358427007419099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.480193916202111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.750679208268345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD9E-43BF-A27A-5E59DEDCD377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="104632735"/>
+        <c:axId val="104634175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104632735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104634175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104634175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104632735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Share</a:t>
             </a:r>
@@ -1398,7 +1934,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1868,6 +2404,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3455,6 +4031,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3502,6 +4594,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>478790</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>173990</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2ED45B-AE45-4B27-A0A7-61D7180B3F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -3539,7 +4674,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3845,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A178AEBD-ECEA-4354-8AE2-29B8A95EDD52}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4002,55 +5137,55 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <f>(C3-B3)/B3*100</f>
+        <f t="shared" ref="C5:O5" si="0">(C3-B3)/B3*100</f>
         <v>6.1697842077100784</v>
       </c>
       <c r="D5">
-        <f>(D3-C3)/C3*100</f>
+        <f t="shared" si="0"/>
         <v>6.0300506530561506</v>
       </c>
       <c r="E5">
-        <f>(E3-D3)/D3*100</f>
+        <f t="shared" si="0"/>
         <v>5.5572636889100924</v>
       </c>
       <c r="F5">
-        <f>(F3-E3)/E3*100</f>
+        <f t="shared" si="0"/>
         <v>5.0066684257549827</v>
       </c>
       <c r="G5">
-        <f>(G3-F3)/F3*100</f>
+        <f t="shared" si="0"/>
         <v>4.8763223002212319</v>
       </c>
       <c r="H5">
-        <f>(H3-G3)/G3*100</f>
+        <f t="shared" si="0"/>
         <v>5.0330691828017864</v>
       </c>
       <c r="I5">
-        <f>(I3-H3)/H3*100</f>
+        <f t="shared" si="0"/>
         <v>5.0697859013491664</v>
       </c>
       <c r="J5">
-        <f>(J3-I3)/I3*100</f>
+        <f t="shared" si="0"/>
         <v>5.1742915395502642</v>
       </c>
       <c r="K5">
-        <f>(K3-J3)/J3*100</f>
+        <f t="shared" si="0"/>
         <v>5.0192876804628304</v>
       </c>
       <c r="L5">
-        <f>(L3-K3)/K3*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0655118293416463</v>
       </c>
       <c r="M5">
-        <f>(M3-L3)/L3*100</f>
+        <f t="shared" si="0"/>
         <v>3.7028856282775142</v>
       </c>
       <c r="N5">
-        <f>(N3-M3)/M3*100</f>
+        <f t="shared" si="0"/>
         <v>5.3074193477576488</v>
       </c>
       <c r="O5">
-        <f>(O3-N3)/N3*100</f>
+        <f t="shared" si="0"/>
         <v>5.0481057706728754</v>
       </c>
     </row>
@@ -4059,55 +5194,55 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <f>(C4-B4)/B4*100</f>
+        <f t="shared" ref="C6:O6" si="1">(C4-B4)/B4*100</f>
         <v>14.096359815633535</v>
       </c>
       <c r="D6">
-        <f>(D4-C4)/C4*100</f>
+        <f t="shared" si="1"/>
         <v>10.010290196567142</v>
       </c>
       <c r="E6">
-        <f>(E4-D4)/D4*100</f>
+        <f t="shared" si="1"/>
         <v>10.799227155481017</v>
       </c>
       <c r="F6">
-        <f>(F4-E4)/E4*100</f>
+        <f t="shared" si="1"/>
         <v>10.722364676632454</v>
       </c>
       <c r="G6">
-        <f>(G4-F4)/F4*100</f>
+        <f t="shared" si="1"/>
         <v>9.0506544208001714</v>
       </c>
       <c r="H6">
-        <f>(H4-G4)/G4*100</f>
+        <f t="shared" si="1"/>
         <v>7.5947460062926453</v>
       </c>
       <c r="I6">
-        <f>(I4-H4)/H4*100</f>
+        <f t="shared" si="1"/>
         <v>9.5800936135636192</v>
       </c>
       <c r="J6">
-        <f>(J4-I4)/I4*100</f>
+        <f t="shared" si="1"/>
         <v>9.1901863023894474</v>
       </c>
       <c r="K6">
-        <f>(K4-J4)/J4*100</f>
+        <f t="shared" si="1"/>
         <v>6.6980089166504202</v>
       </c>
       <c r="L6">
-        <f>(L4-K4)/K4*100</f>
+        <f t="shared" si="1"/>
         <v>-2.4588671066534555</v>
       </c>
       <c r="M6">
-        <f>(M4-L4)/L4*100</f>
+        <f t="shared" si="1"/>
         <v>9.9291791111790371</v>
       </c>
       <c r="N6">
-        <f>(N4-M4)/M4*100</f>
+        <f t="shared" si="1"/>
         <v>15.38185038157536</v>
       </c>
       <c r="O6">
-        <f>(O4-N4)/N4*100</f>
+        <f t="shared" si="1"/>
         <v>6.6585706245916336</v>
       </c>
     </row>
@@ -4210,59 +5345,59 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <f>B7/B3*100</f>
+        <f t="shared" ref="B9:O9" si="2">B7/B3*100</f>
         <v>18.632194063952522</v>
       </c>
       <c r="C9">
-        <f>C7/C3*100</f>
+        <f t="shared" si="2"/>
         <v>18.8593424810926</v>
       </c>
       <c r="D9">
-        <f>D7/D3*100</f>
+        <f t="shared" si="2"/>
         <v>19.028280450551367</v>
       </c>
       <c r="E9">
-        <f>E7/E3*100</f>
+        <f t="shared" si="2"/>
         <v>19.00953127211044</v>
       </c>
       <c r="F9">
-        <f>F7/F3*100</f>
+        <f t="shared" si="2"/>
         <v>19.118872207536775</v>
       </c>
       <c r="G9">
-        <f>G7/G3*100</f>
+        <f t="shared" si="2"/>
         <v>19.150770110974797</v>
       </c>
       <c r="H9">
-        <f>H7/H3*100</f>
+        <f t="shared" si="2"/>
         <v>19.041424633255239</v>
       </c>
       <c r="I9">
-        <f>I7/I3*100</f>
+        <f t="shared" si="2"/>
         <v>19.001617695582805</v>
       </c>
       <c r="J9">
-        <f>J7/J3*100</f>
+        <f t="shared" si="2"/>
         <v>18.929259871800021</v>
       </c>
       <c r="K9">
-        <f>K7/K3*100</f>
+        <f t="shared" si="2"/>
         <v>18.807529209056618</v>
       </c>
       <c r="L9">
-        <f>L7/L3*100</f>
+        <f t="shared" si="2"/>
         <v>18.719730775325143</v>
       </c>
       <c r="M9">
-        <f>M7/M3*100</f>
+        <f t="shared" si="2"/>
         <v>18.714421110526956</v>
       </c>
       <c r="N9">
-        <f>N7/N3*100</f>
+        <f t="shared" si="2"/>
         <v>18.661118181793572</v>
       </c>
       <c r="O9">
-        <f>O7/O3*100</f>
+        <f t="shared" si="2"/>
         <v>18.596756387016182</v>
       </c>
     </row>
@@ -4271,59 +5406,59 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <f>B8/B4*100</f>
+        <f t="shared" ref="B10:O10" si="3">B8/B4*100</f>
         <v>18.632194063952522</v>
       </c>
       <c r="C10">
-        <f>C8/C4*100</f>
+        <f t="shared" si="3"/>
         <v>18.133318249387173</v>
       </c>
       <c r="D10">
-        <f>D8/D4*100</f>
+        <f t="shared" si="3"/>
         <v>17.98747856312853</v>
       </c>
       <c r="E10">
-        <f>E8/E4*100</f>
+        <f t="shared" si="3"/>
         <v>17.73714154861015</v>
       </c>
       <c r="F10">
-        <f>F8/F4*100</f>
+        <f t="shared" si="3"/>
         <v>17.884920594711375</v>
       </c>
       <c r="G10">
-        <f>G8/G4*100</f>
+        <f t="shared" si="3"/>
         <v>18.202203913459794</v>
       </c>
       <c r="H10">
-        <f>H8/H4*100</f>
+        <f t="shared" si="3"/>
         <v>18.213619174133672</v>
       </c>
       <c r="I10">
-        <f>I8/I4*100</f>
+        <f t="shared" si="3"/>
         <v>17.883520021894025</v>
       </c>
       <c r="J10">
-        <f>J8/J4*100</f>
+        <f t="shared" si="3"/>
         <v>17.623794070068946</v>
       </c>
       <c r="K10">
-        <f>K8/K4*100</f>
+        <f t="shared" si="3"/>
         <v>17.577095018516538</v>
       </c>
       <c r="L10">
-        <f>L8/L4*100</f>
+        <f t="shared" si="3"/>
         <v>17.874585035068684</v>
       </c>
       <c r="M10">
-        <f>M8/M4*100</f>
+        <f t="shared" si="3"/>
         <v>17.358427007419099</v>
       </c>
       <c r="N10">
-        <f>N8/N4*100</f>
+        <f t="shared" si="3"/>
         <v>16.480193916202111</v>
       </c>
       <c r="O10">
-        <f>O8/O4*100</f>
+        <f t="shared" si="3"/>
         <v>16.750679208268345</v>
       </c>
     </row>
@@ -4332,55 +5467,55 @@
         <v>81</v>
       </c>
       <c r="C11">
-        <f>(C7-B7)/B7*100</f>
+        <f t="shared" ref="C11:O11" si="4">(C7-B7)/B7*100</f>
         <v>7.4641190749892132</v>
       </c>
       <c r="D11">
-        <f>(D7-C7)/C7*100</f>
+        <f t="shared" si="4"/>
         <v>6.9798452430263769</v>
       </c>
       <c r="E11">
-        <f>(E7-D7)/D7*100</f>
+        <f t="shared" si="4"/>
         <v>5.4532547124929991</v>
       </c>
       <c r="F11">
-        <f>(F7-E7)/E7*100</f>
+        <f t="shared" si="4"/>
         <v>5.610656350934395</v>
       </c>
       <c r="G11">
-        <f>(G7-F7)/F7*100</f>
+        <f t="shared" si="4"/>
         <v>5.0512978304383545</v>
       </c>
       <c r="H11">
-        <f>(H7-G7)/G7*100</f>
+        <f t="shared" si="4"/>
         <v>4.4333600818313288</v>
       </c>
       <c r="I11">
-        <f>(I7-H7)/H7*100</f>
+        <f t="shared" si="4"/>
         <v>4.8501328817254885</v>
       </c>
       <c r="J11">
-        <f>(J7-I7)/I7*100</f>
+        <f t="shared" si="4"/>
         <v>4.7737896993586677</v>
       </c>
       <c r="K11">
-        <f>(K7-J7)/J7*100</f>
+        <f t="shared" si="4"/>
         <v>4.3439275461118889</v>
       </c>
       <c r="L11">
-        <f>(L7-K7)/K7*100</f>
+        <f t="shared" si="4"/>
         <v>-2.5226954696858921</v>
       </c>
       <c r="M11">
-        <f>(M7-L7)/L7*100</f>
+        <f t="shared" si="4"/>
         <v>3.6734713397976395</v>
       </c>
       <c r="N11">
-        <f>(N7-M7)/M7*100</f>
+        <f t="shared" si="4"/>
         <v>5.0074798606937163</v>
       </c>
       <c r="O11">
-        <f>(O7-N7)/N7*100</f>
+        <f t="shared" si="4"/>
         <v>4.6857971158805727</v>
       </c>
     </row>
@@ -4389,55 +5524,55 @@
         <v>82</v>
       </c>
       <c r="C12">
-        <f>(C8-B8)/B8*100</f>
+        <f t="shared" ref="C12:O12" si="5">(C8-B8)/B8*100</f>
         <v>11.041437016601105</v>
       </c>
       <c r="D12">
-        <f>(D8-C8)/C8*100</f>
+        <f t="shared" si="5"/>
         <v>9.1255174270806787</v>
       </c>
       <c r="E12">
-        <f>(E8-D8)/D8*100</f>
+        <f t="shared" si="5"/>
         <v>9.2572018160371918</v>
       </c>
       <c r="F12">
-        <f>(F8-E8)/E8*100</f>
+        <f t="shared" si="5"/>
         <v>11.644860862905878</v>
       </c>
       <c r="G12">
-        <f>(G8-F8)/F8*100</f>
+        <f t="shared" si="5"/>
         <v>10.985242464570955</v>
       </c>
       <c r="H12">
-        <f>(H8-G8)/G8*100</f>
+        <f t="shared" si="5"/>
         <v>7.6622225645512358</v>
       </c>
       <c r="I12">
-        <f>(I8-H8)/H8*100</f>
+        <f t="shared" si="5"/>
         <v>7.5940909603650191</v>
       </c>
       <c r="J12">
-        <f>(J8-I8)/I8*100</f>
+        <f t="shared" si="5"/>
         <v>7.6043953041616623</v>
       </c>
       <c r="K12">
-        <f>(K8-J8)/J8*100</f>
+        <f t="shared" si="5"/>
         <v>6.4152834263770053</v>
       </c>
       <c r="L12">
-        <f>(L8-K8)/K8*100</f>
+        <f t="shared" si="5"/>
         <v>-0.80799628821683644</v>
       </c>
       <c r="M12">
-        <f>(M8-L8)/L8*100</f>
+        <f t="shared" si="5"/>
         <v>6.7547933472666326</v>
       </c>
       <c r="N12">
-        <f>(N8-M8)/M8*100</f>
+        <f t="shared" si="5"/>
         <v>9.5442154917528566</v>
       </c>
       <c r="O12">
-        <f>(O8-N8)/N8*100</f>
+        <f t="shared" si="5"/>
         <v>8.4091310108014579</v>
       </c>
     </row>
@@ -4446,55 +5581,55 @@
         <v>83</v>
       </c>
       <c r="C13">
-        <f>((C3-C7)-(B3-B7))/(B3-B7)*100</f>
+        <f t="shared" ref="C13:O13" si="6">((C3-C7)-(B3-B7))/(B3-B7)*100</f>
         <v>5.8733979631326942</v>
       </c>
       <c r="D13">
-        <f>((D3-D7)-(C3-C7))/(C3-C7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.8092920098967404</v>
       </c>
       <c r="E13">
-        <f>((E3-E7)-(D3-D7))/(D3-D7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.5817057037722115</v>
       </c>
       <c r="F13">
-        <f>((F3-F7)-(E3-E7))/(E3-E7)*100</f>
+        <f t="shared" si="6"/>
         <v>4.8649044931340821</v>
       </c>
       <c r="G13">
-        <f>((G3-G7)-(F3-F7))/(F3-F7)*100</f>
+        <f t="shared" si="6"/>
         <v>4.8349611707096498</v>
       </c>
       <c r="H13">
-        <f>((H3-H7)-(G3-G7))/(G3-G7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.1751223741792334</v>
       </c>
       <c r="I13">
-        <f>((I3-I7)-(H3-H7))/(H3-H7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.1214482039487894</v>
       </c>
       <c r="J13">
-        <f>((J3-J7)-(I3-I7))/(I3-I7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.2682462907093299</v>
       </c>
       <c r="K13">
-        <f>((K3-K7)-(J3-J7))/(J3-J7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.1769779577437198</v>
       </c>
       <c r="L13">
-        <f>((L3-L7)-(K3-K7))/(K3-K7)*100</f>
+        <f t="shared" si="6"/>
         <v>-1.959609218103014</v>
       </c>
       <c r="M13">
-        <f>((M3-M7)-(L3-L7))/(L3-L7)*100</f>
+        <f t="shared" si="6"/>
         <v>3.7096600591023967</v>
       </c>
       <c r="N13">
-        <f>((N3-N7)-(M3-M7))/(M3-M7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.3764745718856828</v>
       </c>
       <c r="O13">
-        <f>((O3-O7)-(N3-N7))/(N3-N7)*100</f>
+        <f t="shared" si="6"/>
         <v>5.131228189794375</v>
       </c>
     </row>
@@ -4503,55 +5638,55 @@
         <v>84</v>
       </c>
       <c r="C14">
-        <f>((C4-C8)-(B4-B8))/(B4-B8)*100</f>
+        <f t="shared" ref="C14:O14" si="7">((C4-C8)-(B4-B8))/(B4-B8)*100</f>
         <v>14.795898334426852</v>
       </c>
       <c r="D14">
-        <f>((D4-D8)-(C4-C8))/(C4-C8)*100</f>
+        <f t="shared" si="7"/>
         <v>10.20626572488235</v>
       </c>
       <c r="E14">
-        <f>((E4-E8)-(D4-D8))/(D4-D8)*100</f>
+        <f t="shared" si="7"/>
         <v>11.137433410466087</v>
       </c>
       <c r="F14">
-        <f>((F4-F8)-(E4-E8))/(E4-E8)*100</f>
+        <f t="shared" si="7"/>
         <v>10.523460265309884</v>
       </c>
       <c r="G14">
-        <f>((G4-G8)-(F4-F8))/(F4-F8)*100</f>
+        <f t="shared" si="7"/>
         <v>8.6292951065681844</v>
       </c>
       <c r="H14">
-        <f>((H4-H8)-(G4-G8))/(G4-G8)*100</f>
+        <f t="shared" si="7"/>
         <v>7.5797306619733202</v>
       </c>
       <c r="I14">
-        <f>((I4-I8)-(H4-H8))/(H4-H8)*100</f>
+        <f t="shared" si="7"/>
         <v>10.022371357595279</v>
       </c>
       <c r="J14">
-        <f>((J4-J8)-(I4-I8))/(I4-I8)*100</f>
+        <f t="shared" si="7"/>
         <v>9.5355435933364792</v>
       </c>
       <c r="K14">
-        <f>((K4-K8)-(J4-J8))/(J4-J8)*100</f>
+        <f t="shared" si="7"/>
         <v>6.7584959925322252</v>
       </c>
       <c r="L14">
-        <f>((L4-L8)-(K4-K8))/(K4-K8)*100</f>
+        <f t="shared" si="7"/>
         <v>-2.8109235313266221</v>
       </c>
       <c r="M14">
-        <f>((M4-M8)-(L4-L8))/(L4-L8)*100</f>
+        <f t="shared" si="7"/>
         <v>10.62008372694741</v>
       </c>
       <c r="N14">
-        <f>((N4-N8)-(M4-M8))/(M4-M8)*100</f>
+        <f t="shared" si="7"/>
         <v>16.608014834423379</v>
       </c>
       <c r="O14">
-        <f>((O4-O8)-(N4-N8))/(N4-N8)*100</f>
+        <f t="shared" si="7"/>
         <v>6.313148670452823</v>
       </c>
     </row>
@@ -4560,55 +5695,55 @@
         <v>85</v>
       </c>
       <c r="C15">
-        <f>C12-C11</f>
+        <f t="shared" ref="C15:O15" si="8">C12-C11</f>
         <v>3.5773179416118914</v>
       </c>
       <c r="D15">
-        <f>D12-D11</f>
+        <f t="shared" si="8"/>
         <v>2.1456721840543018</v>
       </c>
       <c r="E15">
-        <f>E12-E11</f>
+        <f t="shared" si="8"/>
         <v>3.8039471035441927</v>
       </c>
       <c r="F15">
-        <f>F12-F11</f>
+        <f t="shared" si="8"/>
         <v>6.0342045119714829</v>
       </c>
       <c r="G15">
-        <f>G12-G11</f>
+        <f t="shared" si="8"/>
         <v>5.933944634132601</v>
       </c>
       <c r="H15">
-        <f>H12-H11</f>
+        <f t="shared" si="8"/>
         <v>3.2288624827199071</v>
       </c>
       <c r="I15">
-        <f>I12-I11</f>
+        <f t="shared" si="8"/>
         <v>2.7439580786395306</v>
       </c>
       <c r="J15">
-        <f>J12-J11</f>
+        <f t="shared" si="8"/>
         <v>2.8306056048029946</v>
       </c>
       <c r="K15">
-        <f>K12-K11</f>
+        <f t="shared" si="8"/>
         <v>2.0713558802651164</v>
       </c>
       <c r="L15">
-        <f>L12-L11</f>
+        <f t="shared" si="8"/>
         <v>1.7146991814690558</v>
       </c>
       <c r="M15">
-        <f>M12-M11</f>
+        <f t="shared" si="8"/>
         <v>3.0813220074689931</v>
       </c>
       <c r="N15">
-        <f>N12-N11</f>
+        <f t="shared" si="8"/>
         <v>4.5367356310591402</v>
       </c>
       <c r="O15">
-        <f>O12-O11</f>
+        <f t="shared" si="8"/>
         <v>3.7233338949208852</v>
       </c>
     </row>
@@ -4617,55 +5752,55 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <f>C14-C13</f>
+        <f t="shared" ref="C16:O16" si="9">C14-C13</f>
         <v>8.9225003712941575</v>
       </c>
       <c r="D16">
-        <f>D14-D13</f>
+        <f t="shared" si="9"/>
         <v>4.3969737149856094</v>
       </c>
       <c r="E16">
-        <f>E14-E13</f>
+        <f t="shared" si="9"/>
         <v>5.5557277066938759</v>
       </c>
       <c r="F16">
-        <f>F14-F13</f>
+        <f t="shared" si="9"/>
         <v>5.6585557721758022</v>
       </c>
       <c r="G16">
-        <f>G14-G13</f>
+        <f t="shared" si="9"/>
         <v>3.7943339358585346</v>
       </c>
       <c r="H16">
-        <f>H14-H13</f>
+        <f t="shared" si="9"/>
         <v>2.4046082877940869</v>
       </c>
       <c r="I16">
-        <f>I14-I13</f>
+        <f t="shared" si="9"/>
         <v>4.9009231536464899</v>
       </c>
       <c r="J16">
-        <f>J14-J13</f>
+        <f t="shared" si="9"/>
         <v>4.2672973026271492</v>
       </c>
       <c r="K16">
-        <f>K14-K13</f>
+        <f t="shared" si="9"/>
         <v>1.5815180347885054</v>
       </c>
       <c r="L16">
-        <f>L14-L13</f>
+        <f t="shared" si="9"/>
         <v>-0.85131431322360807</v>
       </c>
       <c r="M16">
-        <f>M14-M13</f>
+        <f t="shared" si="9"/>
         <v>6.9104236678450128</v>
       </c>
       <c r="N16">
-        <f>N14-N13</f>
+        <f t="shared" si="9"/>
         <v>11.231540262537695</v>
       </c>
       <c r="O16">
-        <f>O14-O13</f>
+        <f t="shared" si="9"/>
         <v>1.181920480658448</v>
       </c>
     </row>
@@ -4674,55 +5809,55 @@
         <v>87</v>
       </c>
       <c r="C17">
-        <f>C6-C5</f>
+        <f t="shared" ref="C17:O17" si="10">C6-C5</f>
         <v>7.9265756079234571</v>
       </c>
       <c r="D17">
-        <f>D6-D5</f>
+        <f t="shared" si="10"/>
         <v>3.9802395435109919</v>
       </c>
       <c r="E17">
-        <f>E6-E5</f>
+        <f t="shared" si="10"/>
         <v>5.2419634665709243</v>
       </c>
       <c r="F17">
-        <f>F6-F5</f>
+        <f t="shared" si="10"/>
         <v>5.7156962508774711</v>
       </c>
       <c r="G17">
-        <f>G6-G5</f>
+        <f t="shared" si="10"/>
         <v>4.1743321205789394</v>
       </c>
       <c r="H17">
-        <f>H6-H5</f>
+        <f t="shared" si="10"/>
         <v>2.5616768234908589</v>
       </c>
       <c r="I17">
-        <f>I6-I5</f>
+        <f t="shared" si="10"/>
         <v>4.5103077122144528</v>
       </c>
       <c r="J17">
-        <f>J6-J5</f>
+        <f t="shared" si="10"/>
         <v>4.0158947628391832</v>
       </c>
       <c r="K17">
-        <f>K6-K5</f>
+        <f t="shared" si="10"/>
         <v>1.6787212361875898</v>
       </c>
       <c r="L17">
-        <f>L6-L5</f>
+        <f t="shared" si="10"/>
         <v>-0.39335527731180919</v>
       </c>
       <c r="M17">
-        <f>M6-M5</f>
+        <f t="shared" si="10"/>
         <v>6.2262934829015233</v>
       </c>
       <c r="N17">
-        <f>N6-N5</f>
+        <f t="shared" si="10"/>
         <v>10.07443103381771</v>
       </c>
       <c r="O17">
-        <f>O6-O5</f>
+        <f t="shared" si="10"/>
         <v>1.6104648539187583</v>
       </c>
     </row>
@@ -4733,6 +5868,2237 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202E13F5-6D4E-40B4-A0E0-A3F0014AF4E3}">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="84.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>(pdbberlaku!C2-pdbberlaku!B2)</f>
+        <v>78079.199999999953</v>
+      </c>
+      <c r="D2">
+        <f>(pdbberlaku!D2-pdbberlaku!C2)</f>
+        <v>69612.300000000047</v>
+      </c>
+      <c r="E2">
+        <f>(pdbberlaku!E2-pdbberlaku!D2)</f>
+        <v>92652.5</v>
+      </c>
+      <c r="F2">
+        <f>(pdbberlaku!F2-pdbberlaku!E2)</f>
+        <v>94771.29999999993</v>
+      </c>
+      <c r="G2">
+        <f>(pdbberlaku!G2-pdbberlaku!F2)</f>
+        <v>94418.90000000014</v>
+      </c>
+      <c r="H2">
+        <f>(pdbberlaku!H2-pdbberlaku!G2)</f>
+        <v>82896.799999999814</v>
+      </c>
+      <c r="I2">
+        <f>(pdbberlaku!I2-pdbberlaku!H2)</f>
+        <v>80660.800000000047</v>
+      </c>
+      <c r="J2">
+        <f>(pdbberlaku!J2-pdbberlaku!I2)</f>
+        <v>69790.699999999953</v>
+      </c>
+      <c r="K2">
+        <f>(pdbberlaku!K2-pdbberlaku!J2)</f>
+        <v>71668.800000000047</v>
+      </c>
+      <c r="L2">
+        <f>(pdbberlaku!L2-pdbberlaku!K2)</f>
+        <v>86394.300000000047</v>
+      </c>
+      <c r="M2">
+        <f>(pdbberlaku!M2-pdbberlaku!L2)</f>
+        <v>97558.399999999907</v>
+      </c>
+      <c r="N2">
+        <f>(pdbberlaku!N2-pdbberlaku!M2)</f>
+        <v>132515.20000000019</v>
+      </c>
+      <c r="O2">
+        <f>(pdbberlaku!O2-pdbberlaku!N2)</f>
+        <v>127058.69999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>(pdbberlaku!C3-pdbberlaku!B3)</f>
+        <v>4121.7999999999956</v>
+      </c>
+      <c r="D3">
+        <f>(pdbberlaku!D3-pdbberlaku!C3)</f>
+        <v>3634.5</v>
+      </c>
+      <c r="E3">
+        <f>(pdbberlaku!E3-pdbberlaku!D3)</f>
+        <v>3717</v>
+      </c>
+      <c r="F3">
+        <f>(pdbberlaku!F3-pdbberlaku!E3)</f>
+        <v>5018.8000000000029</v>
+      </c>
+      <c r="G3">
+        <f>(pdbberlaku!G3-pdbberlaku!F3)</f>
+        <v>7703.8000000000029</v>
+      </c>
+      <c r="H3">
+        <f>(pdbberlaku!H3-pdbberlaku!G3)</f>
+        <v>5220.5999999999913</v>
+      </c>
+      <c r="I3">
+        <f>(pdbberlaku!I3-pdbberlaku!H3)</f>
+        <v>4067</v>
+      </c>
+      <c r="J3">
+        <f>(pdbberlaku!J3-pdbberlaku!I3)</f>
+        <v>5787.4000000000087</v>
+      </c>
+      <c r="K3">
+        <f>(pdbberlaku!K3-pdbberlaku!J3)</f>
+        <v>6725.0999999999913</v>
+      </c>
+      <c r="L3">
+        <f>(pdbberlaku!L3-pdbberlaku!K3)</f>
+        <v>4523.7000000000116</v>
+      </c>
+      <c r="M3">
+        <f>(pdbberlaku!M3-pdbberlaku!L3)</f>
+        <v>3362.8999999999942</v>
+      </c>
+      <c r="N3">
+        <f>(pdbberlaku!N3-pdbberlaku!M3)</f>
+        <v>6377.6000000000058</v>
+      </c>
+      <c r="O3">
+        <f>(pdbberlaku!O3-pdbberlaku!N3)</f>
+        <v>11730.399999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>(pdbberlaku!C4-pdbberlaku!B4)</f>
+        <v>19924.600000000006</v>
+      </c>
+      <c r="D4">
+        <f>(pdbberlaku!D4-pdbberlaku!C4)</f>
+        <v>20770</v>
+      </c>
+      <c r="E4">
+        <f>(pdbberlaku!E4-pdbberlaku!D4)</f>
+        <v>26416.799999999988</v>
+      </c>
+      <c r="F4">
+        <f>(pdbberlaku!F4-pdbberlaku!E4)</f>
+        <v>34817.200000000012</v>
+      </c>
+      <c r="G4">
+        <f>(pdbberlaku!G4-pdbberlaku!F4)</f>
+        <v>43428.599999999977</v>
+      </c>
+      <c r="H4">
+        <f>(pdbberlaku!H4-pdbberlaku!G4)</f>
+        <v>28273.400000000023</v>
+      </c>
+      <c r="I4">
+        <f>(pdbberlaku!I4-pdbberlaku!H4)</f>
+        <v>31637.599999999977</v>
+      </c>
+      <c r="J4">
+        <f>(pdbberlaku!J4-pdbberlaku!I4)</f>
+        <v>37080.400000000023</v>
+      </c>
+      <c r="K4">
+        <f>(pdbberlaku!K4-pdbberlaku!J4)</f>
+        <v>33727.200000000012</v>
+      </c>
+      <c r="L4">
+        <f>(pdbberlaku!L4-pdbberlaku!K4)</f>
+        <v>11833.700000000012</v>
+      </c>
+      <c r="M4">
+        <f>(pdbberlaku!M4-pdbberlaku!L4)</f>
+        <v>38125.5</v>
+      </c>
+      <c r="N4">
+        <f>(pdbberlaku!N4-pdbberlaku!M4)</f>
+        <v>35466.399999999965</v>
+      </c>
+      <c r="O4">
+        <f>(pdbberlaku!O4-pdbberlaku!N4)</f>
+        <v>49980.399999999965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>(pdbberlaku!C5-pdbberlaku!B5)</f>
+        <v>92293</v>
+      </c>
+      <c r="D5">
+        <f>(pdbberlaku!D5-pdbberlaku!C5)</f>
+        <v>17493.599999999977</v>
+      </c>
+      <c r="E5">
+        <f>(pdbberlaku!E5-pdbberlaku!D5)</f>
+        <v>11674</v>
+      </c>
+      <c r="F5">
+        <f>(pdbberlaku!F5-pdbberlaku!E5)</f>
+        <v>-22426.499999999971</v>
+      </c>
+      <c r="G5">
+        <f>(pdbberlaku!G5-pdbberlaku!F5)</f>
+        <v>-29792.700000000012</v>
+      </c>
+      <c r="H5">
+        <f>(pdbberlaku!H5-pdbberlaku!G5)</f>
+        <v>1723.8999999999942</v>
+      </c>
+      <c r="I5">
+        <f>(pdbberlaku!I5-pdbberlaku!H5)</f>
+        <v>91666.700000000012</v>
+      </c>
+      <c r="J5">
+        <f>(pdbberlaku!J5-pdbberlaku!I5)</f>
+        <v>77912.400000000023</v>
+      </c>
+      <c r="K5">
+        <f>(pdbberlaku!K5-pdbberlaku!J5)</f>
+        <v>-32386.400000000023</v>
+      </c>
+      <c r="L5">
+        <f>(pdbberlaku!L5-pdbberlaku!K5)</f>
+        <v>-85695.799999999988</v>
+      </c>
+      <c r="M5">
+        <f>(pdbberlaku!M5-pdbberlaku!L5)</f>
+        <v>319943.3</v>
+      </c>
+      <c r="N5">
+        <f>(pdbberlaku!N5-pdbberlaku!M5)</f>
+        <v>693773.89999999991</v>
+      </c>
+      <c r="O5">
+        <f>(pdbberlaku!O5-pdbberlaku!N5)</f>
+        <v>-180341.39999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>(pdbberlaku!C6-pdbberlaku!B6)</f>
+        <v>107898.09999999998</v>
+      </c>
+      <c r="D6">
+        <f>(pdbberlaku!D6-pdbberlaku!C6)</f>
+        <v>48826.400000000023</v>
+      </c>
+      <c r="E6">
+        <f>(pdbberlaku!E6-pdbberlaku!D6)</f>
+        <v>27193.899999999965</v>
+      </c>
+      <c r="F6">
+        <f>(pdbberlaku!F6-pdbberlaku!E6)</f>
+        <v>-10304.799999999988</v>
+      </c>
+      <c r="G6">
+        <f>(pdbberlaku!G6-pdbberlaku!F6)</f>
+        <v>-125267.39999999997</v>
+      </c>
+      <c r="H6">
+        <f>(pdbberlaku!H6-pdbberlaku!G6)</f>
+        <v>-19530.300000000047</v>
+      </c>
+      <c r="I6">
+        <f>(pdbberlaku!I6-pdbberlaku!H6)</f>
+        <v>26464.300000000047</v>
+      </c>
+      <c r="J6">
+        <f>(pdbberlaku!J6-pdbberlaku!I6)</f>
+        <v>68720</v>
+      </c>
+      <c r="K6">
+        <f>(pdbberlaku!K6-pdbberlaku!J6)</f>
+        <v>-20567.100000000035</v>
+      </c>
+      <c r="L6">
+        <f>(pdbberlaku!L6-pdbberlaku!K6)</f>
+        <v>-107043.20000000001</v>
+      </c>
+      <c r="M6">
+        <f>(pdbberlaku!M6-pdbberlaku!L6)</f>
+        <v>129143.40000000002</v>
+      </c>
+      <c r="N6">
+        <f>(pdbberlaku!N6-pdbberlaku!M6)</f>
+        <v>125894.30000000005</v>
+      </c>
+      <c r="O6">
+        <f>(pdbberlaku!O6-pdbberlaku!N6)</f>
+        <v>-66527.300000000047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>(pdbberlaku!C7-pdbberlaku!B7)</f>
+        <v>-4960.3000000000029</v>
+      </c>
+      <c r="D7">
+        <f>(pdbberlaku!D7-pdbberlaku!C7)</f>
+        <v>-3439.0999999999913</v>
+      </c>
+      <c r="E7">
+        <f>(pdbberlaku!E7-pdbberlaku!D7)</f>
+        <v>-2376.4000000000087</v>
+      </c>
+      <c r="F7">
+        <f>(pdbberlaku!F7-pdbberlaku!E7)</f>
+        <v>-4853.1999999999971</v>
+      </c>
+      <c r="G7">
+        <f>(pdbberlaku!G7-pdbberlaku!F7)</f>
+        <v>-19351</v>
+      </c>
+      <c r="H7">
+        <f>(pdbberlaku!H7-pdbberlaku!G7)</f>
+        <v>-963.19999999999709</v>
+      </c>
+      <c r="I7">
+        <f>(pdbberlaku!I7-pdbberlaku!H7)</f>
+        <v>21021.300000000003</v>
+      </c>
+      <c r="J7">
+        <f>(pdbberlaku!J7-pdbberlaku!I7)</f>
+        <v>16999.099999999991</v>
+      </c>
+      <c r="K7">
+        <f>(pdbberlaku!K7-pdbberlaku!J7)</f>
+        <v>-14496.799999999988</v>
+      </c>
+      <c r="L7">
+        <f>(pdbberlaku!L7-pdbberlaku!K7)</f>
+        <v>34132.299999999988</v>
+      </c>
+      <c r="M7">
+        <f>(pdbberlaku!M7-pdbberlaku!L7)</f>
+        <v>73633.200000000012</v>
+      </c>
+      <c r="N7">
+        <f>(pdbberlaku!N7-pdbberlaku!M7)</f>
+        <v>38127</v>
+      </c>
+      <c r="O7">
+        <f>(pdbberlaku!O7-pdbberlaku!N7)</f>
+        <v>29304.899999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>(pdbberlaku!C8-pdbberlaku!B8)</f>
+        <v>11454</v>
+      </c>
+      <c r="D8">
+        <f>(pdbberlaku!D8-pdbberlaku!C8)</f>
+        <v>12613.300000000003</v>
+      </c>
+      <c r="E8">
+        <f>(pdbberlaku!E8-pdbberlaku!D8)</f>
+        <v>13946.700000000012</v>
+      </c>
+      <c r="F8">
+        <f>(pdbberlaku!F8-pdbberlaku!E8)</f>
+        <v>26261.699999999983</v>
+      </c>
+      <c r="G8">
+        <f>(pdbberlaku!G8-pdbberlaku!F8)</f>
+        <v>16682.200000000012</v>
+      </c>
+      <c r="H8">
+        <f>(pdbberlaku!H8-pdbberlaku!G8)</f>
+        <v>27943.799999999988</v>
+      </c>
+      <c r="I8">
+        <f>(pdbberlaku!I8-pdbberlaku!H8)</f>
+        <v>-466</v>
+      </c>
+      <c r="J8">
+        <f>(pdbberlaku!J8-pdbberlaku!I8)</f>
+        <v>5801</v>
+      </c>
+      <c r="K8">
+        <f>(pdbberlaku!K8-pdbberlaku!J8)</f>
+        <v>18376.700000000012</v>
+      </c>
+      <c r="L8">
+        <f>(pdbberlaku!L8-pdbberlaku!K8)</f>
+        <v>2235.1000000000058</v>
+      </c>
+      <c r="M8">
+        <f>(pdbberlaku!M8-pdbberlaku!L8)</f>
+        <v>7388.2999999999884</v>
+      </c>
+      <c r="N8">
+        <f>(pdbberlaku!N8-pdbberlaku!M8)</f>
+        <v>11945.599999999977</v>
+      </c>
+      <c r="O8">
+        <f>(pdbberlaku!O8-pdbberlaku!N8)</f>
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f>(pdbberlaku!C9-pdbberlaku!B9)</f>
+        <v>14889.900000000009</v>
+      </c>
+      <c r="D9">
+        <f>(pdbberlaku!D9-pdbberlaku!C9)</f>
+        <v>13748.899999999994</v>
+      </c>
+      <c r="E9">
+        <f>(pdbberlaku!E9-pdbberlaku!D9)</f>
+        <v>16879.900000000009</v>
+      </c>
+      <c r="F9">
+        <f>(pdbberlaku!F9-pdbberlaku!E9)</f>
+        <v>21386.5</v>
+      </c>
+      <c r="G9">
+        <f>(pdbberlaku!G9-pdbberlaku!F9)</f>
+        <v>24277.299999999988</v>
+      </c>
+      <c r="H9">
+        <f>(pdbberlaku!H9-pdbberlaku!G9)</f>
+        <v>21355.700000000012</v>
+      </c>
+      <c r="I9">
+        <f>(pdbberlaku!I9-pdbberlaku!H9)</f>
+        <v>26593.399999999994</v>
+      </c>
+      <c r="J9">
+        <f>(pdbberlaku!J9-pdbberlaku!I9)</f>
+        <v>28877</v>
+      </c>
+      <c r="K9">
+        <f>(pdbberlaku!K9-pdbberlaku!J9)</f>
+        <v>37191.5</v>
+      </c>
+      <c r="L9">
+        <f>(pdbberlaku!L9-pdbberlaku!K9)</f>
+        <v>-10030</v>
+      </c>
+      <c r="M9">
+        <f>(pdbberlaku!M9-pdbberlaku!L9)</f>
+        <v>6829.7000000000116</v>
+      </c>
+      <c r="N9">
+        <f>(pdbberlaku!N9-pdbberlaku!M9)</f>
+        <v>40342.099999999977</v>
+      </c>
+      <c r="O9">
+        <f>(pdbberlaku!O9-pdbberlaku!N9)</f>
+        <v>41664.600000000035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f>(pdbberlaku!C10-pdbberlaku!B10)</f>
+        <v>50276.5</v>
+      </c>
+      <c r="D10">
+        <f>(pdbberlaku!D10-pdbberlaku!C10)</f>
+        <v>14304.200000000012</v>
+      </c>
+      <c r="E10">
+        <f>(pdbberlaku!E10-pdbberlaku!D10)</f>
+        <v>15812.599999999977</v>
+      </c>
+      <c r="F10">
+        <f>(pdbberlaku!F10-pdbberlaku!E10)</f>
+        <v>22985.099999999977</v>
+      </c>
+      <c r="G10">
+        <f>(pdbberlaku!G10-pdbberlaku!F10)</f>
+        <v>-16355.5</v>
+      </c>
+      <c r="H10">
+        <f>(pdbberlaku!H10-pdbberlaku!G10)</f>
+        <v>-34445.099999999977</v>
+      </c>
+      <c r="I10">
+        <f>(pdbberlaku!I10-pdbberlaku!H10)</f>
+        <v>22972.700000000012</v>
+      </c>
+      <c r="J10">
+        <f>(pdbberlaku!J10-pdbberlaku!I10)</f>
+        <v>22926.299999999988</v>
+      </c>
+      <c r="K10">
+        <f>(pdbberlaku!K10-pdbberlaku!J10)</f>
+        <v>4373.5999999999767</v>
+      </c>
+      <c r="L10">
+        <f>(pdbberlaku!L10-pdbberlaku!K10)</f>
+        <v>-29066.199999999953</v>
+      </c>
+      <c r="M10">
+        <f>(pdbberlaku!M10-pdbberlaku!L10)</f>
+        <v>12402.099999999977</v>
+      </c>
+      <c r="N10">
+        <f>(pdbberlaku!N10-pdbberlaku!M10)</f>
+        <v>43611</v>
+      </c>
+      <c r="O10">
+        <f>(pdbberlaku!O10-pdbberlaku!N10)</f>
+        <v>36827.200000000012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>(pdbberlaku!C11-pdbberlaku!B11)</f>
+        <v>49944.300000000047</v>
+      </c>
+      <c r="D11">
+        <f>(pdbberlaku!D11-pdbberlaku!C11)</f>
+        <v>47386</v>
+      </c>
+      <c r="E11">
+        <f>(pdbberlaku!E11-pdbberlaku!D11)</f>
+        <v>33369</v>
+      </c>
+      <c r="F11">
+        <f>(pdbberlaku!F11-pdbberlaku!E11)</f>
+        <v>70874.199999999953</v>
+      </c>
+      <c r="G11">
+        <f>(pdbberlaku!G11-pdbberlaku!F11)</f>
+        <v>85055.300000000047</v>
+      </c>
+      <c r="H11">
+        <f>(pdbberlaku!H11-pdbberlaku!G11)</f>
+        <v>93738.29999999993</v>
+      </c>
+      <c r="I11">
+        <f>(pdbberlaku!I11-pdbberlaku!H11)</f>
+        <v>93614.900000000023</v>
+      </c>
+      <c r="J11">
+        <f>(pdbberlaku!J11-pdbberlaku!I11)</f>
+        <v>93018.400000000023</v>
+      </c>
+      <c r="K11">
+        <f>(pdbberlaku!K11-pdbberlaku!J11)</f>
+        <v>85516.300000000047</v>
+      </c>
+      <c r="L11">
+        <f>(pdbberlaku!L11-pdbberlaku!K11)</f>
+        <v>44040.899999999907</v>
+      </c>
+      <c r="M11">
+        <f>(pdbberlaku!M11-pdbberlaku!L11)</f>
+        <v>64361.300000000047</v>
+      </c>
+      <c r="N11">
+        <f>(pdbberlaku!N11-pdbberlaku!M11)</f>
+        <v>116737.10000000009</v>
+      </c>
+      <c r="O11">
+        <f>(pdbberlaku!O11-pdbberlaku!N11)</f>
+        <v>130329.29999999981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f>(pdbberlaku!C12-pdbberlaku!B12)</f>
+        <v>4486</v>
+      </c>
+      <c r="D12">
+        <f>(pdbberlaku!D12-pdbberlaku!C12)</f>
+        <v>7604.6000000000058</v>
+      </c>
+      <c r="E12">
+        <f>(pdbberlaku!E12-pdbberlaku!D12)</f>
+        <v>3344.3000000000029</v>
+      </c>
+      <c r="F12">
+        <f>(pdbberlaku!F12-pdbberlaku!E12)</f>
+        <v>12983.800000000003</v>
+      </c>
+      <c r="G12">
+        <f>(pdbberlaku!G12-pdbberlaku!F12)</f>
+        <v>12983.5</v>
+      </c>
+      <c r="H12">
+        <f>(pdbberlaku!H12-pdbberlaku!G12)</f>
+        <v>8434.6999999999971</v>
+      </c>
+      <c r="I12">
+        <f>(pdbberlaku!I12-pdbberlaku!H12)</f>
+        <v>5143.3000000000029</v>
+      </c>
+      <c r="J12">
+        <f>(pdbberlaku!J12-pdbberlaku!I12)</f>
+        <v>9707.6999999999825</v>
+      </c>
+      <c r="K12">
+        <f>(pdbberlaku!K12-pdbberlaku!J12)</f>
+        <v>9029.2000000000116</v>
+      </c>
+      <c r="L12">
+        <f>(pdbberlaku!L12-pdbberlaku!K12)</f>
+        <v>-5031.3999999999942</v>
+      </c>
+      <c r="M12">
+        <f>(pdbberlaku!M12-pdbberlaku!L12)</f>
+        <v>-789.30000000001746</v>
+      </c>
+      <c r="N12">
+        <f>(pdbberlaku!N12-pdbberlaku!M12)</f>
+        <v>608.20000000001164</v>
+      </c>
+      <c r="O12">
+        <f>(pdbberlaku!O12-pdbberlaku!N12)</f>
+        <v>12072.100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>(pdbberlaku!C13-pdbberlaku!B13)</f>
+        <v>11885.200000000012</v>
+      </c>
+      <c r="D13">
+        <f>(pdbberlaku!D13-pdbberlaku!C13)</f>
+        <v>8365.6999999999971</v>
+      </c>
+      <c r="E13">
+        <f>(pdbberlaku!E13-pdbberlaku!D13)</f>
+        <v>13354.199999999997</v>
+      </c>
+      <c r="F13">
+        <f>(pdbberlaku!F13-pdbberlaku!E13)</f>
+        <v>9119.6000000000058</v>
+      </c>
+      <c r="G13">
+        <f>(pdbberlaku!G13-pdbberlaku!F13)</f>
+        <v>362</v>
+      </c>
+      <c r="H13">
+        <f>(pdbberlaku!H13-pdbberlaku!G13)</f>
+        <v>4151.3999999999942</v>
+      </c>
+      <c r="I13">
+        <f>(pdbberlaku!I13-pdbberlaku!H13)</f>
+        <v>6990.2999999999884</v>
+      </c>
+      <c r="J13">
+        <f>(pdbberlaku!J13-pdbberlaku!I13)</f>
+        <v>18009.900000000023</v>
+      </c>
+      <c r="K13">
+        <f>(pdbberlaku!K13-pdbberlaku!J13)</f>
+        <v>31474.199999999983</v>
+      </c>
+      <c r="L13">
+        <f>(pdbberlaku!L13-pdbberlaku!K13)</f>
+        <v>-13392.600000000006</v>
+      </c>
+      <c r="M13">
+        <f>(pdbberlaku!M13-pdbberlaku!L13)</f>
+        <v>-6409.8999999999942</v>
+      </c>
+      <c r="N13">
+        <f>(pdbberlaku!N13-pdbberlaku!M13)</f>
+        <v>21425.600000000006</v>
+      </c>
+      <c r="O13">
+        <f>(pdbberlaku!O13-pdbberlaku!N13)</f>
+        <v>2307.2000000000116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>(pdbberlaku!C14-pdbberlaku!B14)</f>
+        <v>2347.7999999999993</v>
+      </c>
+      <c r="D14">
+        <f>(pdbberlaku!D14-pdbberlaku!C14)</f>
+        <v>-358.29999999999927</v>
+      </c>
+      <c r="E14">
+        <f>(pdbberlaku!E14-pdbberlaku!D14)</f>
+        <v>3123.2999999999993</v>
+      </c>
+      <c r="F14">
+        <f>(pdbberlaku!F14-pdbberlaku!E14)</f>
+        <v>3790.2000000000007</v>
+      </c>
+      <c r="G14">
+        <f>(pdbberlaku!G14-pdbberlaku!F14)</f>
+        <v>2840.7000000000007</v>
+      </c>
+      <c r="H14">
+        <f>(pdbberlaku!H14-pdbberlaku!G14)</f>
+        <v>3773.1999999999971</v>
+      </c>
+      <c r="I14">
+        <f>(pdbberlaku!I14-pdbberlaku!H14)</f>
+        <v>1774.7000000000044</v>
+      </c>
+      <c r="J14">
+        <f>(pdbberlaku!J14-pdbberlaku!I14)</f>
+        <v>4727.1999999999971</v>
+      </c>
+      <c r="K14">
+        <f>(pdbberlaku!K14-pdbberlaku!J14)</f>
+        <v>783</v>
+      </c>
+      <c r="L14">
+        <f>(pdbberlaku!L14-pdbberlaku!K14)</f>
+        <v>-3295</v>
+      </c>
+      <c r="M14">
+        <f>(pdbberlaku!M14-pdbberlaku!L14)</f>
+        <v>3304.6999999999971</v>
+      </c>
+      <c r="N14">
+        <f>(pdbberlaku!N14-pdbberlaku!M14)</f>
+        <v>5616.6000000000058</v>
+      </c>
+      <c r="O14">
+        <f>(pdbberlaku!O14-pdbberlaku!N14)</f>
+        <v>1115.6999999999971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f>(pdbberlaku!C15-pdbberlaku!B15)</f>
+        <v>2725.9000000000015</v>
+      </c>
+      <c r="D15">
+        <f>(pdbberlaku!D15-pdbberlaku!C15)</f>
+        <v>1127.5999999999985</v>
+      </c>
+      <c r="E15">
+        <f>(pdbberlaku!E15-pdbberlaku!D15)</f>
+        <v>6329.4000000000015</v>
+      </c>
+      <c r="F15">
+        <f>(pdbberlaku!F15-pdbberlaku!E15)</f>
+        <v>9113.8999999999942</v>
+      </c>
+      <c r="G15">
+        <f>(pdbberlaku!G15-pdbberlaku!F15)</f>
+        <v>1921.5</v>
+      </c>
+      <c r="H15">
+        <f>(pdbberlaku!H15-pdbberlaku!G15)</f>
+        <v>2084.2000000000116</v>
+      </c>
+      <c r="I15">
+        <f>(pdbberlaku!I15-pdbberlaku!H15)</f>
+        <v>1503.1999999999971</v>
+      </c>
+      <c r="J15">
+        <f>(pdbberlaku!J15-pdbberlaku!I15)</f>
+        <v>2129.1999999999971</v>
+      </c>
+      <c r="K15">
+        <f>(pdbberlaku!K15-pdbberlaku!J15)</f>
+        <v>-3390.1000000000058</v>
+      </c>
+      <c r="L15">
+        <f>(pdbberlaku!L15-pdbberlaku!K15)</f>
+        <v>-1630.6999999999971</v>
+      </c>
+      <c r="M15">
+        <f>(pdbberlaku!M15-pdbberlaku!L15)</f>
+        <v>-1999.8000000000029</v>
+      </c>
+      <c r="N15">
+        <f>(pdbberlaku!N15-pdbberlaku!M15)</f>
+        <v>3445.5</v>
+      </c>
+      <c r="O15">
+        <f>(pdbberlaku!O15-pdbberlaku!N15)</f>
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f>(pdbberlaku!C16-pdbberlaku!B16)</f>
+        <v>7323.1999999999971</v>
+      </c>
+      <c r="D16">
+        <f>(pdbberlaku!D16-pdbberlaku!C16)</f>
+        <v>-1643.1999999999971</v>
+      </c>
+      <c r="E16">
+        <f>(pdbberlaku!E16-pdbberlaku!D16)</f>
+        <v>654.19999999999709</v>
+      </c>
+      <c r="F16">
+        <f>(pdbberlaku!F16-pdbberlaku!E16)</f>
+        <v>10053.5</v>
+      </c>
+      <c r="G16">
+        <f>(pdbberlaku!G16-pdbberlaku!F16)</f>
+        <v>3387.8999999999942</v>
+      </c>
+      <c r="H16">
+        <f>(pdbberlaku!H16-pdbberlaku!G16)</f>
+        <v>1889.6000000000058</v>
+      </c>
+      <c r="I16">
+        <f>(pdbberlaku!I16-pdbberlaku!H16)</f>
+        <v>6966.1999999999971</v>
+      </c>
+      <c r="J16">
+        <f>(pdbberlaku!J16-pdbberlaku!I16)</f>
+        <v>5142</v>
+      </c>
+      <c r="K16">
+        <f>(pdbberlaku!K16-pdbberlaku!J16)</f>
+        <v>8134</v>
+      </c>
+      <c r="L16">
+        <f>(pdbberlaku!L16-pdbberlaku!K16)</f>
+        <v>670.10000000000582</v>
+      </c>
+      <c r="M16">
+        <f>(pdbberlaku!M16-pdbberlaku!L16)</f>
+        <v>2639.1999999999971</v>
+      </c>
+      <c r="N16">
+        <f>(pdbberlaku!N16-pdbberlaku!M16)</f>
+        <v>15756.199999999997</v>
+      </c>
+      <c r="O16">
+        <f>(pdbberlaku!O16-pdbberlaku!N16)</f>
+        <v>12051.699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>(pdbberlaku!C17-pdbberlaku!B17)</f>
+        <v>10384.5</v>
+      </c>
+      <c r="D17">
+        <f>(pdbberlaku!D17-pdbberlaku!C17)</f>
+        <v>18743.300000000017</v>
+      </c>
+      <c r="E17">
+        <f>(pdbberlaku!E17-pdbberlaku!D17)</f>
+        <v>13581.899999999994</v>
+      </c>
+      <c r="F17">
+        <f>(pdbberlaku!F17-pdbberlaku!E17)</f>
+        <v>22995.100000000006</v>
+      </c>
+      <c r="G17">
+        <f>(pdbberlaku!G17-pdbberlaku!F17)</f>
+        <v>29751</v>
+      </c>
+      <c r="H17">
+        <f>(pdbberlaku!H17-pdbberlaku!G17)</f>
+        <v>13616.5</v>
+      </c>
+      <c r="I17">
+        <f>(pdbberlaku!I17-pdbberlaku!H17)</f>
+        <v>12788.199999999983</v>
+      </c>
+      <c r="J17">
+        <f>(pdbberlaku!J17-pdbberlaku!I17)</f>
+        <v>3485.1000000000058</v>
+      </c>
+      <c r="K17">
+        <f>(pdbberlaku!K17-pdbberlaku!J17)</f>
+        <v>26247.099999999977</v>
+      </c>
+      <c r="L17">
+        <f>(pdbberlaku!L17-pdbberlaku!K17)</f>
+        <v>30785.200000000012</v>
+      </c>
+      <c r="M17">
+        <f>(pdbberlaku!M17-pdbberlaku!L17)</f>
+        <v>42473.100000000035</v>
+      </c>
+      <c r="N17">
+        <f>(pdbberlaku!N17-pdbberlaku!M17)</f>
+        <v>18142.899999999965</v>
+      </c>
+      <c r="O17">
+        <f>(pdbberlaku!O17-pdbberlaku!N17)</f>
+        <v>8993.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>(pdbberlaku!C18-pdbberlaku!B18)</f>
+        <v>5243</v>
+      </c>
+      <c r="D18">
+        <f>(pdbberlaku!D18-pdbberlaku!C18)</f>
+        <v>4419</v>
+      </c>
+      <c r="E18">
+        <f>(pdbberlaku!E18-pdbberlaku!D18)</f>
+        <v>41.30000000000291</v>
+      </c>
+      <c r="F18">
+        <f>(pdbberlaku!F18-pdbberlaku!E18)</f>
+        <v>3796.5999999999913</v>
+      </c>
+      <c r="G18">
+        <f>(pdbberlaku!G18-pdbberlaku!F18)</f>
+        <v>5688.5</v>
+      </c>
+      <c r="H18">
+        <f>(pdbberlaku!H18-pdbberlaku!G18)</f>
+        <v>-6850.5</v>
+      </c>
+      <c r="I18">
+        <f>(pdbberlaku!I18-pdbberlaku!H18)</f>
+        <v>6768.7000000000116</v>
+      </c>
+      <c r="J18">
+        <f>(pdbberlaku!J18-pdbberlaku!I18)</f>
+        <v>6793</v>
+      </c>
+      <c r="K18">
+        <f>(pdbberlaku!K18-pdbberlaku!J18)</f>
+        <v>-4687.2000000000116</v>
+      </c>
+      <c r="L18">
+        <f>(pdbberlaku!L18-pdbberlaku!K18)</f>
+        <v>-5118.7999999999884</v>
+      </c>
+      <c r="M18">
+        <f>(pdbberlaku!M18-pdbberlaku!L18)</f>
+        <v>5751.0999999999913</v>
+      </c>
+      <c r="N18">
+        <f>(pdbberlaku!N18-pdbberlaku!M18)</f>
+        <v>-809.69999999999709</v>
+      </c>
+      <c r="O18">
+        <f>(pdbberlaku!O18-pdbberlaku!N18)</f>
+        <v>-3933.8000000000029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f>(pdbberlaku!C19-pdbberlaku!B19)</f>
+        <v>4658.0999999999985</v>
+      </c>
+      <c r="D19">
+        <f>(pdbberlaku!D19-pdbberlaku!C19)</f>
+        <v>7421.7999999999956</v>
+      </c>
+      <c r="E19">
+        <f>(pdbberlaku!E19-pdbberlaku!D19)</f>
+        <v>6372.4000000000087</v>
+      </c>
+      <c r="F19">
+        <f>(pdbberlaku!F19-pdbberlaku!E19)</f>
+        <v>7451.3999999999942</v>
+      </c>
+      <c r="G19">
+        <f>(pdbberlaku!G19-pdbberlaku!F19)</f>
+        <v>6519</v>
+      </c>
+      <c r="H19">
+        <f>(pdbberlaku!H19-pdbberlaku!G19)</f>
+        <v>5685</v>
+      </c>
+      <c r="I19">
+        <f>(pdbberlaku!I19-pdbberlaku!H19)</f>
+        <v>549.80000000000291</v>
+      </c>
+      <c r="J19">
+        <f>(pdbberlaku!J19-pdbberlaku!I19)</f>
+        <v>3561.0999999999913</v>
+      </c>
+      <c r="K19">
+        <f>(pdbberlaku!K19-pdbberlaku!J19)</f>
+        <v>195.70000000001164</v>
+      </c>
+      <c r="L19">
+        <f>(pdbberlaku!L19-pdbberlaku!K19)</f>
+        <v>-7502.4000000000087</v>
+      </c>
+      <c r="M19">
+        <f>(pdbberlaku!M19-pdbberlaku!L19)</f>
+        <v>3156.6000000000058</v>
+      </c>
+      <c r="N19">
+        <f>(pdbberlaku!N19-pdbberlaku!M19)</f>
+        <v>2061.1999999999971</v>
+      </c>
+      <c r="O19">
+        <f>(pdbberlaku!O19-pdbberlaku!N19)</f>
+        <v>7308.1999999999971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f>(pdbberlaku!C20-pdbberlaku!B20)</f>
+        <v>8374.5999999999985</v>
+      </c>
+      <c r="D20">
+        <f>(pdbberlaku!D20-pdbberlaku!C20)</f>
+        <v>1711.2000000000044</v>
+      </c>
+      <c r="E20">
+        <f>(pdbberlaku!E20-pdbberlaku!D20)</f>
+        <v>9937.8000000000029</v>
+      </c>
+      <c r="F20">
+        <f>(pdbberlaku!F20-pdbberlaku!E20)</f>
+        <v>7623.6999999999971</v>
+      </c>
+      <c r="G20">
+        <f>(pdbberlaku!G20-pdbberlaku!F20)</f>
+        <v>8040.5</v>
+      </c>
+      <c r="H20">
+        <f>(pdbberlaku!H20-pdbberlaku!G20)</f>
+        <v>-599.60000000000582</v>
+      </c>
+      <c r="I20">
+        <f>(pdbberlaku!I20-pdbberlaku!H20)</f>
+        <v>9285.8000000000029</v>
+      </c>
+      <c r="J20">
+        <f>(pdbberlaku!J20-pdbberlaku!I20)</f>
+        <v>12495.800000000003</v>
+      </c>
+      <c r="K20">
+        <f>(pdbberlaku!K20-pdbberlaku!J20)</f>
+        <v>4727.3000000000029</v>
+      </c>
+      <c r="L20">
+        <f>(pdbberlaku!L20-pdbberlaku!K20)</f>
+        <v>4888.1999999999971</v>
+      </c>
+      <c r="M20">
+        <f>(pdbberlaku!M20-pdbberlaku!L20)</f>
+        <v>16642.199999999997</v>
+      </c>
+      <c r="N20">
+        <f>(pdbberlaku!N20-pdbberlaku!M20)</f>
+        <v>30413.799999999988</v>
+      </c>
+      <c r="O20">
+        <f>(pdbberlaku!O20-pdbberlaku!N20)</f>
+        <v>28302.400000000023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f>(pdbberlaku!C21-pdbberlaku!B21)</f>
+        <v>11308.899999999994</v>
+      </c>
+      <c r="D21">
+        <f>(pdbberlaku!D21-pdbberlaku!C21)</f>
+        <v>20910.300000000017</v>
+      </c>
+      <c r="E21">
+        <f>(pdbberlaku!E21-pdbberlaku!D21)</f>
+        <v>23225.199999999983</v>
+      </c>
+      <c r="F21">
+        <f>(pdbberlaku!F21-pdbberlaku!E21)</f>
+        <v>11885.700000000012</v>
+      </c>
+      <c r="G21">
+        <f>(pdbberlaku!G21-pdbberlaku!F21)</f>
+        <v>28597.5</v>
+      </c>
+      <c r="H21">
+        <f>(pdbberlaku!H21-pdbberlaku!G21)</f>
+        <v>15078.399999999994</v>
+      </c>
+      <c r="I21">
+        <f>(pdbberlaku!I21-pdbberlaku!H21)</f>
+        <v>11114.399999999994</v>
+      </c>
+      <c r="J21">
+        <f>(pdbberlaku!J21-pdbberlaku!I21)</f>
+        <v>4816.1000000000058</v>
+      </c>
+      <c r="K21">
+        <f>(pdbberlaku!K21-pdbberlaku!J21)</f>
+        <v>7697.2999999999884</v>
+      </c>
+      <c r="L21">
+        <f>(pdbberlaku!L21-pdbberlaku!K21)</f>
+        <v>-13241.5</v>
+      </c>
+      <c r="M21">
+        <f>(pdbberlaku!M21-pdbberlaku!L21)</f>
+        <v>5222.8000000000175</v>
+      </c>
+      <c r="N21">
+        <f>(pdbberlaku!N21-pdbberlaku!M21)</f>
+        <v>27193.699999999983</v>
+      </c>
+      <c r="O21">
+        <f>(pdbberlaku!O21-pdbberlaku!N21)</f>
+        <v>43427.700000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>(pdbberlaku!C22-pdbberlaku!B22)</f>
+        <v>-390.79999999999927</v>
+      </c>
+      <c r="D22">
+        <f>(pdbberlaku!D22-pdbberlaku!C22)</f>
+        <v>1455.6999999999971</v>
+      </c>
+      <c r="E22">
+        <f>(pdbberlaku!E22-pdbberlaku!D22)</f>
+        <v>672.10000000000218</v>
+      </c>
+      <c r="F22">
+        <f>(pdbberlaku!F22-pdbberlaku!E22)</f>
+        <v>7574.6000000000022</v>
+      </c>
+      <c r="G22">
+        <f>(pdbberlaku!G22-pdbberlaku!F22)</f>
+        <v>4208.6999999999971</v>
+      </c>
+      <c r="H22">
+        <f>(pdbberlaku!H22-pdbberlaku!G22)</f>
+        <v>2882</v>
+      </c>
+      <c r="I22">
+        <f>(pdbberlaku!I22-pdbberlaku!H22)</f>
+        <v>2923.5</v>
+      </c>
+      <c r="J22">
+        <f>(pdbberlaku!J22-pdbberlaku!I22)</f>
+        <v>4786.5999999999985</v>
+      </c>
+      <c r="K22">
+        <f>(pdbberlaku!K22-pdbberlaku!J22)</f>
+        <v>-897.09999999999854</v>
+      </c>
+      <c r="L22">
+        <f>(pdbberlaku!L22-pdbberlaku!K22)</f>
+        <v>-3751.9000000000015</v>
+      </c>
+      <c r="M22">
+        <f>(pdbberlaku!M22-pdbberlaku!L22)</f>
+        <v>5669.4000000000015</v>
+      </c>
+      <c r="N22">
+        <f>(pdbberlaku!N22-pdbberlaku!M22)</f>
+        <v>6427.3000000000029</v>
+      </c>
+      <c r="O22">
+        <f>(pdbberlaku!O22-pdbberlaku!N22)</f>
+        <v>1161.7999999999956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>(pdbberlaku!C23-pdbberlaku!B23)</f>
+        <v>20603.699999999983</v>
+      </c>
+      <c r="D23">
+        <f>(pdbberlaku!D23-pdbberlaku!C23)</f>
+        <v>11526.800000000017</v>
+      </c>
+      <c r="E23">
+        <f>(pdbberlaku!E23-pdbberlaku!D23)</f>
+        <v>26377.299999999988</v>
+      </c>
+      <c r="F23">
+        <f>(pdbberlaku!F23-pdbberlaku!E23)</f>
+        <v>14633.399999999994</v>
+      </c>
+      <c r="G23">
+        <f>(pdbberlaku!G23-pdbberlaku!F23)</f>
+        <v>13109.600000000006</v>
+      </c>
+      <c r="H23">
+        <f>(pdbberlaku!H23-pdbberlaku!G23)</f>
+        <v>16047.899999999994</v>
+      </c>
+      <c r="I23">
+        <f>(pdbberlaku!I23-pdbberlaku!H23)</f>
+        <v>10357.200000000012</v>
+      </c>
+      <c r="J23">
+        <f>(pdbberlaku!J23-pdbberlaku!I23)</f>
+        <v>14070.699999999983</v>
+      </c>
+      <c r="K23">
+        <f>(pdbberlaku!K23-pdbberlaku!J23)</f>
+        <v>-2699.5</v>
+      </c>
+      <c r="L23">
+        <f>(pdbberlaku!L23-pdbberlaku!K23)</f>
+        <v>-49401.299999999988</v>
+      </c>
+      <c r="M23">
+        <f>(pdbberlaku!M23-pdbberlaku!L23)</f>
+        <v>43006.899999999994</v>
+      </c>
+      <c r="N23">
+        <f>(pdbberlaku!N23-pdbberlaku!M23)</f>
+        <v>32727.000000000029</v>
+      </c>
+      <c r="O23">
+        <f>(pdbberlaku!O23-pdbberlaku!N23)</f>
+        <v>26272.599999999977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f>(pdbberlaku!C24-pdbberlaku!B24)</f>
+        <v>1915.2000000000007</v>
+      </c>
+      <c r="D24">
+        <f>(pdbberlaku!D24-pdbberlaku!C24)</f>
+        <v>502</v>
+      </c>
+      <c r="E24">
+        <f>(pdbberlaku!E24-pdbberlaku!D24)</f>
+        <v>2444.0999999999985</v>
+      </c>
+      <c r="F24">
+        <f>(pdbberlaku!F24-pdbberlaku!E24)</f>
+        <v>3187.1000000000022</v>
+      </c>
+      <c r="G24">
+        <f>(pdbberlaku!G24-pdbberlaku!F24)</f>
+        <v>3222</v>
+      </c>
+      <c r="H24">
+        <f>(pdbberlaku!H24-pdbberlaku!G24)</f>
+        <v>784.5</v>
+      </c>
+      <c r="I24">
+        <f>(pdbberlaku!I24-pdbberlaku!H24)</f>
+        <v>1726.8999999999978</v>
+      </c>
+      <c r="J24">
+        <f>(pdbberlaku!J24-pdbberlaku!I24)</f>
+        <v>1636.5</v>
+      </c>
+      <c r="K24">
+        <f>(pdbberlaku!K24-pdbberlaku!J24)</f>
+        <v>3751.4000000000015</v>
+      </c>
+      <c r="L24">
+        <f>(pdbberlaku!L24-pdbberlaku!K24)</f>
+        <v>-585.90000000000146</v>
+      </c>
+      <c r="M24">
+        <f>(pdbberlaku!M24-pdbberlaku!L24)</f>
+        <v>3520</v>
+      </c>
+      <c r="N24">
+        <f>(pdbberlaku!N24-pdbberlaku!M24)</f>
+        <v>-202.59999999999854</v>
+      </c>
+      <c r="O24">
+        <f>(pdbberlaku!O24-pdbberlaku!N24)</f>
+        <v>213.69999999999709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f>(pdbberlaku!C25-pdbberlaku!B25)</f>
+        <v>403.59999999999854</v>
+      </c>
+      <c r="D25">
+        <f>(pdbberlaku!D25-pdbberlaku!C25)</f>
+        <v>423.70000000000073</v>
+      </c>
+      <c r="E25">
+        <f>(pdbberlaku!E25-pdbberlaku!D25)</f>
+        <v>636.79999999999927</v>
+      </c>
+      <c r="F25">
+        <f>(pdbberlaku!F25-pdbberlaku!E25)</f>
+        <v>2089.2999999999993</v>
+      </c>
+      <c r="G25">
+        <f>(pdbberlaku!G25-pdbberlaku!F25)</f>
+        <v>1975.5</v>
+      </c>
+      <c r="H25">
+        <f>(pdbberlaku!H25-pdbberlaku!G25)</f>
+        <v>41.400000000001455</v>
+      </c>
+      <c r="I25">
+        <f>(pdbberlaku!I25-pdbberlaku!H25)</f>
+        <v>28.5</v>
+      </c>
+      <c r="J25">
+        <f>(pdbberlaku!J25-pdbberlaku!I25)</f>
+        <v>433.29999999999927</v>
+      </c>
+      <c r="K25">
+        <f>(pdbberlaku!K25-pdbberlaku!J25)</f>
+        <v>1887.7999999999993</v>
+      </c>
+      <c r="L25">
+        <f>(pdbberlaku!L25-pdbberlaku!K25)</f>
+        <v>81.200000000000728</v>
+      </c>
+      <c r="M25">
+        <f>(pdbberlaku!M25-pdbberlaku!L25)</f>
+        <v>-86.599999999998545</v>
+      </c>
+      <c r="N25">
+        <f>(pdbberlaku!N25-pdbberlaku!M25)</f>
+        <v>1715.3999999999978</v>
+      </c>
+      <c r="O25">
+        <f>(pdbberlaku!O25-pdbberlaku!N25)</f>
+        <v>-8.2999999999992724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f>(pdbberlaku!C26-pdbberlaku!B26)</f>
+        <v>19172.799999999988</v>
+      </c>
+      <c r="D26">
+        <f>(pdbberlaku!D26-pdbberlaku!C26)</f>
+        <v>3915.9000000000087</v>
+      </c>
+      <c r="E26">
+        <f>(pdbberlaku!E26-pdbberlaku!D26)</f>
+        <v>3049</v>
+      </c>
+      <c r="F26">
+        <f>(pdbberlaku!F26-pdbberlaku!E26)</f>
+        <v>16218.300000000003</v>
+      </c>
+      <c r="G26">
+        <f>(pdbberlaku!G26-pdbberlaku!F26)</f>
+        <v>14928.599999999991</v>
+      </c>
+      <c r="H26">
+        <f>(pdbberlaku!H26-pdbberlaku!G26)</f>
+        <v>12510.699999999997</v>
+      </c>
+      <c r="I26">
+        <f>(pdbberlaku!I26-pdbberlaku!H26)</f>
+        <v>19995.399999999994</v>
+      </c>
+      <c r="J26">
+        <f>(pdbberlaku!J26-pdbberlaku!I26)</f>
+        <v>14300.5</v>
+      </c>
+      <c r="K26">
+        <f>(pdbberlaku!K26-pdbberlaku!J26)</f>
+        <v>8475</v>
+      </c>
+      <c r="L26">
+        <f>(pdbberlaku!L26-pdbberlaku!K26)</f>
+        <v>-5373.6999999999825</v>
+      </c>
+      <c r="M26">
+        <f>(pdbberlaku!M26-pdbberlaku!L26)</f>
+        <v>10305.600000000006</v>
+      </c>
+      <c r="N26">
+        <f>(pdbberlaku!N26-pdbberlaku!M26)</f>
+        <v>14626.5</v>
+      </c>
+      <c r="O26">
+        <f>(pdbberlaku!O26-pdbberlaku!N26)</f>
+        <v>13577.199999999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f>(pdbberlaku!C27-pdbberlaku!B27)</f>
+        <v>360.30000000000018</v>
+      </c>
+      <c r="D27">
+        <f>(pdbberlaku!D27-pdbberlaku!C27)</f>
+        <v>395</v>
+      </c>
+      <c r="E27">
+        <f>(pdbberlaku!E27-pdbberlaku!D27)</f>
+        <v>605.19999999999982</v>
+      </c>
+      <c r="F27">
+        <f>(pdbberlaku!F27-pdbberlaku!E27)</f>
+        <v>631.60000000000036</v>
+      </c>
+      <c r="G27">
+        <f>(pdbberlaku!G27-pdbberlaku!F27)</f>
+        <v>705.69999999999891</v>
+      </c>
+      <c r="H27">
+        <f>(pdbberlaku!H27-pdbberlaku!G27)</f>
+        <v>363.10000000000036</v>
+      </c>
+      <c r="I27">
+        <f>(pdbberlaku!I27-pdbberlaku!H27)</f>
+        <v>529.20000000000073</v>
+      </c>
+      <c r="J27">
+        <f>(pdbberlaku!J27-pdbberlaku!I27)</f>
+        <v>585</v>
+      </c>
+      <c r="K27">
+        <f>(pdbberlaku!K27-pdbberlaku!J27)</f>
+        <v>712.5</v>
+      </c>
+      <c r="L27">
+        <f>(pdbberlaku!L27-pdbberlaku!K27)</f>
+        <v>569.29999999999927</v>
+      </c>
+      <c r="M27">
+        <f>(pdbberlaku!M27-pdbberlaku!L27)</f>
+        <v>721</v>
+      </c>
+      <c r="N27">
+        <f>(pdbberlaku!N27-pdbberlaku!M27)</f>
+        <v>510.5</v>
+      </c>
+      <c r="O27">
+        <f>(pdbberlaku!O27-pdbberlaku!N27)</f>
+        <v>748.39999999999964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f>(pdbberlaku!C28-pdbberlaku!B28)</f>
+        <v>85279</v>
+      </c>
+      <c r="D28">
+        <f>(pdbberlaku!D28-pdbberlaku!C28)</f>
+        <v>93023.699999999953</v>
+      </c>
+      <c r="E28">
+        <f>(pdbberlaku!E28-pdbberlaku!D28)</f>
+        <v>100782.40000000002</v>
+      </c>
+      <c r="F28">
+        <f>(pdbberlaku!F28-pdbberlaku!E28)</f>
+        <v>135959</v>
+      </c>
+      <c r="G28">
+        <f>(pdbberlaku!G28-pdbberlaku!F28)</f>
+        <v>135134.60000000009</v>
+      </c>
+      <c r="H28">
+        <f>(pdbberlaku!H28-pdbberlaku!G28)</f>
+        <v>110516.69999999995</v>
+      </c>
+      <c r="I28">
+        <f>(pdbberlaku!I28-pdbberlaku!H28)</f>
+        <v>122912.80000000005</v>
+      </c>
+      <c r="J28">
+        <f>(pdbberlaku!J28-pdbberlaku!I28)</f>
+        <v>151783.39999999991</v>
+      </c>
+      <c r="K28">
+        <f>(pdbberlaku!K28-pdbberlaku!J28)</f>
+        <v>139444.19999999995</v>
+      </c>
+      <c r="L28">
+        <f>(pdbberlaku!L28-pdbberlaku!K28)</f>
+        <v>-49081.59999999986</v>
+      </c>
+      <c r="M28">
+        <f>(pdbberlaku!M28-pdbberlaku!L28)</f>
+        <v>119067.09999999986</v>
+      </c>
+      <c r="N28">
+        <f>(pdbberlaku!N28-pdbberlaku!M28)</f>
+        <v>141252</v>
+      </c>
+      <c r="O28">
+        <f>(pdbberlaku!O28-pdbberlaku!N28)</f>
+        <v>159406.10000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f>(pdbberlaku!C29-pdbberlaku!B29)</f>
+        <v>26803.799999999988</v>
+      </c>
+      <c r="D29">
+        <f>(pdbberlaku!D29-pdbberlaku!C29)</f>
+        <v>19722.200000000012</v>
+      </c>
+      <c r="E29">
+        <f>(pdbberlaku!E29-pdbberlaku!D29)</f>
+        <v>30275.799999999988</v>
+      </c>
+      <c r="F29">
+        <f>(pdbberlaku!F29-pdbberlaku!E29)</f>
+        <v>33896.799999999988</v>
+      </c>
+      <c r="G29">
+        <f>(pdbberlaku!G29-pdbberlaku!F29)</f>
+        <v>18767</v>
+      </c>
+      <c r="H29">
+        <f>(pdbberlaku!H29-pdbberlaku!G29)</f>
+        <v>23181.700000000012</v>
+      </c>
+      <c r="I29">
+        <f>(pdbberlaku!I29-pdbberlaku!H29)</f>
+        <v>21648.200000000012</v>
+      </c>
+      <c r="J29">
+        <f>(pdbberlaku!J29-pdbberlaku!I29)</f>
+        <v>30183.900000000023</v>
+      </c>
+      <c r="K29">
+        <f>(pdbberlaku!K29-pdbberlaku!J29)</f>
+        <v>29817.399999999965</v>
+      </c>
+      <c r="L29">
+        <f>(pdbberlaku!L29-pdbberlaku!K29)</f>
+        <v>-56407.200000000012</v>
+      </c>
+      <c r="M29">
+        <f>(pdbberlaku!M29-pdbberlaku!L29)</f>
+        <v>47958.100000000035</v>
+      </c>
+      <c r="N29">
+        <f>(pdbberlaku!N29-pdbberlaku!M29)</f>
+        <v>31283.399999999965</v>
+      </c>
+      <c r="O29">
+        <f>(pdbberlaku!O29-pdbberlaku!N29)</f>
+        <v>27913.300000000047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f>(pdbberlaku!C30-pdbberlaku!B30)</f>
+        <v>115364.5</v>
+      </c>
+      <c r="D30">
+        <f>(pdbberlaku!D30-pdbberlaku!C30)</f>
+        <v>52670.099999999977</v>
+      </c>
+      <c r="E30">
+        <f>(pdbberlaku!E30-pdbberlaku!D30)</f>
+        <v>92385.400000000023</v>
+      </c>
+      <c r="F30">
+        <f>(pdbberlaku!F30-pdbberlaku!E30)</f>
+        <v>124197</v>
+      </c>
+      <c r="G30">
+        <f>(pdbberlaku!G30-pdbberlaku!F30)</f>
+        <v>94870.300000000047</v>
+      </c>
+      <c r="H30">
+        <f>(pdbberlaku!H30-pdbberlaku!G30)</f>
+        <v>79352</v>
+      </c>
+      <c r="I30">
+        <f>(pdbberlaku!I30-pdbberlaku!H30)</f>
+        <v>111806.59999999986</v>
+      </c>
+      <c r="J30">
+        <f>(pdbberlaku!J30-pdbberlaku!I30)</f>
+        <v>132763.90000000014</v>
+      </c>
+      <c r="K30">
+        <f>(pdbberlaku!K30-pdbberlaku!J30)</f>
+        <v>98638.5</v>
+      </c>
+      <c r="L30">
+        <f>(pdbberlaku!L30-pdbberlaku!K30)</f>
+        <v>-9873</v>
+      </c>
+      <c r="M30">
+        <f>(pdbberlaku!M30-pdbberlaku!L30)</f>
+        <v>157988.09999999986</v>
+      </c>
+      <c r="N30">
+        <f>(pdbberlaku!N30-pdbberlaku!M30)</f>
+        <v>285478.40000000014</v>
+      </c>
+      <c r="O30">
+        <f>(pdbberlaku!O30-pdbberlaku!N30)</f>
+        <v>157835.60000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f>(pdbberlaku!C31-pdbberlaku!B31)</f>
+        <v>30747.000000000029</v>
+      </c>
+      <c r="D31">
+        <f>(pdbberlaku!D31-pdbberlaku!C31)</f>
+        <v>37033.799999999988</v>
+      </c>
+      <c r="E31">
+        <f>(pdbberlaku!E31-pdbberlaku!D31)</f>
+        <v>62149.700000000012</v>
+      </c>
+      <c r="F31">
+        <f>(pdbberlaku!F31-pdbberlaku!E31)</f>
+        <v>91663</v>
+      </c>
+      <c r="G31">
+        <f>(pdbberlaku!G31-pdbberlaku!F31)</f>
+        <v>111495.40000000002</v>
+      </c>
+      <c r="H31">
+        <f>(pdbberlaku!H31-pdbberlaku!G31)</f>
+        <v>66529.599999999977</v>
+      </c>
+      <c r="I31">
+        <f>(pdbberlaku!I31-pdbberlaku!H31)</f>
+        <v>90235.699999999953</v>
+      </c>
+      <c r="J31">
+        <f>(pdbberlaku!J31-pdbberlaku!I31)</f>
+        <v>62547.400000000023</v>
+      </c>
+      <c r="K31">
+        <f>(pdbberlaku!K31-pdbberlaku!J31)</f>
+        <v>83728.400000000023</v>
+      </c>
+      <c r="L31">
+        <f>(pdbberlaku!L31-pdbberlaku!K31)</f>
+        <v>-191953</v>
+      </c>
+      <c r="M31">
+        <f>(pdbberlaku!M31-pdbberlaku!L31)</f>
+        <v>30057.900000000023</v>
+      </c>
+      <c r="N31">
+        <f>(pdbberlaku!N31-pdbberlaku!M31)</f>
+        <v>263909.19999999995</v>
+      </c>
+      <c r="O31">
+        <f>(pdbberlaku!O31-pdbberlaku!N31)</f>
+        <v>247722.39999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f>(pdbberlaku!C32-pdbberlaku!B32)</f>
+        <v>5338.0999999999985</v>
+      </c>
+      <c r="D32">
+        <f>(pdbberlaku!D32-pdbberlaku!C32)</f>
+        <v>9950</v>
+      </c>
+      <c r="E32">
+        <f>(pdbberlaku!E32-pdbberlaku!D32)</f>
+        <v>12436.599999999999</v>
+      </c>
+      <c r="F32">
+        <f>(pdbberlaku!F32-pdbberlaku!E32)</f>
+        <v>10766.100000000006</v>
+      </c>
+      <c r="G32">
+        <f>(pdbberlaku!G32-pdbberlaku!F32)</f>
+        <v>6535.3999999999942</v>
+      </c>
+      <c r="H32">
+        <f>(pdbberlaku!H32-pdbberlaku!G32)</f>
+        <v>5630.8999999999942</v>
+      </c>
+      <c r="I32">
+        <f>(pdbberlaku!I32-pdbberlaku!H32)</f>
+        <v>5531.9000000000087</v>
+      </c>
+      <c r="J32">
+        <f>(pdbberlaku!J32-pdbberlaku!I32)</f>
+        <v>4618.3999999999942</v>
+      </c>
+      <c r="K32">
+        <f>(pdbberlaku!K32-pdbberlaku!J32)</f>
+        <v>2632.3000000000029</v>
+      </c>
+      <c r="L32">
+        <f>(pdbberlaku!L32-pdbberlaku!K32)</f>
+        <v>-24592.699999999997</v>
+      </c>
+      <c r="M32">
+        <f>(pdbberlaku!M32-pdbberlaku!L32)</f>
+        <v>4532.1999999999971</v>
+      </c>
+      <c r="N32">
+        <f>(pdbberlaku!N32-pdbberlaku!M32)</f>
+        <v>25871.800000000003</v>
+      </c>
+      <c r="O32">
+        <f>(pdbberlaku!O32-pdbberlaku!N32)</f>
+        <v>15448.300000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f>(pdbberlaku!C33-pdbberlaku!B33)</f>
+        <v>18595.399999999994</v>
+      </c>
+      <c r="D33">
+        <f>(pdbberlaku!D33-pdbberlaku!C33)</f>
+        <v>18447</v>
+      </c>
+      <c r="E33">
+        <f>(pdbberlaku!E33-pdbberlaku!D33)</f>
+        <v>24449.399999999994</v>
+      </c>
+      <c r="F33">
+        <f>(pdbberlaku!F33-pdbberlaku!E33)</f>
+        <v>20797.700000000012</v>
+      </c>
+      <c r="G33">
+        <f>(pdbberlaku!G33-pdbberlaku!F33)</f>
+        <v>13958.299999999988</v>
+      </c>
+      <c r="H33">
+        <f>(pdbberlaku!H33-pdbberlaku!G33)</f>
+        <v>15868.799999999988</v>
+      </c>
+      <c r="I33">
+        <f>(pdbberlaku!I33-pdbberlaku!H33)</f>
+        <v>18425.700000000012</v>
+      </c>
+      <c r="J33">
+        <f>(pdbberlaku!J33-pdbberlaku!I33)</f>
+        <v>21078.200000000012</v>
+      </c>
+      <c r="K33">
+        <f>(pdbberlaku!K33-pdbberlaku!J33)</f>
+        <v>24865.700000000012</v>
+      </c>
+      <c r="L33">
+        <f>(pdbberlaku!L33-pdbberlaku!K33)</f>
+        <v>-21560</v>
+      </c>
+      <c r="M33">
+        <f>(pdbberlaku!M33-pdbberlaku!L33)</f>
+        <v>13646.599999999977</v>
+      </c>
+      <c r="N33">
+        <f>(pdbberlaku!N33-pdbberlaku!M33)</f>
+        <v>33833.100000000035</v>
+      </c>
+      <c r="O33">
+        <f>(pdbberlaku!O33-pdbberlaku!N33)</f>
+        <v>38876.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f>(pdbberlaku!C34-pdbberlaku!B34)</f>
+        <v>25729.499999999971</v>
+      </c>
+      <c r="D34">
+        <f>(pdbberlaku!D34-pdbberlaku!C34)</f>
+        <v>29584.800000000047</v>
+      </c>
+      <c r="E34">
+        <f>(pdbberlaku!E34-pdbberlaku!D34)</f>
+        <v>29647</v>
+      </c>
+      <c r="F34">
+        <f>(pdbberlaku!F34-pdbberlaku!E34)</f>
+        <v>28447.899999999965</v>
+      </c>
+      <c r="G34">
+        <f>(pdbberlaku!G34-pdbberlaku!F34)</f>
+        <v>36559.200000000012</v>
+      </c>
+      <c r="H34">
+        <f>(pdbberlaku!H34-pdbberlaku!G34)</f>
+        <v>43172.200000000012</v>
+      </c>
+      <c r="I34">
+        <f>(pdbberlaku!I34-pdbberlaku!H34)</f>
+        <v>64527.200000000012</v>
+      </c>
+      <c r="J34">
+        <f>(pdbberlaku!J34-pdbberlaku!I34)</f>
+        <v>45222.099999999977</v>
+      </c>
+      <c r="K34">
+        <f>(pdbberlaku!K34-pdbberlaku!J34)</f>
+        <v>67594.599999999977</v>
+      </c>
+      <c r="L34">
+        <f>(pdbberlaku!L34-pdbberlaku!K34)</f>
+        <v>69430.70000000007</v>
+      </c>
+      <c r="M34">
+        <f>(pdbberlaku!M34-pdbberlaku!L34)</f>
+        <v>52839.599999999977</v>
+      </c>
+      <c r="N34">
+        <f>(pdbberlaku!N34-pdbberlaku!M34)</f>
+        <v>63934.400000000023</v>
+      </c>
+      <c r="O34">
+        <f>(pdbberlaku!O34-pdbberlaku!N34)</f>
+        <v>70899.699999999953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f>(pdbberlaku!C35-pdbberlaku!B35)</f>
+        <v>30857.899999999994</v>
+      </c>
+      <c r="D35">
+        <f>(pdbberlaku!D35-pdbberlaku!C35)</f>
+        <v>49948</v>
+      </c>
+      <c r="E35">
+        <f>(pdbberlaku!E35-pdbberlaku!D35)</f>
+        <v>49597.600000000035</v>
+      </c>
+      <c r="F35">
+        <f>(pdbberlaku!F35-pdbberlaku!E35)</f>
+        <v>38306.899999999965</v>
+      </c>
+      <c r="G35">
+        <f>(pdbberlaku!G35-pdbberlaku!F35)</f>
+        <v>55961.100000000035</v>
+      </c>
+      <c r="H35">
+        <f>(pdbberlaku!H35-pdbberlaku!G35)</f>
+        <v>55806.899999999965</v>
+      </c>
+      <c r="I35">
+        <f>(pdbberlaku!I35-pdbberlaku!H35)</f>
+        <v>50996.799999999988</v>
+      </c>
+      <c r="J35">
+        <f>(pdbberlaku!J35-pdbberlaku!I35)</f>
+        <v>45111.5</v>
+      </c>
+      <c r="K35">
+        <f>(pdbberlaku!K35-pdbberlaku!J35)</f>
+        <v>55118.70000000007</v>
+      </c>
+      <c r="L35">
+        <f>(pdbberlaku!L35-pdbberlaku!K35)</f>
+        <v>24639.099999999977</v>
+      </c>
+      <c r="M35">
+        <f>(pdbberlaku!M35-pdbberlaku!L35)</f>
+        <v>40114.29999999993</v>
+      </c>
+      <c r="N35">
+        <f>(pdbberlaku!N35-pdbberlaku!M35)</f>
+        <v>73183.5</v>
+      </c>
+      <c r="O35">
+        <f>(pdbberlaku!O35-pdbberlaku!N35)</f>
+        <v>59797.100000000093</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f>(pdbberlaku!C36-pdbberlaku!B36)</f>
+        <v>20583.100000000006</v>
+      </c>
+      <c r="D36">
+        <f>(pdbberlaku!D36-pdbberlaku!C36)</f>
+        <v>19117.299999999988</v>
+      </c>
+      <c r="E36">
+        <f>(pdbberlaku!E36-pdbberlaku!D36)</f>
+        <v>26361.100000000006</v>
+      </c>
+      <c r="F36">
+        <f>(pdbberlaku!F36-pdbberlaku!E36)</f>
+        <v>30298.400000000023</v>
+      </c>
+      <c r="G36">
+        <f>(pdbberlaku!G36-pdbberlaku!F36)</f>
+        <v>33028</v>
+      </c>
+      <c r="H36">
+        <f>(pdbberlaku!H36-pdbberlaku!G36)</f>
+        <v>22886.799999999988</v>
+      </c>
+      <c r="I36">
+        <f>(pdbberlaku!I36-pdbberlaku!H36)</f>
+        <v>31771</v>
+      </c>
+      <c r="J36">
+        <f>(pdbberlaku!J36-pdbberlaku!I36)</f>
+        <v>23754.5</v>
+      </c>
+      <c r="K36">
+        <f>(pdbberlaku!K36-pdbberlaku!J36)</f>
+        <v>33442.200000000012</v>
+      </c>
+      <c r="L36">
+        <f>(pdbberlaku!L36-pdbberlaku!K36)</f>
+        <v>14325</v>
+      </c>
+      <c r="M36">
+        <f>(pdbberlaku!M36-pdbberlaku!L36)</f>
+        <v>14440.799999999988</v>
+      </c>
+      <c r="N36">
+        <f>(pdbberlaku!N36-pdbberlaku!M36)</f>
+        <v>20089.5</v>
+      </c>
+      <c r="O36">
+        <f>(pdbberlaku!O36-pdbberlaku!N36)</f>
+        <v>17146.200000000012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f>(pdbberlaku!C37-pdbberlaku!B37)</f>
+        <v>9960.1999999999971</v>
+      </c>
+      <c r="D37">
+        <f>(pdbberlaku!D37-pdbberlaku!C37)</f>
+        <v>9830.5</v>
+      </c>
+      <c r="E37">
+        <f>(pdbberlaku!E37-pdbberlaku!D37)</f>
+        <v>10645.900000000009</v>
+      </c>
+      <c r="F37">
+        <f>(pdbberlaku!F37-pdbberlaku!E37)</f>
+        <v>12265.899999999994</v>
+      </c>
+      <c r="G37">
+        <f>(pdbberlaku!G37-pdbberlaku!F37)</f>
+        <v>14044.300000000003</v>
+      </c>
+      <c r="H37">
+        <f>(pdbberlaku!H37-pdbberlaku!G37)</f>
+        <v>8909</v>
+      </c>
+      <c r="I37">
+        <f>(pdbberlaku!I37-pdbberlaku!H37)</f>
+        <v>12730.200000000012</v>
+      </c>
+      <c r="J37">
+        <f>(pdbberlaku!J37-pdbberlaku!I37)</f>
+        <v>13239.399999999994</v>
+      </c>
+      <c r="K37">
+        <f>(pdbberlaku!K37-pdbberlaku!J37)</f>
+        <v>16618.899999999994</v>
+      </c>
+      <c r="L37">
+        <f>(pdbberlaku!L37-pdbberlaku!K37)</f>
+        <v>26791.399999999994</v>
+      </c>
+      <c r="M37">
+        <f>(pdbberlaku!M37-pdbberlaku!L37)</f>
+        <v>25754.700000000012</v>
+      </c>
+      <c r="N37">
+        <f>(pdbberlaku!N37-pdbberlaku!M37)</f>
+        <v>8936.5</v>
+      </c>
+      <c r="O37">
+        <f>(pdbberlaku!O37-pdbberlaku!N37)</f>
+        <v>15826.899999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f>(pdbberlaku!C38-pdbberlaku!B38)</f>
+        <v>45109.600000000006</v>
+      </c>
+      <c r="D38">
+        <f>(pdbberlaku!D38-pdbberlaku!C38)</f>
+        <v>35811.899999999965</v>
+      </c>
+      <c r="E38">
+        <f>(pdbberlaku!E38-pdbberlaku!D38)</f>
+        <v>31627.400000000023</v>
+      </c>
+      <c r="F38">
+        <f>(pdbberlaku!F38-pdbberlaku!E38)</f>
+        <v>32434.599999999977</v>
+      </c>
+      <c r="G38">
+        <f>(pdbberlaku!G38-pdbberlaku!F38)</f>
+        <v>44752.800000000047</v>
+      </c>
+      <c r="H38">
+        <f>(pdbberlaku!H38-pdbberlaku!G38)</f>
+        <v>27108.5</v>
+      </c>
+      <c r="I38">
+        <f>(pdbberlaku!I38-pdbberlaku!H38)</f>
+        <v>22852.699999999953</v>
+      </c>
+      <c r="J38">
+        <f>(pdbberlaku!J38-pdbberlaku!I38)</f>
+        <v>42342</v>
+      </c>
+      <c r="K38">
+        <f>(pdbberlaku!K38-pdbberlaku!J38)</f>
+        <v>29898.5</v>
+      </c>
+      <c r="L38">
+        <f>(pdbberlaku!L38-pdbberlaku!K38)</f>
+        <v>14376</v>
+      </c>
+      <c r="M38">
+        <f>(pdbberlaku!M38-pdbberlaku!L38)</f>
+        <v>796.90000000002328</v>
+      </c>
+      <c r="N38">
+        <f>(pdbberlaku!N38-pdbberlaku!M38)</f>
+        <v>18181.5</v>
+      </c>
+      <c r="O38">
+        <f>(pdbberlaku!O38-pdbberlaku!N38)</f>
+        <v>11505.900000000023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f>(pdbberlaku!C39-pdbberlaku!B39)</f>
+        <v>31167.299999999988</v>
+      </c>
+      <c r="D39">
+        <f>(pdbberlaku!D39-pdbberlaku!C39)</f>
+        <v>37645.5</v>
+      </c>
+      <c r="E39">
+        <f>(pdbberlaku!E39-pdbberlaku!D39)</f>
+        <v>37490</v>
+      </c>
+      <c r="F39">
+        <f>(pdbberlaku!F39-pdbberlaku!E39)</f>
+        <v>33956.100000000035</v>
+      </c>
+      <c r="G39">
+        <f>(pdbberlaku!G39-pdbberlaku!F39)</f>
+        <v>45793</v>
+      </c>
+      <c r="H39">
+        <f>(pdbberlaku!H39-pdbberlaku!G39)</f>
+        <v>29733.399999999965</v>
+      </c>
+      <c r="I39">
+        <f>(pdbberlaku!I39-pdbberlaku!H39)</f>
+        <v>29792.799999999988</v>
+      </c>
+      <c r="J39">
+        <f>(pdbberlaku!J39-pdbberlaku!I39)</f>
+        <v>34609.400000000023</v>
+      </c>
+      <c r="K39">
+        <f>(pdbberlaku!K39-pdbberlaku!J39)</f>
+        <v>40607.200000000012</v>
+      </c>
+      <c r="L39">
+        <f>(pdbberlaku!L39-pdbberlaku!K39)</f>
+        <v>28872.899999999965</v>
+      </c>
+      <c r="M39">
+        <f>(pdbberlaku!M39-pdbberlaku!L39)</f>
+        <v>6439.5999999999767</v>
+      </c>
+      <c r="N39">
+        <f>(pdbberlaku!N39-pdbberlaku!M39)</f>
+        <v>8869.2000000000698</v>
+      </c>
+      <c r="O39">
+        <f>(pdbberlaku!O39-pdbberlaku!N39)</f>
+        <v>17076.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ED8B8B-A750-4F01-8974-C106EF59E1BB}">
   <dimension ref="A1:V40"/>
   <sheetViews>
@@ -7470,7 +10836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBA0D3-89A9-4084-9703-326396B3B9CB}">
   <dimension ref="A1:V40"/>
   <sheetViews>
@@ -10208,7 +13574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EDB01C-9CF8-4BB3-AEF7-F666665BAF08}">
   <dimension ref="A1:V41"/>
   <sheetViews>
@@ -13834,7 +17200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEC2DB7-1DC8-4340-82D4-50F8E068F3E3}">
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -14628,8 +17994,8 @@
         <v>16908151.295600001</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -17660,7 +21026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F74FD5-82C8-4A53-BD97-D930DDDA4AB2}">
   <dimension ref="A1:W40"/>
   <sheetViews>
@@ -21376,7 +24742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A34D0B8-1424-4DAC-8E10-7B49A8292234}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
@@ -25581,7 +28947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26237320-2821-4D54-BA56-A38651B29E8A}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -26165,7 +29531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58183647-5DA9-49AF-8DF0-14BC8717C3D7}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -27055,7 +30421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885CF204-AC76-4C78-90FF-E2938012036A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
@@ -27284,7 +30650,898 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1691D42B-7010-4C84-B456-539870D1134F}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2011</v>
+      </c>
+      <c r="D2">
+        <v>2012</v>
+      </c>
+      <c r="E2">
+        <v>2013</v>
+      </c>
+      <c r="F2">
+        <v>2014</v>
+      </c>
+      <c r="G2">
+        <v>2015</v>
+      </c>
+      <c r="H2">
+        <v>2016</v>
+      </c>
+      <c r="I2">
+        <v>2017</v>
+      </c>
+      <c r="J2">
+        <v>2018</v>
+      </c>
+      <c r="K2">
+        <v>2019</v>
+      </c>
+      <c r="L2">
+        <v>2020</v>
+      </c>
+      <c r="M2">
+        <v>2021</v>
+      </c>
+      <c r="N2">
+        <v>2022</v>
+      </c>
+      <c r="O2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>6864133.0999999996</v>
+      </c>
+      <c r="C3">
+        <v>7287635.2999999998</v>
+      </c>
+      <c r="D3">
+        <v>7727083.4000000004</v>
+      </c>
+      <c r="E3">
+        <v>8156497.7999999998</v>
+      </c>
+      <c r="F3">
+        <v>8564866.5999999996</v>
+      </c>
+      <c r="G3">
+        <v>8982517.0999999996</v>
+      </c>
+      <c r="H3">
+        <v>9434613.4000000004</v>
+      </c>
+      <c r="I3">
+        <v>9912928.0999999996</v>
+      </c>
+      <c r="J3">
+        <v>10425851.9</v>
+      </c>
+      <c r="K3">
+        <v>10949155.4</v>
+      </c>
+      <c r="L3">
+        <v>10722999.300000001</v>
+      </c>
+      <c r="M3">
+        <v>11120059.699999999</v>
+      </c>
+      <c r="N3">
+        <v>11710247.9</v>
+      </c>
+      <c r="O3">
+        <v>12301393.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>6864133.0999999996</v>
+      </c>
+      <c r="C4">
+        <v>7831726</v>
+      </c>
+      <c r="D4">
+        <v>8615704.5</v>
+      </c>
+      <c r="E4">
+        <v>9546134</v>
+      </c>
+      <c r="F4">
+        <v>10569705.300000001</v>
+      </c>
+      <c r="G4">
+        <v>11526332.800000001</v>
+      </c>
+      <c r="H4">
+        <v>12401728.5</v>
+      </c>
+      <c r="I4">
+        <v>13589825.699999999</v>
+      </c>
+      <c r="J4">
+        <v>14838756</v>
+      </c>
+      <c r="K4">
+        <v>15832657.199999999</v>
+      </c>
+      <c r="L4">
+        <v>15443353.199999999</v>
+      </c>
+      <c r="M4">
+        <v>16976751.399999999</v>
+      </c>
+      <c r="N4">
+        <v>19588089.899999999</v>
+      </c>
+      <c r="O4">
+        <v>20892376.699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:O6" si="0">(C3-B3)/B3*100</f>
+        <v>6.1697842077100784</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>6.0300506530561506</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.5572636889100924</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.0066684257549827</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.8763223002212319</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>5.0330691828017864</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>5.0697859013491664</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5.1742915395502642</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>5.0192876804628304</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-2.0655118293416463</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3.7028856282775142</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5.3074193477576488</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>5.0481057706728754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>14.096359815633535</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10.010290196567142</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10.799227155481017</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10.722364676632454</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9.0506544208001714</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7.5947460062926453</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>9.5800936135636192</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>9.1901863023894474</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>6.6980089166504202</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-2.4588671066534555</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>9.9291791111790371</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>15.38185038157536</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>6.6585706245916336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>1278938.6000000001</v>
+      </c>
+      <c r="C7">
+        <v>1374400.1</v>
+      </c>
+      <c r="D7">
+        <v>1470331.0999999999</v>
+      </c>
+      <c r="E7">
+        <v>1550512</v>
+      </c>
+      <c r="F7">
+        <v>1637505.9</v>
+      </c>
+      <c r="G7">
+        <v>1720221.2</v>
+      </c>
+      <c r="H7">
+        <v>1796484.7999999998</v>
+      </c>
+      <c r="I7">
+        <v>1883616.7000000002</v>
+      </c>
+      <c r="J7">
+        <v>1973536.5999999999</v>
+      </c>
+      <c r="K7">
+        <v>2059265.5999999999</v>
+      </c>
+      <c r="L7">
+        <v>2007316.5999999999</v>
+      </c>
+      <c r="M7">
+        <v>2081054.8000000003</v>
+      </c>
+      <c r="N7">
+        <v>2185263.2000000002</v>
+      </c>
+      <c r="O7">
+        <v>2287660.1999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1278938.6000000001</v>
+      </c>
+      <c r="C8">
+        <v>1420151.8</v>
+      </c>
+      <c r="D8">
+        <v>1549748</v>
+      </c>
+      <c r="E8">
+        <v>1693211.3</v>
+      </c>
+      <c r="F8">
+        <v>1890383.4</v>
+      </c>
+      <c r="G8">
+        <v>2098046.6</v>
+      </c>
+      <c r="H8">
+        <v>2258803.6</v>
+      </c>
+      <c r="I8">
+        <v>2430339.1999999997</v>
+      </c>
+      <c r="J8">
+        <v>2615151.7999999998</v>
+      </c>
+      <c r="K8">
+        <v>2782921.1999999997</v>
+      </c>
+      <c r="L8">
+        <v>2760435.3000000003</v>
+      </c>
+      <c r="M8">
+        <v>2946897</v>
+      </c>
+      <c r="N8">
+        <v>3228155.2</v>
+      </c>
+      <c r="O8">
+        <v>3499615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:O10" si="1">B7/B3*100</f>
+        <v>18.632194063952522</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>18.8593424810926</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>19.028280450551367</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>19.00953127211044</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>19.118872207536775</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>19.150770110974797</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>19.041424633255239</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>19.001617695582805</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>18.929259871800021</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>18.807529209056618</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>18.719730775325143</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>18.714421110526956</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>18.661118181793572</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>18.596756387016182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>18.632194063952522</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>18.133318249387173</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>17.98747856312853</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>17.73714154861015</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>17.884920594711375</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>18.202203913459794</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>18.213619174133672</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>17.883520021894025</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>17.623794070068946</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>17.577095018516538</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>17.874585035068684</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>17.358427007419099</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>16.480193916202111</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>16.750679208268345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:O12" si="2">(C7-B7)/B7*100</f>
+        <v>7.4641190749892132</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>6.9798452430263769</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>5.4532547124929991</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>5.610656350934395</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.0512978304383545</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>4.4333600818313288</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>4.8501328817254885</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>4.7737896993586677</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4.3439275461118889</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>-2.5226954696858921</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>3.6734713397976395</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>5.0074798606937163</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>4.6857971158805727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>11.041437016601105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>9.1255174270806787</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9.2572018160371918</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>11.644860862905878</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>10.985242464570955</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>7.6622225645512358</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>7.5940909603650191</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>7.6043953041616623</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>6.4152834263770053</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>-0.80799628821683644</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>6.7547933472666326</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>9.5442154917528566</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>8.4091310108014579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:O14" si="3">((C3-C7)-(B3-B7))/(B3-B7)*100</f>
+        <v>5.8733979631326942</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>5.8092920098967404</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>5.5817057037722115</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4.8649044931340821</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>4.8349611707096498</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>5.1751223741792334</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>5.1214482039487894</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>5.2682462907093299</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>5.1769779577437198</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>-1.959609218103014</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>3.7096600591023967</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>5.3764745718856828</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>5.131228189794375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>14.795898334426852</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>10.20626572488235</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>11.137433410466087</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>10.523460265309884</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>8.6292951065681844</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>7.5797306619733202</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>10.022371357595279</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>9.5355435933364792</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>6.7584959925322252</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>-2.8109235313266221</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>10.62008372694741</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>16.608014834423379</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>6.313148670452823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:O15" si="4">C12-C11</f>
+        <v>3.5773179416118914</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>2.1456721840543018</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>3.8039471035441927</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>6.0342045119714829</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>5.933944634132601</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>3.2288624827199071</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>2.7439580786395306</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.8306056048029946</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>2.0713558802651164</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>1.7146991814690558</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>3.0813220074689931</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>4.5367356310591402</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>3.7233338949208852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:O16" si="5">C14-C13</f>
+        <v>8.9225003712941575</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>4.3969737149856094</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>5.5557277066938759</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>5.6585557721758022</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>3.7943339358585346</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>2.4046082877940869</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>4.9009231536464899</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>4.2672973026271492</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1.5815180347885054</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>-0.85131431322360807</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>6.9104236678450128</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>11.231540262537695</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1.181920480658448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:O17" si="6">C6-C5</f>
+        <v>7.9265756079234571</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>3.9802395435109919</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>5.2419634665709243</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>5.7156962508774711</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>4.1743321205789394</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>2.5616768234908589</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>4.5103077122144528</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>4.0158947628391832</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>1.6787212361875898</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>-0.39335527731180919</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>6.2262934829015233</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>10.07443103381771</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>1.6104648539187583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14A10D-423A-4DA1-A786-97ECEABC1CE5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27296,7 +31553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -29147,11 +33404,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6210443-99CE-4D01-8527-8765C779A46F}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -30998,7 +35255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FAECCE-3E6F-45F0-BEB5-506F159BA624}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -33381,7 +37638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854DBD27-7348-4774-91D0-6BC60195BBC4}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
@@ -34178,7 +38435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A55BCC-F424-4843-99DB-069AD186D09E}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -36409,7 +40666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB3D1EF-A768-4610-8E47-1F5FFBE23520}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -38640,7 +42897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDAA977-0A70-47AE-8349-C8DF616374F5}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -40869,2235 +45126,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202E13F5-6D4E-40B4-A0E0-A3F0014AF4E3}">
-  <dimension ref="A1:O39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="84.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1">
-        <v>2010</v>
-      </c>
-      <c r="C1">
-        <v>2011</v>
-      </c>
-      <c r="D1">
-        <v>2012</v>
-      </c>
-      <c r="E1">
-        <v>2013</v>
-      </c>
-      <c r="F1">
-        <v>2014</v>
-      </c>
-      <c r="G1">
-        <v>2015</v>
-      </c>
-      <c r="H1">
-        <v>2016</v>
-      </c>
-      <c r="I1">
-        <v>2017</v>
-      </c>
-      <c r="J1">
-        <v>2018</v>
-      </c>
-      <c r="K1">
-        <v>2019</v>
-      </c>
-      <c r="L1">
-        <v>2020</v>
-      </c>
-      <c r="M1">
-        <v>2021</v>
-      </c>
-      <c r="N1">
-        <v>2022</v>
-      </c>
-      <c r="O1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>(pdbberlaku!C2-pdbberlaku!B2)</f>
-        <v>78079.199999999953</v>
-      </c>
-      <c r="D2">
-        <f>(pdbberlaku!D2-pdbberlaku!C2)</f>
-        <v>69612.300000000047</v>
-      </c>
-      <c r="E2">
-        <f>(pdbberlaku!E2-pdbberlaku!D2)</f>
-        <v>92652.5</v>
-      </c>
-      <c r="F2">
-        <f>(pdbberlaku!F2-pdbberlaku!E2)</f>
-        <v>94771.29999999993</v>
-      </c>
-      <c r="G2">
-        <f>(pdbberlaku!G2-pdbberlaku!F2)</f>
-        <v>94418.90000000014</v>
-      </c>
-      <c r="H2">
-        <f>(pdbberlaku!H2-pdbberlaku!G2)</f>
-        <v>82896.799999999814</v>
-      </c>
-      <c r="I2">
-        <f>(pdbberlaku!I2-pdbberlaku!H2)</f>
-        <v>80660.800000000047</v>
-      </c>
-      <c r="J2">
-        <f>(pdbberlaku!J2-pdbberlaku!I2)</f>
-        <v>69790.699999999953</v>
-      </c>
-      <c r="K2">
-        <f>(pdbberlaku!K2-pdbberlaku!J2)</f>
-        <v>71668.800000000047</v>
-      </c>
-      <c r="L2">
-        <f>(pdbberlaku!L2-pdbberlaku!K2)</f>
-        <v>86394.300000000047</v>
-      </c>
-      <c r="M2">
-        <f>(pdbberlaku!M2-pdbberlaku!L2)</f>
-        <v>97558.399999999907</v>
-      </c>
-      <c r="N2">
-        <f>(pdbberlaku!N2-pdbberlaku!M2)</f>
-        <v>132515.20000000019</v>
-      </c>
-      <c r="O2">
-        <f>(pdbberlaku!O2-pdbberlaku!N2)</f>
-        <v>127058.69999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>(pdbberlaku!C3-pdbberlaku!B3)</f>
-        <v>4121.7999999999956</v>
-      </c>
-      <c r="D3">
-        <f>(pdbberlaku!D3-pdbberlaku!C3)</f>
-        <v>3634.5</v>
-      </c>
-      <c r="E3">
-        <f>(pdbberlaku!E3-pdbberlaku!D3)</f>
-        <v>3717</v>
-      </c>
-      <c r="F3">
-        <f>(pdbberlaku!F3-pdbberlaku!E3)</f>
-        <v>5018.8000000000029</v>
-      </c>
-      <c r="G3">
-        <f>(pdbberlaku!G3-pdbberlaku!F3)</f>
-        <v>7703.8000000000029</v>
-      </c>
-      <c r="H3">
-        <f>(pdbberlaku!H3-pdbberlaku!G3)</f>
-        <v>5220.5999999999913</v>
-      </c>
-      <c r="I3">
-        <f>(pdbberlaku!I3-pdbberlaku!H3)</f>
-        <v>4067</v>
-      </c>
-      <c r="J3">
-        <f>(pdbberlaku!J3-pdbberlaku!I3)</f>
-        <v>5787.4000000000087</v>
-      </c>
-      <c r="K3">
-        <f>(pdbberlaku!K3-pdbberlaku!J3)</f>
-        <v>6725.0999999999913</v>
-      </c>
-      <c r="L3">
-        <f>(pdbberlaku!L3-pdbberlaku!K3)</f>
-        <v>4523.7000000000116</v>
-      </c>
-      <c r="M3">
-        <f>(pdbberlaku!M3-pdbberlaku!L3)</f>
-        <v>3362.8999999999942</v>
-      </c>
-      <c r="N3">
-        <f>(pdbberlaku!N3-pdbberlaku!M3)</f>
-        <v>6377.6000000000058</v>
-      </c>
-      <c r="O3">
-        <f>(pdbberlaku!O3-pdbberlaku!N3)</f>
-        <v>11730.399999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>(pdbberlaku!C4-pdbberlaku!B4)</f>
-        <v>19924.600000000006</v>
-      </c>
-      <c r="D4">
-        <f>(pdbberlaku!D4-pdbberlaku!C4)</f>
-        <v>20770</v>
-      </c>
-      <c r="E4">
-        <f>(pdbberlaku!E4-pdbberlaku!D4)</f>
-        <v>26416.799999999988</v>
-      </c>
-      <c r="F4">
-        <f>(pdbberlaku!F4-pdbberlaku!E4)</f>
-        <v>34817.200000000012</v>
-      </c>
-      <c r="G4">
-        <f>(pdbberlaku!G4-pdbberlaku!F4)</f>
-        <v>43428.599999999977</v>
-      </c>
-      <c r="H4">
-        <f>(pdbberlaku!H4-pdbberlaku!G4)</f>
-        <v>28273.400000000023</v>
-      </c>
-      <c r="I4">
-        <f>(pdbberlaku!I4-pdbberlaku!H4)</f>
-        <v>31637.599999999977</v>
-      </c>
-      <c r="J4">
-        <f>(pdbberlaku!J4-pdbberlaku!I4)</f>
-        <v>37080.400000000023</v>
-      </c>
-      <c r="K4">
-        <f>(pdbberlaku!K4-pdbberlaku!J4)</f>
-        <v>33727.200000000012</v>
-      </c>
-      <c r="L4">
-        <f>(pdbberlaku!L4-pdbberlaku!K4)</f>
-        <v>11833.700000000012</v>
-      </c>
-      <c r="M4">
-        <f>(pdbberlaku!M4-pdbberlaku!L4)</f>
-        <v>38125.5</v>
-      </c>
-      <c r="N4">
-        <f>(pdbberlaku!N4-pdbberlaku!M4)</f>
-        <v>35466.399999999965</v>
-      </c>
-      <c r="O4">
-        <f>(pdbberlaku!O4-pdbberlaku!N4)</f>
-        <v>49980.399999999965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>(pdbberlaku!C5-pdbberlaku!B5)</f>
-        <v>92293</v>
-      </c>
-      <c r="D5">
-        <f>(pdbberlaku!D5-pdbberlaku!C5)</f>
-        <v>17493.599999999977</v>
-      </c>
-      <c r="E5">
-        <f>(pdbberlaku!E5-pdbberlaku!D5)</f>
-        <v>11674</v>
-      </c>
-      <c r="F5">
-        <f>(pdbberlaku!F5-pdbberlaku!E5)</f>
-        <v>-22426.499999999971</v>
-      </c>
-      <c r="G5">
-        <f>(pdbberlaku!G5-pdbberlaku!F5)</f>
-        <v>-29792.700000000012</v>
-      </c>
-      <c r="H5">
-        <f>(pdbberlaku!H5-pdbberlaku!G5)</f>
-        <v>1723.8999999999942</v>
-      </c>
-      <c r="I5">
-        <f>(pdbberlaku!I5-pdbberlaku!H5)</f>
-        <v>91666.700000000012</v>
-      </c>
-      <c r="J5">
-        <f>(pdbberlaku!J5-pdbberlaku!I5)</f>
-        <v>77912.400000000023</v>
-      </c>
-      <c r="K5">
-        <f>(pdbberlaku!K5-pdbberlaku!J5)</f>
-        <v>-32386.400000000023</v>
-      </c>
-      <c r="L5">
-        <f>(pdbberlaku!L5-pdbberlaku!K5)</f>
-        <v>-85695.799999999988</v>
-      </c>
-      <c r="M5">
-        <f>(pdbberlaku!M5-pdbberlaku!L5)</f>
-        <v>319943.3</v>
-      </c>
-      <c r="N5">
-        <f>(pdbberlaku!N5-pdbberlaku!M5)</f>
-        <v>693773.89999999991</v>
-      </c>
-      <c r="O5">
-        <f>(pdbberlaku!O5-pdbberlaku!N5)</f>
-        <v>-180341.39999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f>(pdbberlaku!C6-pdbberlaku!B6)</f>
-        <v>107898.09999999998</v>
-      </c>
-      <c r="D6">
-        <f>(pdbberlaku!D6-pdbberlaku!C6)</f>
-        <v>48826.400000000023</v>
-      </c>
-      <c r="E6">
-        <f>(pdbberlaku!E6-pdbberlaku!D6)</f>
-        <v>27193.899999999965</v>
-      </c>
-      <c r="F6">
-        <f>(pdbberlaku!F6-pdbberlaku!E6)</f>
-        <v>-10304.799999999988</v>
-      </c>
-      <c r="G6">
-        <f>(pdbberlaku!G6-pdbberlaku!F6)</f>
-        <v>-125267.39999999997</v>
-      </c>
-      <c r="H6">
-        <f>(pdbberlaku!H6-pdbberlaku!G6)</f>
-        <v>-19530.300000000047</v>
-      </c>
-      <c r="I6">
-        <f>(pdbberlaku!I6-pdbberlaku!H6)</f>
-        <v>26464.300000000047</v>
-      </c>
-      <c r="J6">
-        <f>(pdbberlaku!J6-pdbberlaku!I6)</f>
-        <v>68720</v>
-      </c>
-      <c r="K6">
-        <f>(pdbberlaku!K6-pdbberlaku!J6)</f>
-        <v>-20567.100000000035</v>
-      </c>
-      <c r="L6">
-        <f>(pdbberlaku!L6-pdbberlaku!K6)</f>
-        <v>-107043.20000000001</v>
-      </c>
-      <c r="M6">
-        <f>(pdbberlaku!M6-pdbberlaku!L6)</f>
-        <v>129143.40000000002</v>
-      </c>
-      <c r="N6">
-        <f>(pdbberlaku!N6-pdbberlaku!M6)</f>
-        <v>125894.30000000005</v>
-      </c>
-      <c r="O6">
-        <f>(pdbberlaku!O6-pdbberlaku!N6)</f>
-        <v>-66527.300000000047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>(pdbberlaku!C7-pdbberlaku!B7)</f>
-        <v>-4960.3000000000029</v>
-      </c>
-      <c r="D7">
-        <f>(pdbberlaku!D7-pdbberlaku!C7)</f>
-        <v>-3439.0999999999913</v>
-      </c>
-      <c r="E7">
-        <f>(pdbberlaku!E7-pdbberlaku!D7)</f>
-        <v>-2376.4000000000087</v>
-      </c>
-      <c r="F7">
-        <f>(pdbberlaku!F7-pdbberlaku!E7)</f>
-        <v>-4853.1999999999971</v>
-      </c>
-      <c r="G7">
-        <f>(pdbberlaku!G7-pdbberlaku!F7)</f>
-        <v>-19351</v>
-      </c>
-      <c r="H7">
-        <f>(pdbberlaku!H7-pdbberlaku!G7)</f>
-        <v>-963.19999999999709</v>
-      </c>
-      <c r="I7">
-        <f>(pdbberlaku!I7-pdbberlaku!H7)</f>
-        <v>21021.300000000003</v>
-      </c>
-      <c r="J7">
-        <f>(pdbberlaku!J7-pdbberlaku!I7)</f>
-        <v>16999.099999999991</v>
-      </c>
-      <c r="K7">
-        <f>(pdbberlaku!K7-pdbberlaku!J7)</f>
-        <v>-14496.799999999988</v>
-      </c>
-      <c r="L7">
-        <f>(pdbberlaku!L7-pdbberlaku!K7)</f>
-        <v>34132.299999999988</v>
-      </c>
-      <c r="M7">
-        <f>(pdbberlaku!M7-pdbberlaku!L7)</f>
-        <v>73633.200000000012</v>
-      </c>
-      <c r="N7">
-        <f>(pdbberlaku!N7-pdbberlaku!M7)</f>
-        <v>38127</v>
-      </c>
-      <c r="O7">
-        <f>(pdbberlaku!O7-pdbberlaku!N7)</f>
-        <v>29304.899999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>(pdbberlaku!C8-pdbberlaku!B8)</f>
-        <v>11454</v>
-      </c>
-      <c r="D8">
-        <f>(pdbberlaku!D8-pdbberlaku!C8)</f>
-        <v>12613.300000000003</v>
-      </c>
-      <c r="E8">
-        <f>(pdbberlaku!E8-pdbberlaku!D8)</f>
-        <v>13946.700000000012</v>
-      </c>
-      <c r="F8">
-        <f>(pdbberlaku!F8-pdbberlaku!E8)</f>
-        <v>26261.699999999983</v>
-      </c>
-      <c r="G8">
-        <f>(pdbberlaku!G8-pdbberlaku!F8)</f>
-        <v>16682.200000000012</v>
-      </c>
-      <c r="H8">
-        <f>(pdbberlaku!H8-pdbberlaku!G8)</f>
-        <v>27943.799999999988</v>
-      </c>
-      <c r="I8">
-        <f>(pdbberlaku!I8-pdbberlaku!H8)</f>
-        <v>-466</v>
-      </c>
-      <c r="J8">
-        <f>(pdbberlaku!J8-pdbberlaku!I8)</f>
-        <v>5801</v>
-      </c>
-      <c r="K8">
-        <f>(pdbberlaku!K8-pdbberlaku!J8)</f>
-        <v>18376.700000000012</v>
-      </c>
-      <c r="L8">
-        <f>(pdbberlaku!L8-pdbberlaku!K8)</f>
-        <v>2235.1000000000058</v>
-      </c>
-      <c r="M8">
-        <f>(pdbberlaku!M8-pdbberlaku!L8)</f>
-        <v>7388.2999999999884</v>
-      </c>
-      <c r="N8">
-        <f>(pdbberlaku!N8-pdbberlaku!M8)</f>
-        <v>11945.599999999977</v>
-      </c>
-      <c r="O8">
-        <f>(pdbberlaku!O8-pdbberlaku!N8)</f>
-        <v>22191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f>(pdbberlaku!C9-pdbberlaku!B9)</f>
-        <v>14889.900000000009</v>
-      </c>
-      <c r="D9">
-        <f>(pdbberlaku!D9-pdbberlaku!C9)</f>
-        <v>13748.899999999994</v>
-      </c>
-      <c r="E9">
-        <f>(pdbberlaku!E9-pdbberlaku!D9)</f>
-        <v>16879.900000000009</v>
-      </c>
-      <c r="F9">
-        <f>(pdbberlaku!F9-pdbberlaku!E9)</f>
-        <v>21386.5</v>
-      </c>
-      <c r="G9">
-        <f>(pdbberlaku!G9-pdbberlaku!F9)</f>
-        <v>24277.299999999988</v>
-      </c>
-      <c r="H9">
-        <f>(pdbberlaku!H9-pdbberlaku!G9)</f>
-        <v>21355.700000000012</v>
-      </c>
-      <c r="I9">
-        <f>(pdbberlaku!I9-pdbberlaku!H9)</f>
-        <v>26593.399999999994</v>
-      </c>
-      <c r="J9">
-        <f>(pdbberlaku!J9-pdbberlaku!I9)</f>
-        <v>28877</v>
-      </c>
-      <c r="K9">
-        <f>(pdbberlaku!K9-pdbberlaku!J9)</f>
-        <v>37191.5</v>
-      </c>
-      <c r="L9">
-        <f>(pdbberlaku!L9-pdbberlaku!K9)</f>
-        <v>-10030</v>
-      </c>
-      <c r="M9">
-        <f>(pdbberlaku!M9-pdbberlaku!L9)</f>
-        <v>6829.7000000000116</v>
-      </c>
-      <c r="N9">
-        <f>(pdbberlaku!N9-pdbberlaku!M9)</f>
-        <v>40342.099999999977</v>
-      </c>
-      <c r="O9">
-        <f>(pdbberlaku!O9-pdbberlaku!N9)</f>
-        <v>41664.600000000035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <f>(pdbberlaku!C10-pdbberlaku!B10)</f>
-        <v>50276.5</v>
-      </c>
-      <c r="D10">
-        <f>(pdbberlaku!D10-pdbberlaku!C10)</f>
-        <v>14304.200000000012</v>
-      </c>
-      <c r="E10">
-        <f>(pdbberlaku!E10-pdbberlaku!D10)</f>
-        <v>15812.599999999977</v>
-      </c>
-      <c r="F10">
-        <f>(pdbberlaku!F10-pdbberlaku!E10)</f>
-        <v>22985.099999999977</v>
-      </c>
-      <c r="G10">
-        <f>(pdbberlaku!G10-pdbberlaku!F10)</f>
-        <v>-16355.5</v>
-      </c>
-      <c r="H10">
-        <f>(pdbberlaku!H10-pdbberlaku!G10)</f>
-        <v>-34445.099999999977</v>
-      </c>
-      <c r="I10">
-        <f>(pdbberlaku!I10-pdbberlaku!H10)</f>
-        <v>22972.700000000012</v>
-      </c>
-      <c r="J10">
-        <f>(pdbberlaku!J10-pdbberlaku!I10)</f>
-        <v>22926.299999999988</v>
-      </c>
-      <c r="K10">
-        <f>(pdbberlaku!K10-pdbberlaku!J10)</f>
-        <v>4373.5999999999767</v>
-      </c>
-      <c r="L10">
-        <f>(pdbberlaku!L10-pdbberlaku!K10)</f>
-        <v>-29066.199999999953</v>
-      </c>
-      <c r="M10">
-        <f>(pdbberlaku!M10-pdbberlaku!L10)</f>
-        <v>12402.099999999977</v>
-      </c>
-      <c r="N10">
-        <f>(pdbberlaku!N10-pdbberlaku!M10)</f>
-        <v>43611</v>
-      </c>
-      <c r="O10">
-        <f>(pdbberlaku!O10-pdbberlaku!N10)</f>
-        <v>36827.200000000012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <f>(pdbberlaku!C11-pdbberlaku!B11)</f>
-        <v>49944.300000000047</v>
-      </c>
-      <c r="D11">
-        <f>(pdbberlaku!D11-pdbberlaku!C11)</f>
-        <v>47386</v>
-      </c>
-      <c r="E11">
-        <f>(pdbberlaku!E11-pdbberlaku!D11)</f>
-        <v>33369</v>
-      </c>
-      <c r="F11">
-        <f>(pdbberlaku!F11-pdbberlaku!E11)</f>
-        <v>70874.199999999953</v>
-      </c>
-      <c r="G11">
-        <f>(pdbberlaku!G11-pdbberlaku!F11)</f>
-        <v>85055.300000000047</v>
-      </c>
-      <c r="H11">
-        <f>(pdbberlaku!H11-pdbberlaku!G11)</f>
-        <v>93738.29999999993</v>
-      </c>
-      <c r="I11">
-        <f>(pdbberlaku!I11-pdbberlaku!H11)</f>
-        <v>93614.900000000023</v>
-      </c>
-      <c r="J11">
-        <f>(pdbberlaku!J11-pdbberlaku!I11)</f>
-        <v>93018.400000000023</v>
-      </c>
-      <c r="K11">
-        <f>(pdbberlaku!K11-pdbberlaku!J11)</f>
-        <v>85516.300000000047</v>
-      </c>
-      <c r="L11">
-        <f>(pdbberlaku!L11-pdbberlaku!K11)</f>
-        <v>44040.899999999907</v>
-      </c>
-      <c r="M11">
-        <f>(pdbberlaku!M11-pdbberlaku!L11)</f>
-        <v>64361.300000000047</v>
-      </c>
-      <c r="N11">
-        <f>(pdbberlaku!N11-pdbberlaku!M11)</f>
-        <v>116737.10000000009</v>
-      </c>
-      <c r="O11">
-        <f>(pdbberlaku!O11-pdbberlaku!N11)</f>
-        <v>130329.29999999981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <f>(pdbberlaku!C12-pdbberlaku!B12)</f>
-        <v>4486</v>
-      </c>
-      <c r="D12">
-        <f>(pdbberlaku!D12-pdbberlaku!C12)</f>
-        <v>7604.6000000000058</v>
-      </c>
-      <c r="E12">
-        <f>(pdbberlaku!E12-pdbberlaku!D12)</f>
-        <v>3344.3000000000029</v>
-      </c>
-      <c r="F12">
-        <f>(pdbberlaku!F12-pdbberlaku!E12)</f>
-        <v>12983.800000000003</v>
-      </c>
-      <c r="G12">
-        <f>(pdbberlaku!G12-pdbberlaku!F12)</f>
-        <v>12983.5</v>
-      </c>
-      <c r="H12">
-        <f>(pdbberlaku!H12-pdbberlaku!G12)</f>
-        <v>8434.6999999999971</v>
-      </c>
-      <c r="I12">
-        <f>(pdbberlaku!I12-pdbberlaku!H12)</f>
-        <v>5143.3000000000029</v>
-      </c>
-      <c r="J12">
-        <f>(pdbberlaku!J12-pdbberlaku!I12)</f>
-        <v>9707.6999999999825</v>
-      </c>
-      <c r="K12">
-        <f>(pdbberlaku!K12-pdbberlaku!J12)</f>
-        <v>9029.2000000000116</v>
-      </c>
-      <c r="L12">
-        <f>(pdbberlaku!L12-pdbberlaku!K12)</f>
-        <v>-5031.3999999999942</v>
-      </c>
-      <c r="M12">
-        <f>(pdbberlaku!M12-pdbberlaku!L12)</f>
-        <v>-789.30000000001746</v>
-      </c>
-      <c r="N12">
-        <f>(pdbberlaku!N12-pdbberlaku!M12)</f>
-        <v>608.20000000001164</v>
-      </c>
-      <c r="O12">
-        <f>(pdbberlaku!O12-pdbberlaku!N12)</f>
-        <v>12072.100000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f>(pdbberlaku!C13-pdbberlaku!B13)</f>
-        <v>11885.200000000012</v>
-      </c>
-      <c r="D13">
-        <f>(pdbberlaku!D13-pdbberlaku!C13)</f>
-        <v>8365.6999999999971</v>
-      </c>
-      <c r="E13">
-        <f>(pdbberlaku!E13-pdbberlaku!D13)</f>
-        <v>13354.199999999997</v>
-      </c>
-      <c r="F13">
-        <f>(pdbberlaku!F13-pdbberlaku!E13)</f>
-        <v>9119.6000000000058</v>
-      </c>
-      <c r="G13">
-        <f>(pdbberlaku!G13-pdbberlaku!F13)</f>
-        <v>362</v>
-      </c>
-      <c r="H13">
-        <f>(pdbberlaku!H13-pdbberlaku!G13)</f>
-        <v>4151.3999999999942</v>
-      </c>
-      <c r="I13">
-        <f>(pdbberlaku!I13-pdbberlaku!H13)</f>
-        <v>6990.2999999999884</v>
-      </c>
-      <c r="J13">
-        <f>(pdbberlaku!J13-pdbberlaku!I13)</f>
-        <v>18009.900000000023</v>
-      </c>
-      <c r="K13">
-        <f>(pdbberlaku!K13-pdbberlaku!J13)</f>
-        <v>31474.199999999983</v>
-      </c>
-      <c r="L13">
-        <f>(pdbberlaku!L13-pdbberlaku!K13)</f>
-        <v>-13392.600000000006</v>
-      </c>
-      <c r="M13">
-        <f>(pdbberlaku!M13-pdbberlaku!L13)</f>
-        <v>-6409.8999999999942</v>
-      </c>
-      <c r="N13">
-        <f>(pdbberlaku!N13-pdbberlaku!M13)</f>
-        <v>21425.600000000006</v>
-      </c>
-      <c r="O13">
-        <f>(pdbberlaku!O13-pdbberlaku!N13)</f>
-        <v>2307.2000000000116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <f>(pdbberlaku!C14-pdbberlaku!B14)</f>
-        <v>2347.7999999999993</v>
-      </c>
-      <c r="D14">
-        <f>(pdbberlaku!D14-pdbberlaku!C14)</f>
-        <v>-358.29999999999927</v>
-      </c>
-      <c r="E14">
-        <f>(pdbberlaku!E14-pdbberlaku!D14)</f>
-        <v>3123.2999999999993</v>
-      </c>
-      <c r="F14">
-        <f>(pdbberlaku!F14-pdbberlaku!E14)</f>
-        <v>3790.2000000000007</v>
-      </c>
-      <c r="G14">
-        <f>(pdbberlaku!G14-pdbberlaku!F14)</f>
-        <v>2840.7000000000007</v>
-      </c>
-      <c r="H14">
-        <f>(pdbberlaku!H14-pdbberlaku!G14)</f>
-        <v>3773.1999999999971</v>
-      </c>
-      <c r="I14">
-        <f>(pdbberlaku!I14-pdbberlaku!H14)</f>
-        <v>1774.7000000000044</v>
-      </c>
-      <c r="J14">
-        <f>(pdbberlaku!J14-pdbberlaku!I14)</f>
-        <v>4727.1999999999971</v>
-      </c>
-      <c r="K14">
-        <f>(pdbberlaku!K14-pdbberlaku!J14)</f>
-        <v>783</v>
-      </c>
-      <c r="L14">
-        <f>(pdbberlaku!L14-pdbberlaku!K14)</f>
-        <v>-3295</v>
-      </c>
-      <c r="M14">
-        <f>(pdbberlaku!M14-pdbberlaku!L14)</f>
-        <v>3304.6999999999971</v>
-      </c>
-      <c r="N14">
-        <f>(pdbberlaku!N14-pdbberlaku!M14)</f>
-        <v>5616.6000000000058</v>
-      </c>
-      <c r="O14">
-        <f>(pdbberlaku!O14-pdbberlaku!N14)</f>
-        <v>1115.6999999999971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <f>(pdbberlaku!C15-pdbberlaku!B15)</f>
-        <v>2725.9000000000015</v>
-      </c>
-      <c r="D15">
-        <f>(pdbberlaku!D15-pdbberlaku!C15)</f>
-        <v>1127.5999999999985</v>
-      </c>
-      <c r="E15">
-        <f>(pdbberlaku!E15-pdbberlaku!D15)</f>
-        <v>6329.4000000000015</v>
-      </c>
-      <c r="F15">
-        <f>(pdbberlaku!F15-pdbberlaku!E15)</f>
-        <v>9113.8999999999942</v>
-      </c>
-      <c r="G15">
-        <f>(pdbberlaku!G15-pdbberlaku!F15)</f>
-        <v>1921.5</v>
-      </c>
-      <c r="H15">
-        <f>(pdbberlaku!H15-pdbberlaku!G15)</f>
-        <v>2084.2000000000116</v>
-      </c>
-      <c r="I15">
-        <f>(pdbberlaku!I15-pdbberlaku!H15)</f>
-        <v>1503.1999999999971</v>
-      </c>
-      <c r="J15">
-        <f>(pdbberlaku!J15-pdbberlaku!I15)</f>
-        <v>2129.1999999999971</v>
-      </c>
-      <c r="K15">
-        <f>(pdbberlaku!K15-pdbberlaku!J15)</f>
-        <v>-3390.1000000000058</v>
-      </c>
-      <c r="L15">
-        <f>(pdbberlaku!L15-pdbberlaku!K15)</f>
-        <v>-1630.6999999999971</v>
-      </c>
-      <c r="M15">
-        <f>(pdbberlaku!M15-pdbberlaku!L15)</f>
-        <v>-1999.8000000000029</v>
-      </c>
-      <c r="N15">
-        <f>(pdbberlaku!N15-pdbberlaku!M15)</f>
-        <v>3445.5</v>
-      </c>
-      <c r="O15">
-        <f>(pdbberlaku!O15-pdbberlaku!N15)</f>
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <f>(pdbberlaku!C16-pdbberlaku!B16)</f>
-        <v>7323.1999999999971</v>
-      </c>
-      <c r="D16">
-        <f>(pdbberlaku!D16-pdbberlaku!C16)</f>
-        <v>-1643.1999999999971</v>
-      </c>
-      <c r="E16">
-        <f>(pdbberlaku!E16-pdbberlaku!D16)</f>
-        <v>654.19999999999709</v>
-      </c>
-      <c r="F16">
-        <f>(pdbberlaku!F16-pdbberlaku!E16)</f>
-        <v>10053.5</v>
-      </c>
-      <c r="G16">
-        <f>(pdbberlaku!G16-pdbberlaku!F16)</f>
-        <v>3387.8999999999942</v>
-      </c>
-      <c r="H16">
-        <f>(pdbberlaku!H16-pdbberlaku!G16)</f>
-        <v>1889.6000000000058</v>
-      </c>
-      <c r="I16">
-        <f>(pdbberlaku!I16-pdbberlaku!H16)</f>
-        <v>6966.1999999999971</v>
-      </c>
-      <c r="J16">
-        <f>(pdbberlaku!J16-pdbberlaku!I16)</f>
-        <v>5142</v>
-      </c>
-      <c r="K16">
-        <f>(pdbberlaku!K16-pdbberlaku!J16)</f>
-        <v>8134</v>
-      </c>
-      <c r="L16">
-        <f>(pdbberlaku!L16-pdbberlaku!K16)</f>
-        <v>670.10000000000582</v>
-      </c>
-      <c r="M16">
-        <f>(pdbberlaku!M16-pdbberlaku!L16)</f>
-        <v>2639.1999999999971</v>
-      </c>
-      <c r="N16">
-        <f>(pdbberlaku!N16-pdbberlaku!M16)</f>
-        <v>15756.199999999997</v>
-      </c>
-      <c r="O16">
-        <f>(pdbberlaku!O16-pdbberlaku!N16)</f>
-        <v>12051.699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <f>(pdbberlaku!C17-pdbberlaku!B17)</f>
-        <v>10384.5</v>
-      </c>
-      <c r="D17">
-        <f>(pdbberlaku!D17-pdbberlaku!C17)</f>
-        <v>18743.300000000017</v>
-      </c>
-      <c r="E17">
-        <f>(pdbberlaku!E17-pdbberlaku!D17)</f>
-        <v>13581.899999999994</v>
-      </c>
-      <c r="F17">
-        <f>(pdbberlaku!F17-pdbberlaku!E17)</f>
-        <v>22995.100000000006</v>
-      </c>
-      <c r="G17">
-        <f>(pdbberlaku!G17-pdbberlaku!F17)</f>
-        <v>29751</v>
-      </c>
-      <c r="H17">
-        <f>(pdbberlaku!H17-pdbberlaku!G17)</f>
-        <v>13616.5</v>
-      </c>
-      <c r="I17">
-        <f>(pdbberlaku!I17-pdbberlaku!H17)</f>
-        <v>12788.199999999983</v>
-      </c>
-      <c r="J17">
-        <f>(pdbberlaku!J17-pdbberlaku!I17)</f>
-        <v>3485.1000000000058</v>
-      </c>
-      <c r="K17">
-        <f>(pdbberlaku!K17-pdbberlaku!J17)</f>
-        <v>26247.099999999977</v>
-      </c>
-      <c r="L17">
-        <f>(pdbberlaku!L17-pdbberlaku!K17)</f>
-        <v>30785.200000000012</v>
-      </c>
-      <c r="M17">
-        <f>(pdbberlaku!M17-pdbberlaku!L17)</f>
-        <v>42473.100000000035</v>
-      </c>
-      <c r="N17">
-        <f>(pdbberlaku!N17-pdbberlaku!M17)</f>
-        <v>18142.899999999965</v>
-      </c>
-      <c r="O17">
-        <f>(pdbberlaku!O17-pdbberlaku!N17)</f>
-        <v>8993.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <f>(pdbberlaku!C18-pdbberlaku!B18)</f>
-        <v>5243</v>
-      </c>
-      <c r="D18">
-        <f>(pdbberlaku!D18-pdbberlaku!C18)</f>
-        <v>4419</v>
-      </c>
-      <c r="E18">
-        <f>(pdbberlaku!E18-pdbberlaku!D18)</f>
-        <v>41.30000000000291</v>
-      </c>
-      <c r="F18">
-        <f>(pdbberlaku!F18-pdbberlaku!E18)</f>
-        <v>3796.5999999999913</v>
-      </c>
-      <c r="G18">
-        <f>(pdbberlaku!G18-pdbberlaku!F18)</f>
-        <v>5688.5</v>
-      </c>
-      <c r="H18">
-        <f>(pdbberlaku!H18-pdbberlaku!G18)</f>
-        <v>-6850.5</v>
-      </c>
-      <c r="I18">
-        <f>(pdbberlaku!I18-pdbberlaku!H18)</f>
-        <v>6768.7000000000116</v>
-      </c>
-      <c r="J18">
-        <f>(pdbberlaku!J18-pdbberlaku!I18)</f>
-        <v>6793</v>
-      </c>
-      <c r="K18">
-        <f>(pdbberlaku!K18-pdbberlaku!J18)</f>
-        <v>-4687.2000000000116</v>
-      </c>
-      <c r="L18">
-        <f>(pdbberlaku!L18-pdbberlaku!K18)</f>
-        <v>-5118.7999999999884</v>
-      </c>
-      <c r="M18">
-        <f>(pdbberlaku!M18-pdbberlaku!L18)</f>
-        <v>5751.0999999999913</v>
-      </c>
-      <c r="N18">
-        <f>(pdbberlaku!N18-pdbberlaku!M18)</f>
-        <v>-809.69999999999709</v>
-      </c>
-      <c r="O18">
-        <f>(pdbberlaku!O18-pdbberlaku!N18)</f>
-        <v>-3933.8000000000029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <f>(pdbberlaku!C19-pdbberlaku!B19)</f>
-        <v>4658.0999999999985</v>
-      </c>
-      <c r="D19">
-        <f>(pdbberlaku!D19-pdbberlaku!C19)</f>
-        <v>7421.7999999999956</v>
-      </c>
-      <c r="E19">
-        <f>(pdbberlaku!E19-pdbberlaku!D19)</f>
-        <v>6372.4000000000087</v>
-      </c>
-      <c r="F19">
-        <f>(pdbberlaku!F19-pdbberlaku!E19)</f>
-        <v>7451.3999999999942</v>
-      </c>
-      <c r="G19">
-        <f>(pdbberlaku!G19-pdbberlaku!F19)</f>
-        <v>6519</v>
-      </c>
-      <c r="H19">
-        <f>(pdbberlaku!H19-pdbberlaku!G19)</f>
-        <v>5685</v>
-      </c>
-      <c r="I19">
-        <f>(pdbberlaku!I19-pdbberlaku!H19)</f>
-        <v>549.80000000000291</v>
-      </c>
-      <c r="J19">
-        <f>(pdbberlaku!J19-pdbberlaku!I19)</f>
-        <v>3561.0999999999913</v>
-      </c>
-      <c r="K19">
-        <f>(pdbberlaku!K19-pdbberlaku!J19)</f>
-        <v>195.70000000001164</v>
-      </c>
-      <c r="L19">
-        <f>(pdbberlaku!L19-pdbberlaku!K19)</f>
-        <v>-7502.4000000000087</v>
-      </c>
-      <c r="M19">
-        <f>(pdbberlaku!M19-pdbberlaku!L19)</f>
-        <v>3156.6000000000058</v>
-      </c>
-      <c r="N19">
-        <f>(pdbberlaku!N19-pdbberlaku!M19)</f>
-        <v>2061.1999999999971</v>
-      </c>
-      <c r="O19">
-        <f>(pdbberlaku!O19-pdbberlaku!N19)</f>
-        <v>7308.1999999999971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <f>(pdbberlaku!C20-pdbberlaku!B20)</f>
-        <v>8374.5999999999985</v>
-      </c>
-      <c r="D20">
-        <f>(pdbberlaku!D20-pdbberlaku!C20)</f>
-        <v>1711.2000000000044</v>
-      </c>
-      <c r="E20">
-        <f>(pdbberlaku!E20-pdbberlaku!D20)</f>
-        <v>9937.8000000000029</v>
-      </c>
-      <c r="F20">
-        <f>(pdbberlaku!F20-pdbberlaku!E20)</f>
-        <v>7623.6999999999971</v>
-      </c>
-      <c r="G20">
-        <f>(pdbberlaku!G20-pdbberlaku!F20)</f>
-        <v>8040.5</v>
-      </c>
-      <c r="H20">
-        <f>(pdbberlaku!H20-pdbberlaku!G20)</f>
-        <v>-599.60000000000582</v>
-      </c>
-      <c r="I20">
-        <f>(pdbberlaku!I20-pdbberlaku!H20)</f>
-        <v>9285.8000000000029</v>
-      </c>
-      <c r="J20">
-        <f>(pdbberlaku!J20-pdbberlaku!I20)</f>
-        <v>12495.800000000003</v>
-      </c>
-      <c r="K20">
-        <f>(pdbberlaku!K20-pdbberlaku!J20)</f>
-        <v>4727.3000000000029</v>
-      </c>
-      <c r="L20">
-        <f>(pdbberlaku!L20-pdbberlaku!K20)</f>
-        <v>4888.1999999999971</v>
-      </c>
-      <c r="M20">
-        <f>(pdbberlaku!M20-pdbberlaku!L20)</f>
-        <v>16642.199999999997</v>
-      </c>
-      <c r="N20">
-        <f>(pdbberlaku!N20-pdbberlaku!M20)</f>
-        <v>30413.799999999988</v>
-      </c>
-      <c r="O20">
-        <f>(pdbberlaku!O20-pdbberlaku!N20)</f>
-        <v>28302.400000000023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <f>(pdbberlaku!C21-pdbberlaku!B21)</f>
-        <v>11308.899999999994</v>
-      </c>
-      <c r="D21">
-        <f>(pdbberlaku!D21-pdbberlaku!C21)</f>
-        <v>20910.300000000017</v>
-      </c>
-      <c r="E21">
-        <f>(pdbberlaku!E21-pdbberlaku!D21)</f>
-        <v>23225.199999999983</v>
-      </c>
-      <c r="F21">
-        <f>(pdbberlaku!F21-pdbberlaku!E21)</f>
-        <v>11885.700000000012</v>
-      </c>
-      <c r="G21">
-        <f>(pdbberlaku!G21-pdbberlaku!F21)</f>
-        <v>28597.5</v>
-      </c>
-      <c r="H21">
-        <f>(pdbberlaku!H21-pdbberlaku!G21)</f>
-        <v>15078.399999999994</v>
-      </c>
-      <c r="I21">
-        <f>(pdbberlaku!I21-pdbberlaku!H21)</f>
-        <v>11114.399999999994</v>
-      </c>
-      <c r="J21">
-        <f>(pdbberlaku!J21-pdbberlaku!I21)</f>
-        <v>4816.1000000000058</v>
-      </c>
-      <c r="K21">
-        <f>(pdbberlaku!K21-pdbberlaku!J21)</f>
-        <v>7697.2999999999884</v>
-      </c>
-      <c r="L21">
-        <f>(pdbberlaku!L21-pdbberlaku!K21)</f>
-        <v>-13241.5</v>
-      </c>
-      <c r="M21">
-        <f>(pdbberlaku!M21-pdbberlaku!L21)</f>
-        <v>5222.8000000000175</v>
-      </c>
-      <c r="N21">
-        <f>(pdbberlaku!N21-pdbberlaku!M21)</f>
-        <v>27193.699999999983</v>
-      </c>
-      <c r="O21">
-        <f>(pdbberlaku!O21-pdbberlaku!N21)</f>
-        <v>43427.700000000012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <f>(pdbberlaku!C22-pdbberlaku!B22)</f>
-        <v>-390.79999999999927</v>
-      </c>
-      <c r="D22">
-        <f>(pdbberlaku!D22-pdbberlaku!C22)</f>
-        <v>1455.6999999999971</v>
-      </c>
-      <c r="E22">
-        <f>(pdbberlaku!E22-pdbberlaku!D22)</f>
-        <v>672.10000000000218</v>
-      </c>
-      <c r="F22">
-        <f>(pdbberlaku!F22-pdbberlaku!E22)</f>
-        <v>7574.6000000000022</v>
-      </c>
-      <c r="G22">
-        <f>(pdbberlaku!G22-pdbberlaku!F22)</f>
-        <v>4208.6999999999971</v>
-      </c>
-      <c r="H22">
-        <f>(pdbberlaku!H22-pdbberlaku!G22)</f>
-        <v>2882</v>
-      </c>
-      <c r="I22">
-        <f>(pdbberlaku!I22-pdbberlaku!H22)</f>
-        <v>2923.5</v>
-      </c>
-      <c r="J22">
-        <f>(pdbberlaku!J22-pdbberlaku!I22)</f>
-        <v>4786.5999999999985</v>
-      </c>
-      <c r="K22">
-        <f>(pdbberlaku!K22-pdbberlaku!J22)</f>
-        <v>-897.09999999999854</v>
-      </c>
-      <c r="L22">
-        <f>(pdbberlaku!L22-pdbberlaku!K22)</f>
-        <v>-3751.9000000000015</v>
-      </c>
-      <c r="M22">
-        <f>(pdbberlaku!M22-pdbberlaku!L22)</f>
-        <v>5669.4000000000015</v>
-      </c>
-      <c r="N22">
-        <f>(pdbberlaku!N22-pdbberlaku!M22)</f>
-        <v>6427.3000000000029</v>
-      </c>
-      <c r="O22">
-        <f>(pdbberlaku!O22-pdbberlaku!N22)</f>
-        <v>1161.7999999999956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <f>(pdbberlaku!C23-pdbberlaku!B23)</f>
-        <v>20603.699999999983</v>
-      </c>
-      <c r="D23">
-        <f>(pdbberlaku!D23-pdbberlaku!C23)</f>
-        <v>11526.800000000017</v>
-      </c>
-      <c r="E23">
-        <f>(pdbberlaku!E23-pdbberlaku!D23)</f>
-        <v>26377.299999999988</v>
-      </c>
-      <c r="F23">
-        <f>(pdbberlaku!F23-pdbberlaku!E23)</f>
-        <v>14633.399999999994</v>
-      </c>
-      <c r="G23">
-        <f>(pdbberlaku!G23-pdbberlaku!F23)</f>
-        <v>13109.600000000006</v>
-      </c>
-      <c r="H23">
-        <f>(pdbberlaku!H23-pdbberlaku!G23)</f>
-        <v>16047.899999999994</v>
-      </c>
-      <c r="I23">
-        <f>(pdbberlaku!I23-pdbberlaku!H23)</f>
-        <v>10357.200000000012</v>
-      </c>
-      <c r="J23">
-        <f>(pdbberlaku!J23-pdbberlaku!I23)</f>
-        <v>14070.699999999983</v>
-      </c>
-      <c r="K23">
-        <f>(pdbberlaku!K23-pdbberlaku!J23)</f>
-        <v>-2699.5</v>
-      </c>
-      <c r="L23">
-        <f>(pdbberlaku!L23-pdbberlaku!K23)</f>
-        <v>-49401.299999999988</v>
-      </c>
-      <c r="M23">
-        <f>(pdbberlaku!M23-pdbberlaku!L23)</f>
-        <v>43006.899999999994</v>
-      </c>
-      <c r="N23">
-        <f>(pdbberlaku!N23-pdbberlaku!M23)</f>
-        <v>32727.000000000029</v>
-      </c>
-      <c r="O23">
-        <f>(pdbberlaku!O23-pdbberlaku!N23)</f>
-        <v>26272.599999999977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <f>(pdbberlaku!C24-pdbberlaku!B24)</f>
-        <v>1915.2000000000007</v>
-      </c>
-      <c r="D24">
-        <f>(pdbberlaku!D24-pdbberlaku!C24)</f>
-        <v>502</v>
-      </c>
-      <c r="E24">
-        <f>(pdbberlaku!E24-pdbberlaku!D24)</f>
-        <v>2444.0999999999985</v>
-      </c>
-      <c r="F24">
-        <f>(pdbberlaku!F24-pdbberlaku!E24)</f>
-        <v>3187.1000000000022</v>
-      </c>
-      <c r="G24">
-        <f>(pdbberlaku!G24-pdbberlaku!F24)</f>
-        <v>3222</v>
-      </c>
-      <c r="H24">
-        <f>(pdbberlaku!H24-pdbberlaku!G24)</f>
-        <v>784.5</v>
-      </c>
-      <c r="I24">
-        <f>(pdbberlaku!I24-pdbberlaku!H24)</f>
-        <v>1726.8999999999978</v>
-      </c>
-      <c r="J24">
-        <f>(pdbberlaku!J24-pdbberlaku!I24)</f>
-        <v>1636.5</v>
-      </c>
-      <c r="K24">
-        <f>(pdbberlaku!K24-pdbberlaku!J24)</f>
-        <v>3751.4000000000015</v>
-      </c>
-      <c r="L24">
-        <f>(pdbberlaku!L24-pdbberlaku!K24)</f>
-        <v>-585.90000000000146</v>
-      </c>
-      <c r="M24">
-        <f>(pdbberlaku!M24-pdbberlaku!L24)</f>
-        <v>3520</v>
-      </c>
-      <c r="N24">
-        <f>(pdbberlaku!N24-pdbberlaku!M24)</f>
-        <v>-202.59999999999854</v>
-      </c>
-      <c r="O24">
-        <f>(pdbberlaku!O24-pdbberlaku!N24)</f>
-        <v>213.69999999999709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <f>(pdbberlaku!C25-pdbberlaku!B25)</f>
-        <v>403.59999999999854</v>
-      </c>
-      <c r="D25">
-        <f>(pdbberlaku!D25-pdbberlaku!C25)</f>
-        <v>423.70000000000073</v>
-      </c>
-      <c r="E25">
-        <f>(pdbberlaku!E25-pdbberlaku!D25)</f>
-        <v>636.79999999999927</v>
-      </c>
-      <c r="F25">
-        <f>(pdbberlaku!F25-pdbberlaku!E25)</f>
-        <v>2089.2999999999993</v>
-      </c>
-      <c r="G25">
-        <f>(pdbberlaku!G25-pdbberlaku!F25)</f>
-        <v>1975.5</v>
-      </c>
-      <c r="H25">
-        <f>(pdbberlaku!H25-pdbberlaku!G25)</f>
-        <v>41.400000000001455</v>
-      </c>
-      <c r="I25">
-        <f>(pdbberlaku!I25-pdbberlaku!H25)</f>
-        <v>28.5</v>
-      </c>
-      <c r="J25">
-        <f>(pdbberlaku!J25-pdbberlaku!I25)</f>
-        <v>433.29999999999927</v>
-      </c>
-      <c r="K25">
-        <f>(pdbberlaku!K25-pdbberlaku!J25)</f>
-        <v>1887.7999999999993</v>
-      </c>
-      <c r="L25">
-        <f>(pdbberlaku!L25-pdbberlaku!K25)</f>
-        <v>81.200000000000728</v>
-      </c>
-      <c r="M25">
-        <f>(pdbberlaku!M25-pdbberlaku!L25)</f>
-        <v>-86.599999999998545</v>
-      </c>
-      <c r="N25">
-        <f>(pdbberlaku!N25-pdbberlaku!M25)</f>
-        <v>1715.3999999999978</v>
-      </c>
-      <c r="O25">
-        <f>(pdbberlaku!O25-pdbberlaku!N25)</f>
-        <v>-8.2999999999992724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <f>(pdbberlaku!C26-pdbberlaku!B26)</f>
-        <v>19172.799999999988</v>
-      </c>
-      <c r="D26">
-        <f>(pdbberlaku!D26-pdbberlaku!C26)</f>
-        <v>3915.9000000000087</v>
-      </c>
-      <c r="E26">
-        <f>(pdbberlaku!E26-pdbberlaku!D26)</f>
-        <v>3049</v>
-      </c>
-      <c r="F26">
-        <f>(pdbberlaku!F26-pdbberlaku!E26)</f>
-        <v>16218.300000000003</v>
-      </c>
-      <c r="G26">
-        <f>(pdbberlaku!G26-pdbberlaku!F26)</f>
-        <v>14928.599999999991</v>
-      </c>
-      <c r="H26">
-        <f>(pdbberlaku!H26-pdbberlaku!G26)</f>
-        <v>12510.699999999997</v>
-      </c>
-      <c r="I26">
-        <f>(pdbberlaku!I26-pdbberlaku!H26)</f>
-        <v>19995.399999999994</v>
-      </c>
-      <c r="J26">
-        <f>(pdbberlaku!J26-pdbberlaku!I26)</f>
-        <v>14300.5</v>
-      </c>
-      <c r="K26">
-        <f>(pdbberlaku!K26-pdbberlaku!J26)</f>
-        <v>8475</v>
-      </c>
-      <c r="L26">
-        <f>(pdbberlaku!L26-pdbberlaku!K26)</f>
-        <v>-5373.6999999999825</v>
-      </c>
-      <c r="M26">
-        <f>(pdbberlaku!M26-pdbberlaku!L26)</f>
-        <v>10305.600000000006</v>
-      </c>
-      <c r="N26">
-        <f>(pdbberlaku!N26-pdbberlaku!M26)</f>
-        <v>14626.5</v>
-      </c>
-      <c r="O26">
-        <f>(pdbberlaku!O26-pdbberlaku!N26)</f>
-        <v>13577.199999999983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <f>(pdbberlaku!C27-pdbberlaku!B27)</f>
-        <v>360.30000000000018</v>
-      </c>
-      <c r="D27">
-        <f>(pdbberlaku!D27-pdbberlaku!C27)</f>
-        <v>395</v>
-      </c>
-      <c r="E27">
-        <f>(pdbberlaku!E27-pdbberlaku!D27)</f>
-        <v>605.19999999999982</v>
-      </c>
-      <c r="F27">
-        <f>(pdbberlaku!F27-pdbberlaku!E27)</f>
-        <v>631.60000000000036</v>
-      </c>
-      <c r="G27">
-        <f>(pdbberlaku!G27-pdbberlaku!F27)</f>
-        <v>705.69999999999891</v>
-      </c>
-      <c r="H27">
-        <f>(pdbberlaku!H27-pdbberlaku!G27)</f>
-        <v>363.10000000000036</v>
-      </c>
-      <c r="I27">
-        <f>(pdbberlaku!I27-pdbberlaku!H27)</f>
-        <v>529.20000000000073</v>
-      </c>
-      <c r="J27">
-        <f>(pdbberlaku!J27-pdbberlaku!I27)</f>
-        <v>585</v>
-      </c>
-      <c r="K27">
-        <f>(pdbberlaku!K27-pdbberlaku!J27)</f>
-        <v>712.5</v>
-      </c>
-      <c r="L27">
-        <f>(pdbberlaku!L27-pdbberlaku!K27)</f>
-        <v>569.29999999999927</v>
-      </c>
-      <c r="M27">
-        <f>(pdbberlaku!M27-pdbberlaku!L27)</f>
-        <v>721</v>
-      </c>
-      <c r="N27">
-        <f>(pdbberlaku!N27-pdbberlaku!M27)</f>
-        <v>510.5</v>
-      </c>
-      <c r="O27">
-        <f>(pdbberlaku!O27-pdbberlaku!N27)</f>
-        <v>748.39999999999964</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <f>(pdbberlaku!C28-pdbberlaku!B28)</f>
-        <v>85279</v>
-      </c>
-      <c r="D28">
-        <f>(pdbberlaku!D28-pdbberlaku!C28)</f>
-        <v>93023.699999999953</v>
-      </c>
-      <c r="E28">
-        <f>(pdbberlaku!E28-pdbberlaku!D28)</f>
-        <v>100782.40000000002</v>
-      </c>
-      <c r="F28">
-        <f>(pdbberlaku!F28-pdbberlaku!E28)</f>
-        <v>135959</v>
-      </c>
-      <c r="G28">
-        <f>(pdbberlaku!G28-pdbberlaku!F28)</f>
-        <v>135134.60000000009</v>
-      </c>
-      <c r="H28">
-        <f>(pdbberlaku!H28-pdbberlaku!G28)</f>
-        <v>110516.69999999995</v>
-      </c>
-      <c r="I28">
-        <f>(pdbberlaku!I28-pdbberlaku!H28)</f>
-        <v>122912.80000000005</v>
-      </c>
-      <c r="J28">
-        <f>(pdbberlaku!J28-pdbberlaku!I28)</f>
-        <v>151783.39999999991</v>
-      </c>
-      <c r="K28">
-        <f>(pdbberlaku!K28-pdbberlaku!J28)</f>
-        <v>139444.19999999995</v>
-      </c>
-      <c r="L28">
-        <f>(pdbberlaku!L28-pdbberlaku!K28)</f>
-        <v>-49081.59999999986</v>
-      </c>
-      <c r="M28">
-        <f>(pdbberlaku!M28-pdbberlaku!L28)</f>
-        <v>119067.09999999986</v>
-      </c>
-      <c r="N28">
-        <f>(pdbberlaku!N28-pdbberlaku!M28)</f>
-        <v>141252</v>
-      </c>
-      <c r="O28">
-        <f>(pdbberlaku!O28-pdbberlaku!N28)</f>
-        <v>159406.10000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <f>(pdbberlaku!C29-pdbberlaku!B29)</f>
-        <v>26803.799999999988</v>
-      </c>
-      <c r="D29">
-        <f>(pdbberlaku!D29-pdbberlaku!C29)</f>
-        <v>19722.200000000012</v>
-      </c>
-      <c r="E29">
-        <f>(pdbberlaku!E29-pdbberlaku!D29)</f>
-        <v>30275.799999999988</v>
-      </c>
-      <c r="F29">
-        <f>(pdbberlaku!F29-pdbberlaku!E29)</f>
-        <v>33896.799999999988</v>
-      </c>
-      <c r="G29">
-        <f>(pdbberlaku!G29-pdbberlaku!F29)</f>
-        <v>18767</v>
-      </c>
-      <c r="H29">
-        <f>(pdbberlaku!H29-pdbberlaku!G29)</f>
-        <v>23181.700000000012</v>
-      </c>
-      <c r="I29">
-        <f>(pdbberlaku!I29-pdbberlaku!H29)</f>
-        <v>21648.200000000012</v>
-      </c>
-      <c r="J29">
-        <f>(pdbberlaku!J29-pdbberlaku!I29)</f>
-        <v>30183.900000000023</v>
-      </c>
-      <c r="K29">
-        <f>(pdbberlaku!K29-pdbberlaku!J29)</f>
-        <v>29817.399999999965</v>
-      </c>
-      <c r="L29">
-        <f>(pdbberlaku!L29-pdbberlaku!K29)</f>
-        <v>-56407.200000000012</v>
-      </c>
-      <c r="M29">
-        <f>(pdbberlaku!M29-pdbberlaku!L29)</f>
-        <v>47958.100000000035</v>
-      </c>
-      <c r="N29">
-        <f>(pdbberlaku!N29-pdbberlaku!M29)</f>
-        <v>31283.399999999965</v>
-      </c>
-      <c r="O29">
-        <f>(pdbberlaku!O29-pdbberlaku!N29)</f>
-        <v>27913.300000000047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <f>(pdbberlaku!C30-pdbberlaku!B30)</f>
-        <v>115364.5</v>
-      </c>
-      <c r="D30">
-        <f>(pdbberlaku!D30-pdbberlaku!C30)</f>
-        <v>52670.099999999977</v>
-      </c>
-      <c r="E30">
-        <f>(pdbberlaku!E30-pdbberlaku!D30)</f>
-        <v>92385.400000000023</v>
-      </c>
-      <c r="F30">
-        <f>(pdbberlaku!F30-pdbberlaku!E30)</f>
-        <v>124197</v>
-      </c>
-      <c r="G30">
-        <f>(pdbberlaku!G30-pdbberlaku!F30)</f>
-        <v>94870.300000000047</v>
-      </c>
-      <c r="H30">
-        <f>(pdbberlaku!H30-pdbberlaku!G30)</f>
-        <v>79352</v>
-      </c>
-      <c r="I30">
-        <f>(pdbberlaku!I30-pdbberlaku!H30)</f>
-        <v>111806.59999999986</v>
-      </c>
-      <c r="J30">
-        <f>(pdbberlaku!J30-pdbberlaku!I30)</f>
-        <v>132763.90000000014</v>
-      </c>
-      <c r="K30">
-        <f>(pdbberlaku!K30-pdbberlaku!J30)</f>
-        <v>98638.5</v>
-      </c>
-      <c r="L30">
-        <f>(pdbberlaku!L30-pdbberlaku!K30)</f>
-        <v>-9873</v>
-      </c>
-      <c r="M30">
-        <f>(pdbberlaku!M30-pdbberlaku!L30)</f>
-        <v>157988.09999999986</v>
-      </c>
-      <c r="N30">
-        <f>(pdbberlaku!N30-pdbberlaku!M30)</f>
-        <v>285478.40000000014</v>
-      </c>
-      <c r="O30">
-        <f>(pdbberlaku!O30-pdbberlaku!N30)</f>
-        <v>157835.60000000009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <f>(pdbberlaku!C31-pdbberlaku!B31)</f>
-        <v>30747.000000000029</v>
-      </c>
-      <c r="D31">
-        <f>(pdbberlaku!D31-pdbberlaku!C31)</f>
-        <v>37033.799999999988</v>
-      </c>
-      <c r="E31">
-        <f>(pdbberlaku!E31-pdbberlaku!D31)</f>
-        <v>62149.700000000012</v>
-      </c>
-      <c r="F31">
-        <f>(pdbberlaku!F31-pdbberlaku!E31)</f>
-        <v>91663</v>
-      </c>
-      <c r="G31">
-        <f>(pdbberlaku!G31-pdbberlaku!F31)</f>
-        <v>111495.40000000002</v>
-      </c>
-      <c r="H31">
-        <f>(pdbberlaku!H31-pdbberlaku!G31)</f>
-        <v>66529.599999999977</v>
-      </c>
-      <c r="I31">
-        <f>(pdbberlaku!I31-pdbberlaku!H31)</f>
-        <v>90235.699999999953</v>
-      </c>
-      <c r="J31">
-        <f>(pdbberlaku!J31-pdbberlaku!I31)</f>
-        <v>62547.400000000023</v>
-      </c>
-      <c r="K31">
-        <f>(pdbberlaku!K31-pdbberlaku!J31)</f>
-        <v>83728.400000000023</v>
-      </c>
-      <c r="L31">
-        <f>(pdbberlaku!L31-pdbberlaku!K31)</f>
-        <v>-191953</v>
-      </c>
-      <c r="M31">
-        <f>(pdbberlaku!M31-pdbberlaku!L31)</f>
-        <v>30057.900000000023</v>
-      </c>
-      <c r="N31">
-        <f>(pdbberlaku!N31-pdbberlaku!M31)</f>
-        <v>263909.19999999995</v>
-      </c>
-      <c r="O31">
-        <f>(pdbberlaku!O31-pdbberlaku!N31)</f>
-        <v>247722.39999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <f>(pdbberlaku!C32-pdbberlaku!B32)</f>
-        <v>5338.0999999999985</v>
-      </c>
-      <c r="D32">
-        <f>(pdbberlaku!D32-pdbberlaku!C32)</f>
-        <v>9950</v>
-      </c>
-      <c r="E32">
-        <f>(pdbberlaku!E32-pdbberlaku!D32)</f>
-        <v>12436.599999999999</v>
-      </c>
-      <c r="F32">
-        <f>(pdbberlaku!F32-pdbberlaku!E32)</f>
-        <v>10766.100000000006</v>
-      </c>
-      <c r="G32">
-        <f>(pdbberlaku!G32-pdbberlaku!F32)</f>
-        <v>6535.3999999999942</v>
-      </c>
-      <c r="H32">
-        <f>(pdbberlaku!H32-pdbberlaku!G32)</f>
-        <v>5630.8999999999942</v>
-      </c>
-      <c r="I32">
-        <f>(pdbberlaku!I32-pdbberlaku!H32)</f>
-        <v>5531.9000000000087</v>
-      </c>
-      <c r="J32">
-        <f>(pdbberlaku!J32-pdbberlaku!I32)</f>
-        <v>4618.3999999999942</v>
-      </c>
-      <c r="K32">
-        <f>(pdbberlaku!K32-pdbberlaku!J32)</f>
-        <v>2632.3000000000029</v>
-      </c>
-      <c r="L32">
-        <f>(pdbberlaku!L32-pdbberlaku!K32)</f>
-        <v>-24592.699999999997</v>
-      </c>
-      <c r="M32">
-        <f>(pdbberlaku!M32-pdbberlaku!L32)</f>
-        <v>4532.1999999999971</v>
-      </c>
-      <c r="N32">
-        <f>(pdbberlaku!N32-pdbberlaku!M32)</f>
-        <v>25871.800000000003</v>
-      </c>
-      <c r="O32">
-        <f>(pdbberlaku!O32-pdbberlaku!N32)</f>
-        <v>15448.300000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <f>(pdbberlaku!C33-pdbberlaku!B33)</f>
-        <v>18595.399999999994</v>
-      </c>
-      <c r="D33">
-        <f>(pdbberlaku!D33-pdbberlaku!C33)</f>
-        <v>18447</v>
-      </c>
-      <c r="E33">
-        <f>(pdbberlaku!E33-pdbberlaku!D33)</f>
-        <v>24449.399999999994</v>
-      </c>
-      <c r="F33">
-        <f>(pdbberlaku!F33-pdbberlaku!E33)</f>
-        <v>20797.700000000012</v>
-      </c>
-      <c r="G33">
-        <f>(pdbberlaku!G33-pdbberlaku!F33)</f>
-        <v>13958.299999999988</v>
-      </c>
-      <c r="H33">
-        <f>(pdbberlaku!H33-pdbberlaku!G33)</f>
-        <v>15868.799999999988</v>
-      </c>
-      <c r="I33">
-        <f>(pdbberlaku!I33-pdbberlaku!H33)</f>
-        <v>18425.700000000012</v>
-      </c>
-      <c r="J33">
-        <f>(pdbberlaku!J33-pdbberlaku!I33)</f>
-        <v>21078.200000000012</v>
-      </c>
-      <c r="K33">
-        <f>(pdbberlaku!K33-pdbberlaku!J33)</f>
-        <v>24865.700000000012</v>
-      </c>
-      <c r="L33">
-        <f>(pdbberlaku!L33-pdbberlaku!K33)</f>
-        <v>-21560</v>
-      </c>
-      <c r="M33">
-        <f>(pdbberlaku!M33-pdbberlaku!L33)</f>
-        <v>13646.599999999977</v>
-      </c>
-      <c r="N33">
-        <f>(pdbberlaku!N33-pdbberlaku!M33)</f>
-        <v>33833.100000000035</v>
-      </c>
-      <c r="O33">
-        <f>(pdbberlaku!O33-pdbberlaku!N33)</f>
-        <v>38876.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <f>(pdbberlaku!C34-pdbberlaku!B34)</f>
-        <v>25729.499999999971</v>
-      </c>
-      <c r="D34">
-        <f>(pdbberlaku!D34-pdbberlaku!C34)</f>
-        <v>29584.800000000047</v>
-      </c>
-      <c r="E34">
-        <f>(pdbberlaku!E34-pdbberlaku!D34)</f>
-        <v>29647</v>
-      </c>
-      <c r="F34">
-        <f>(pdbberlaku!F34-pdbberlaku!E34)</f>
-        <v>28447.899999999965</v>
-      </c>
-      <c r="G34">
-        <f>(pdbberlaku!G34-pdbberlaku!F34)</f>
-        <v>36559.200000000012</v>
-      </c>
-      <c r="H34">
-        <f>(pdbberlaku!H34-pdbberlaku!G34)</f>
-        <v>43172.200000000012</v>
-      </c>
-      <c r="I34">
-        <f>(pdbberlaku!I34-pdbberlaku!H34)</f>
-        <v>64527.200000000012</v>
-      </c>
-      <c r="J34">
-        <f>(pdbberlaku!J34-pdbberlaku!I34)</f>
-        <v>45222.099999999977</v>
-      </c>
-      <c r="K34">
-        <f>(pdbberlaku!K34-pdbberlaku!J34)</f>
-        <v>67594.599999999977</v>
-      </c>
-      <c r="L34">
-        <f>(pdbberlaku!L34-pdbberlaku!K34)</f>
-        <v>69430.70000000007</v>
-      </c>
-      <c r="M34">
-        <f>(pdbberlaku!M34-pdbberlaku!L34)</f>
-        <v>52839.599999999977</v>
-      </c>
-      <c r="N34">
-        <f>(pdbberlaku!N34-pdbberlaku!M34)</f>
-        <v>63934.400000000023</v>
-      </c>
-      <c r="O34">
-        <f>(pdbberlaku!O34-pdbberlaku!N34)</f>
-        <v>70899.699999999953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <f>(pdbberlaku!C35-pdbberlaku!B35)</f>
-        <v>30857.899999999994</v>
-      </c>
-      <c r="D35">
-        <f>(pdbberlaku!D35-pdbberlaku!C35)</f>
-        <v>49948</v>
-      </c>
-      <c r="E35">
-        <f>(pdbberlaku!E35-pdbberlaku!D35)</f>
-        <v>49597.600000000035</v>
-      </c>
-      <c r="F35">
-        <f>(pdbberlaku!F35-pdbberlaku!E35)</f>
-        <v>38306.899999999965</v>
-      </c>
-      <c r="G35">
-        <f>(pdbberlaku!G35-pdbberlaku!F35)</f>
-        <v>55961.100000000035</v>
-      </c>
-      <c r="H35">
-        <f>(pdbberlaku!H35-pdbberlaku!G35)</f>
-        <v>55806.899999999965</v>
-      </c>
-      <c r="I35">
-        <f>(pdbberlaku!I35-pdbberlaku!H35)</f>
-        <v>50996.799999999988</v>
-      </c>
-      <c r="J35">
-        <f>(pdbberlaku!J35-pdbberlaku!I35)</f>
-        <v>45111.5</v>
-      </c>
-      <c r="K35">
-        <f>(pdbberlaku!K35-pdbberlaku!J35)</f>
-        <v>55118.70000000007</v>
-      </c>
-      <c r="L35">
-        <f>(pdbberlaku!L35-pdbberlaku!K35)</f>
-        <v>24639.099999999977</v>
-      </c>
-      <c r="M35">
-        <f>(pdbberlaku!M35-pdbberlaku!L35)</f>
-        <v>40114.29999999993</v>
-      </c>
-      <c r="N35">
-        <f>(pdbberlaku!N35-pdbberlaku!M35)</f>
-        <v>73183.5</v>
-      </c>
-      <c r="O35">
-        <f>(pdbberlaku!O35-pdbberlaku!N35)</f>
-        <v>59797.100000000093</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <f>(pdbberlaku!C36-pdbberlaku!B36)</f>
-        <v>20583.100000000006</v>
-      </c>
-      <c r="D36">
-        <f>(pdbberlaku!D36-pdbberlaku!C36)</f>
-        <v>19117.299999999988</v>
-      </c>
-      <c r="E36">
-        <f>(pdbberlaku!E36-pdbberlaku!D36)</f>
-        <v>26361.100000000006</v>
-      </c>
-      <c r="F36">
-        <f>(pdbberlaku!F36-pdbberlaku!E36)</f>
-        <v>30298.400000000023</v>
-      </c>
-      <c r="G36">
-        <f>(pdbberlaku!G36-pdbberlaku!F36)</f>
-        <v>33028</v>
-      </c>
-      <c r="H36">
-        <f>(pdbberlaku!H36-pdbberlaku!G36)</f>
-        <v>22886.799999999988</v>
-      </c>
-      <c r="I36">
-        <f>(pdbberlaku!I36-pdbberlaku!H36)</f>
-        <v>31771</v>
-      </c>
-      <c r="J36">
-        <f>(pdbberlaku!J36-pdbberlaku!I36)</f>
-        <v>23754.5</v>
-      </c>
-      <c r="K36">
-        <f>(pdbberlaku!K36-pdbberlaku!J36)</f>
-        <v>33442.200000000012</v>
-      </c>
-      <c r="L36">
-        <f>(pdbberlaku!L36-pdbberlaku!K36)</f>
-        <v>14325</v>
-      </c>
-      <c r="M36">
-        <f>(pdbberlaku!M36-pdbberlaku!L36)</f>
-        <v>14440.799999999988</v>
-      </c>
-      <c r="N36">
-        <f>(pdbberlaku!N36-pdbberlaku!M36)</f>
-        <v>20089.5</v>
-      </c>
-      <c r="O36">
-        <f>(pdbberlaku!O36-pdbberlaku!N36)</f>
-        <v>17146.200000000012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <f>(pdbberlaku!C37-pdbberlaku!B37)</f>
-        <v>9960.1999999999971</v>
-      </c>
-      <c r="D37">
-        <f>(pdbberlaku!D37-pdbberlaku!C37)</f>
-        <v>9830.5</v>
-      </c>
-      <c r="E37">
-        <f>(pdbberlaku!E37-pdbberlaku!D37)</f>
-        <v>10645.900000000009</v>
-      </c>
-      <c r="F37">
-        <f>(pdbberlaku!F37-pdbberlaku!E37)</f>
-        <v>12265.899999999994</v>
-      </c>
-      <c r="G37">
-        <f>(pdbberlaku!G37-pdbberlaku!F37)</f>
-        <v>14044.300000000003</v>
-      </c>
-      <c r="H37">
-        <f>(pdbberlaku!H37-pdbberlaku!G37)</f>
-        <v>8909</v>
-      </c>
-      <c r="I37">
-        <f>(pdbberlaku!I37-pdbberlaku!H37)</f>
-        <v>12730.200000000012</v>
-      </c>
-      <c r="J37">
-        <f>(pdbberlaku!J37-pdbberlaku!I37)</f>
-        <v>13239.399999999994</v>
-      </c>
-      <c r="K37">
-        <f>(pdbberlaku!K37-pdbberlaku!J37)</f>
-        <v>16618.899999999994</v>
-      </c>
-      <c r="L37">
-        <f>(pdbberlaku!L37-pdbberlaku!K37)</f>
-        <v>26791.399999999994</v>
-      </c>
-      <c r="M37">
-        <f>(pdbberlaku!M37-pdbberlaku!L37)</f>
-        <v>25754.700000000012</v>
-      </c>
-      <c r="N37">
-        <f>(pdbberlaku!N37-pdbberlaku!M37)</f>
-        <v>8936.5</v>
-      </c>
-      <c r="O37">
-        <f>(pdbberlaku!O37-pdbberlaku!N37)</f>
-        <v>15826.899999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <f>(pdbberlaku!C38-pdbberlaku!B38)</f>
-        <v>45109.600000000006</v>
-      </c>
-      <c r="D38">
-        <f>(pdbberlaku!D38-pdbberlaku!C38)</f>
-        <v>35811.899999999965</v>
-      </c>
-      <c r="E38">
-        <f>(pdbberlaku!E38-pdbberlaku!D38)</f>
-        <v>31627.400000000023</v>
-      </c>
-      <c r="F38">
-        <f>(pdbberlaku!F38-pdbberlaku!E38)</f>
-        <v>32434.599999999977</v>
-      </c>
-      <c r="G38">
-        <f>(pdbberlaku!G38-pdbberlaku!F38)</f>
-        <v>44752.800000000047</v>
-      </c>
-      <c r="H38">
-        <f>(pdbberlaku!H38-pdbberlaku!G38)</f>
-        <v>27108.5</v>
-      </c>
-      <c r="I38">
-        <f>(pdbberlaku!I38-pdbberlaku!H38)</f>
-        <v>22852.699999999953</v>
-      </c>
-      <c r="J38">
-        <f>(pdbberlaku!J38-pdbberlaku!I38)</f>
-        <v>42342</v>
-      </c>
-      <c r="K38">
-        <f>(pdbberlaku!K38-pdbberlaku!J38)</f>
-        <v>29898.5</v>
-      </c>
-      <c r="L38">
-        <f>(pdbberlaku!L38-pdbberlaku!K38)</f>
-        <v>14376</v>
-      </c>
-      <c r="M38">
-        <f>(pdbberlaku!M38-pdbberlaku!L38)</f>
-        <v>796.90000000002328</v>
-      </c>
-      <c r="N38">
-        <f>(pdbberlaku!N38-pdbberlaku!M38)</f>
-        <v>18181.5</v>
-      </c>
-      <c r="O38">
-        <f>(pdbberlaku!O38-pdbberlaku!N38)</f>
-        <v>11505.900000000023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <f>(pdbberlaku!C39-pdbberlaku!B39)</f>
-        <v>31167.299999999988</v>
-      </c>
-      <c r="D39">
-        <f>(pdbberlaku!D39-pdbberlaku!C39)</f>
-        <v>37645.5</v>
-      </c>
-      <c r="E39">
-        <f>(pdbberlaku!E39-pdbberlaku!D39)</f>
-        <v>37490</v>
-      </c>
-      <c r="F39">
-        <f>(pdbberlaku!F39-pdbberlaku!E39)</f>
-        <v>33956.100000000035</v>
-      </c>
-      <c r="G39">
-        <f>(pdbberlaku!G39-pdbberlaku!F39)</f>
-        <v>45793</v>
-      </c>
-      <c r="H39">
-        <f>(pdbberlaku!H39-pdbberlaku!G39)</f>
-        <v>29733.399999999965</v>
-      </c>
-      <c r="I39">
-        <f>(pdbberlaku!I39-pdbberlaku!H39)</f>
-        <v>29792.799999999988</v>
-      </c>
-      <c r="J39">
-        <f>(pdbberlaku!J39-pdbberlaku!I39)</f>
-        <v>34609.400000000023</v>
-      </c>
-      <c r="K39">
-        <f>(pdbberlaku!K39-pdbberlaku!J39)</f>
-        <v>40607.200000000012</v>
-      </c>
-      <c r="L39">
-        <f>(pdbberlaku!L39-pdbberlaku!K39)</f>
-        <v>28872.899999999965</v>
-      </c>
-      <c r="M39">
-        <f>(pdbberlaku!M39-pdbberlaku!L39)</f>
-        <v>6439.5999999999767</v>
-      </c>
-      <c r="N39">
-        <f>(pdbberlaku!N39-pdbberlaku!M39)</f>
-        <v>8869.2000000000698</v>
-      </c>
-      <c r="O39">
-        <f>(pdbberlaku!O39-pdbberlaku!N39)</f>
-        <v>17076.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/pdb.xlsx
+++ b/data/pdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1717970-9BE2-4B79-B15A-A867F7B99DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D8531-4905-4039-8F7A-67700A86747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,25 +17,26 @@
     <sheet name="share (2)" sheetId="25" r:id="rId2"/>
     <sheet name="pdbkonstan" sheetId="1" r:id="rId3"/>
     <sheet name="pdbberlaku" sheetId="2" r:id="rId4"/>
-    <sheet name="deflator" sheetId="7" r:id="rId5"/>
-    <sheet name="growth" sheetId="18" r:id="rId6"/>
-    <sheet name="gkonstan" sheetId="3" r:id="rId7"/>
-    <sheet name="gberlaku" sheetId="4" r:id="rId8"/>
-    <sheet name="dkonstan" sheetId="10" r:id="rId9"/>
-    <sheet name="dberlaku" sheetId="11" r:id="rId10"/>
-    <sheet name="pmdn" sheetId="8" r:id="rId11"/>
-    <sheet name="pma" sheetId="12" r:id="rId12"/>
-    <sheet name="pmarp" sheetId="20" r:id="rId13"/>
-    <sheet name="inves" sheetId="13" r:id="rId14"/>
-    <sheet name="pmapct" sheetId="16" r:id="rId15"/>
-    <sheet name="ICORr" sheetId="14" r:id="rId16"/>
-    <sheet name="ICORr (2)" sheetId="22" r:id="rId17"/>
-    <sheet name="skonstan" sheetId="5" r:id="rId18"/>
-    <sheet name="APBN" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet4" sheetId="23" r:id="rId20"/>
+    <sheet name="index" sheetId="26" r:id="rId5"/>
+    <sheet name="deflator" sheetId="7" r:id="rId6"/>
+    <sheet name="growth" sheetId="18" r:id="rId7"/>
+    <sheet name="gkonstan" sheetId="3" r:id="rId8"/>
+    <sheet name="gberlaku" sheetId="4" r:id="rId9"/>
+    <sheet name="dkonstan" sheetId="10" r:id="rId10"/>
+    <sheet name="dberlaku" sheetId="11" r:id="rId11"/>
+    <sheet name="pmdn" sheetId="8" r:id="rId12"/>
+    <sheet name="pma" sheetId="12" r:id="rId13"/>
+    <sheet name="pmarp" sheetId="20" r:id="rId14"/>
+    <sheet name="inves" sheetId="13" r:id="rId15"/>
+    <sheet name="pmapct" sheetId="16" r:id="rId16"/>
+    <sheet name="ICORr" sheetId="14" r:id="rId17"/>
+    <sheet name="ICORr (2)" sheetId="22" r:id="rId18"/>
+    <sheet name="skonstan" sheetId="5" r:id="rId19"/>
+    <sheet name="APBN" sheetId="19" r:id="rId20"/>
+    <sheet name="Sheet4" sheetId="23" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'ICORr (2)'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'ICORr (2)'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="98">
   <si>
     <t>Pertanian, Peternakan, Perburuan dan Jasa Pertanian</t>
   </si>
@@ -1541,6 +1542,525 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Price Index, 2010=100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Manufaktur</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>index!$Q$31:$AC$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>index!$Q$34:$AC$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.32884871006631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.40129362699329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.20336637188237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.44284512196261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.96376838048504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.73463465986465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129.02514614571001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.5109349378167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135.14144071556385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.51868041145076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141.60592983904124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147.7238622789236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F79-40DA-B5EC-1173C4CEE690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Transportasi dan Pergudangan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>index!$Q$31:$AC$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>index!$Q$37:$AC$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.89368410755002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.00960435266171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.2506595924812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.83321047431738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.81754816243611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172.07022986132341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.78850317965453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183.2552519717506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.33817802027482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.27180315943133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177.1700372233943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202.00707041537251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F79-40DA-B5EC-1173C4CEE690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1270306704"/>
+        <c:axId val="1270299984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270306704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270299984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1270299984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270306704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Share</a:t>
             </a:r>
@@ -1934,7 +2454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2444,6 +2964,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4547,6 +5107,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4637,6 +5713,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12CBC77-4438-4707-8593-BF179785F3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -4674,7 +5793,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5868,6 +6987,2237 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDAA977-0A70-47AE-8349-C8DF616374F5}">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="84.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>(pdbkonstan!C2-pdbkonstan!B2)</f>
+        <v>26146.699999999953</v>
+      </c>
+      <c r="D2">
+        <f>(pdbkonstan!D2-pdbkonstan!C2)</f>
+        <v>35723.300000000047</v>
+      </c>
+      <c r="E2">
+        <f>(pdbkonstan!E2-pdbkonstan!D2)</f>
+        <v>31459.29999999993</v>
+      </c>
+      <c r="F2">
+        <f>(pdbkonstan!F2-pdbkonstan!E2)</f>
+        <v>32625.800000000047</v>
+      </c>
+      <c r="G2">
+        <f>(pdbkonstan!G2-pdbkonstan!F2)</f>
+        <v>26416</v>
+      </c>
+      <c r="H2">
+        <f>(pdbkonstan!H2-pdbkonstan!G2)</f>
+        <v>29551.400000000023</v>
+      </c>
+      <c r="I2">
+        <f>(pdbkonstan!I2-pdbkonstan!H2)</f>
+        <v>33906</v>
+      </c>
+      <c r="J2">
+        <f>(pdbkonstan!J2-pdbkonstan!I2)</f>
+        <v>35392.099999999977</v>
+      </c>
+      <c r="K2">
+        <f>(pdbkonstan!K2-pdbkonstan!J2)</f>
+        <v>33247.900000000023</v>
+      </c>
+      <c r="L2">
+        <f>(pdbkonstan!L2-pdbkonstan!K2)</f>
+        <v>22184.400000000023</v>
+      </c>
+      <c r="M2">
+        <f>(pdbkonstan!M2-pdbkonstan!L2)</f>
+        <v>11890.399999999907</v>
+      </c>
+      <c r="N2">
+        <f>(pdbkonstan!N2-pdbkonstan!M2)</f>
+        <v>24974.5</v>
+      </c>
+      <c r="O2">
+        <f>(pdbkonstan!O2-pdbkonstan!N2)</f>
+        <v>1983.1000000000931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>(pdbkonstan!C3-pdbkonstan!B3)</f>
+        <v>605.09999999999854</v>
+      </c>
+      <c r="D3">
+        <f>(pdbkonstan!D3-pdbkonstan!C3)</f>
+        <v>141</v>
+      </c>
+      <c r="E3">
+        <f>(pdbkonstan!E3-pdbkonstan!D3)</f>
+        <v>356.80000000000291</v>
+      </c>
+      <c r="F3">
+        <f>(pdbkonstan!F3-pdbkonstan!E3)</f>
+        <v>344.69999999999709</v>
+      </c>
+      <c r="G3">
+        <f>(pdbkonstan!G3-pdbkonstan!F3)</f>
+        <v>1050</v>
+      </c>
+      <c r="H3">
+        <f>(pdbkonstan!H3-pdbkonstan!G3)</f>
+        <v>-621.5</v>
+      </c>
+      <c r="I3">
+        <f>(pdbkonstan!I3-pdbkonstan!H3)</f>
+        <v>1277.5999999999985</v>
+      </c>
+      <c r="J3">
+        <f>(pdbkonstan!J3-pdbkonstan!I3)</f>
+        <v>1702.2000000000044</v>
+      </c>
+      <c r="K3">
+        <f>(pdbkonstan!K3-pdbkonstan!J3)</f>
+        <v>235.79999999999563</v>
+      </c>
+      <c r="L3">
+        <f>(pdbkonstan!L3-pdbkonstan!K3)</f>
+        <v>-18.299999999995634</v>
+      </c>
+      <c r="M3">
+        <f>(pdbkonstan!M3-pdbkonstan!L3)</f>
+        <v>47.299999999995634</v>
+      </c>
+      <c r="N3">
+        <f>(pdbkonstan!N3-pdbkonstan!M3)</f>
+        <v>-798</v>
+      </c>
+      <c r="O3">
+        <f>(pdbkonstan!O3-pdbkonstan!N3)</f>
+        <v>1627.5999999999985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>(pdbkonstan!C4-pdbkonstan!B4)</f>
+        <v>10985.800000000017</v>
+      </c>
+      <c r="D4">
+        <f>(pdbkonstan!D4-pdbkonstan!C4)</f>
+        <v>9719.0999999999767</v>
+      </c>
+      <c r="E4">
+        <f>(pdbkonstan!E4-pdbkonstan!D4)</f>
+        <v>11885</v>
+      </c>
+      <c r="F4">
+        <f>(pdbkonstan!F4-pdbkonstan!E4)</f>
+        <v>12940.400000000023</v>
+      </c>
+      <c r="G4">
+        <f>(pdbkonstan!G4-pdbkonstan!F4)</f>
+        <v>14927.099999999977</v>
+      </c>
+      <c r="H4">
+        <f>(pdbkonstan!H4-pdbkonstan!G4)</f>
+        <v>10579.800000000017</v>
+      </c>
+      <c r="I4">
+        <f>(pdbkonstan!I4-pdbkonstan!H4)</f>
+        <v>12236.600000000006</v>
+      </c>
+      <c r="J4">
+        <f>(pdbkonstan!J4-pdbkonstan!I4)</f>
+        <v>11783</v>
+      </c>
+      <c r="K4">
+        <f>(pdbkonstan!K4-pdbkonstan!J4)</f>
+        <v>13662.399999999994</v>
+      </c>
+      <c r="L4">
+        <f>(pdbkonstan!L4-pdbkonstan!K4)</f>
+        <v>1833.6999999999825</v>
+      </c>
+      <c r="M4">
+        <f>(pdbkonstan!M4-pdbkonstan!L4)</f>
+        <v>13854.299999999988</v>
+      </c>
+      <c r="N4">
+        <f>(pdbkonstan!N4-pdbkonstan!M4)</f>
+        <v>7485.8000000000466</v>
+      </c>
+      <c r="O4">
+        <f>(pdbkonstan!O4-pdbkonstan!N4)</f>
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>(pdbkonstan!C5-pdbkonstan!B5)</f>
+        <v>38511.5</v>
+      </c>
+      <c r="D5">
+        <f>(pdbkonstan!D5-pdbkonstan!C5)</f>
+        <v>31345.200000000012</v>
+      </c>
+      <c r="E5">
+        <f>(pdbkonstan!E5-pdbkonstan!D5)</f>
+        <v>17005.399999999994</v>
+      </c>
+      <c r="F5">
+        <f>(pdbkonstan!F5-pdbkonstan!E5)</f>
+        <v>3479</v>
+      </c>
+      <c r="G5">
+        <f>(pdbkonstan!G5-pdbkonstan!F5)</f>
+        <v>-18348.300000000017</v>
+      </c>
+      <c r="H5">
+        <f>(pdbkonstan!H5-pdbkonstan!G5)</f>
+        <v>-9626.6999999999825</v>
+      </c>
+      <c r="I5">
+        <f>(pdbkonstan!I5-pdbkonstan!H5)</f>
+        <v>3380.2999999999884</v>
+      </c>
+      <c r="J5">
+        <f>(pdbkonstan!J5-pdbkonstan!I5)</f>
+        <v>9082.5</v>
+      </c>
+      <c r="K5">
+        <f>(pdbkonstan!K5-pdbkonstan!J5)</f>
+        <v>24037.100000000006</v>
+      </c>
+      <c r="L5">
+        <f>(pdbkonstan!L5-pdbkonstan!K5)</f>
+        <v>-14099.899999999994</v>
+      </c>
+      <c r="M5">
+        <f>(pdbkonstan!M5-pdbkonstan!L5)</f>
+        <v>16211.199999999983</v>
+      </c>
+      <c r="N5">
+        <f>(pdbkonstan!N5-pdbkonstan!M5)</f>
+        <v>21234</v>
+      </c>
+      <c r="O5">
+        <f>(pdbkonstan!O5-pdbkonstan!N5)</f>
+        <v>28347.400000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>(pdbkonstan!C6-pdbkonstan!B6)</f>
+        <v>-432.60000000003492</v>
+      </c>
+      <c r="D6">
+        <f>(pdbkonstan!D6-pdbkonstan!C6)</f>
+        <v>-12104.699999999953</v>
+      </c>
+      <c r="E6">
+        <f>(pdbkonstan!E6-pdbkonstan!D6)</f>
+        <v>-10304.300000000047</v>
+      </c>
+      <c r="F6">
+        <f>(pdbkonstan!F6-pdbkonstan!E6)</f>
+        <v>-6166.3999999999651</v>
+      </c>
+      <c r="G6">
+        <f>(pdbkonstan!G6-pdbkonstan!F6)</f>
+        <v>164.09999999997672</v>
+      </c>
+      <c r="H6">
+        <f>(pdbkonstan!H6-pdbkonstan!G6)</f>
+        <v>6418.1000000000349</v>
+      </c>
+      <c r="I6">
+        <f>(pdbkonstan!I6-pdbkonstan!H6)</f>
+        <v>-11090.900000000023</v>
+      </c>
+      <c r="J6">
+        <f>(pdbkonstan!J6-pdbkonstan!I6)</f>
+        <v>-4232.9000000000233</v>
+      </c>
+      <c r="K6">
+        <f>(pdbkonstan!K6-pdbkonstan!J6)</f>
+        <v>-8440</v>
+      </c>
+      <c r="L6">
+        <f>(pdbkonstan!L6-pdbkonstan!K6)</f>
+        <v>-17396.899999999965</v>
+      </c>
+      <c r="M6">
+        <f>(pdbkonstan!M6-pdbkonstan!L6)</f>
+        <v>-12037.100000000006</v>
+      </c>
+      <c r="N6">
+        <f>(pdbkonstan!N6-pdbkonstan!M6)</f>
+        <v>-12560.300000000017</v>
+      </c>
+      <c r="O6">
+        <f>(pdbkonstan!O6-pdbkonstan!N6)</f>
+        <v>1815.6000000000058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>(pdbkonstan!C7-pdbkonstan!B7)</f>
+        <v>-13830.5</v>
+      </c>
+      <c r="D7">
+        <f>(pdbkonstan!D7-pdbkonstan!C7)</f>
+        <v>-3799.1999999999971</v>
+      </c>
+      <c r="E7">
+        <f>(pdbkonstan!E7-pdbkonstan!D7)</f>
+        <v>6994.1000000000058</v>
+      </c>
+      <c r="F7">
+        <f>(pdbkonstan!F7-pdbkonstan!E7)</f>
+        <v>-350.70000000001164</v>
+      </c>
+      <c r="G7">
+        <f>(pdbkonstan!G7-pdbkonstan!F7)</f>
+        <v>-10555</v>
+      </c>
+      <c r="H7">
+        <f>(pdbkonstan!H7-pdbkonstan!G7)</f>
+        <v>1600.3000000000029</v>
+      </c>
+      <c r="I7">
+        <f>(pdbkonstan!I7-pdbkonstan!H7)</f>
+        <v>5847.1999999999971</v>
+      </c>
+      <c r="J7">
+        <f>(pdbkonstan!J7-pdbkonstan!I7)</f>
+        <v>8569</v>
+      </c>
+      <c r="K7">
+        <f>(pdbkonstan!K7-pdbkonstan!J7)</f>
+        <v>-15716</v>
+      </c>
+      <c r="L7">
+        <f>(pdbkonstan!L7-pdbkonstan!K7)</f>
+        <v>17826</v>
+      </c>
+      <c r="M7">
+        <f>(pdbkonstan!M7-pdbkonstan!L7)</f>
+        <v>24170.200000000012</v>
+      </c>
+      <c r="N7">
+        <f>(pdbkonstan!N7-pdbkonstan!M7)</f>
+        <v>23413.199999999983</v>
+      </c>
+      <c r="O7">
+        <f>(pdbkonstan!O7-pdbkonstan!N7)</f>
+        <v>13040.400000000023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>(pdbkonstan!C8-pdbkonstan!B8)</f>
+        <v>6579.3000000000029</v>
+      </c>
+      <c r="D8">
+        <f>(pdbkonstan!D8-pdbkonstan!C8)</f>
+        <v>7164</v>
+      </c>
+      <c r="E8">
+        <f>(pdbkonstan!E8-pdbkonstan!D8)</f>
+        <v>5797.6000000000058</v>
+      </c>
+      <c r="F8">
+        <f>(pdbkonstan!F8-pdbkonstan!E8)</f>
+        <v>6473.1999999999825</v>
+      </c>
+      <c r="G8">
+        <f>(pdbkonstan!G8-pdbkonstan!F8)</f>
+        <v>1576.9000000000233</v>
+      </c>
+      <c r="H8">
+        <f>(pdbkonstan!H8-pdbkonstan!G8)</f>
+        <v>8874.1999999999825</v>
+      </c>
+      <c r="I8">
+        <f>(pdbkonstan!I8-pdbkonstan!H8)</f>
+        <v>6948.7000000000116</v>
+      </c>
+      <c r="J8">
+        <f>(pdbkonstan!J8-pdbkonstan!I8)</f>
+        <v>3408</v>
+      </c>
+      <c r="K8">
+        <f>(pdbkonstan!K8-pdbkonstan!J8)</f>
+        <v>9820.1000000000058</v>
+      </c>
+      <c r="L8">
+        <f>(pdbkonstan!L8-pdbkonstan!K8)</f>
+        <v>-2060.2000000000116</v>
+      </c>
+      <c r="M8">
+        <f>(pdbkonstan!M8-pdbkonstan!L8)</f>
+        <v>3280</v>
+      </c>
+      <c r="N8">
+        <f>(pdbkonstan!N8-pdbkonstan!M8)</f>
+        <v>3960.2000000000116</v>
+      </c>
+      <c r="O8">
+        <f>(pdbkonstan!O8-pdbkonstan!N8)</f>
+        <v>9329.3999999999942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f>(pdbkonstan!C9-pdbkonstan!B9)</f>
+        <v>9153.9000000000087</v>
+      </c>
+      <c r="D9">
+        <f>(pdbkonstan!D9-pdbkonstan!C9)</f>
+        <v>8054</v>
+      </c>
+      <c r="E9">
+        <f>(pdbkonstan!E9-pdbkonstan!D9)</f>
+        <v>9197.3999999999942</v>
+      </c>
+      <c r="F9">
+        <f>(pdbkonstan!F9-pdbkonstan!E9)</f>
+        <v>12304.599999999991</v>
+      </c>
+      <c r="G9">
+        <f>(pdbkonstan!G9-pdbkonstan!F9)</f>
+        <v>10600.200000000012</v>
+      </c>
+      <c r="H9">
+        <f>(pdbkonstan!H9-pdbkonstan!G9)</f>
+        <v>10926.200000000012</v>
+      </c>
+      <c r="I9">
+        <f>(pdbkonstan!I9-pdbkonstan!H9)</f>
+        <v>13442.099999999977</v>
+      </c>
+      <c r="J9">
+        <f>(pdbkonstan!J9-pdbkonstan!I9)</f>
+        <v>14927.300000000017</v>
+      </c>
+      <c r="K9">
+        <f>(pdbkonstan!K9-pdbkonstan!J9)</f>
+        <v>19245.100000000006</v>
+      </c>
+      <c r="L9">
+        <f>(pdbkonstan!L9-pdbkonstan!K9)</f>
+        <v>-11265.100000000006</v>
+      </c>
+      <c r="M9">
+        <f>(pdbkonstan!M9-pdbkonstan!L9)</f>
+        <v>1435.6000000000058</v>
+      </c>
+      <c r="N9">
+        <f>(pdbkonstan!N9-pdbkonstan!M9)</f>
+        <v>17292.299999999988</v>
+      </c>
+      <c r="O9">
+        <f>(pdbkonstan!O9-pdbkonstan!N9)</f>
+        <v>17677.100000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f>(pdbkonstan!C10-pdbkonstan!B10)</f>
+        <v>-770.30000000001746</v>
+      </c>
+      <c r="D10">
+        <f>(pdbkonstan!D10-pdbkonstan!C10)</f>
+        <v>-5595.7999999999884</v>
+      </c>
+      <c r="E10">
+        <f>(pdbkonstan!E10-pdbkonstan!D10)</f>
+        <v>-6006.2000000000116</v>
+      </c>
+      <c r="F10">
+        <f>(pdbkonstan!F10-pdbkonstan!E10)</f>
+        <v>-4699.1000000000058</v>
+      </c>
+      <c r="G10">
+        <f>(pdbkonstan!G10-pdbkonstan!F10)</f>
+        <v>-2438.7999999999884</v>
+      </c>
+      <c r="H10">
+        <f>(pdbkonstan!H10-pdbkonstan!G10)</f>
+        <v>6080.1000000000058</v>
+      </c>
+      <c r="I10">
+        <f>(pdbkonstan!I10-pdbkonstan!H10)</f>
+        <v>-542.70000000001164</v>
+      </c>
+      <c r="J10">
+        <f>(pdbkonstan!J10-pdbkonstan!I10)</f>
+        <v>-17.600000000005821</v>
+      </c>
+      <c r="K10">
+        <f>(pdbkonstan!K10-pdbkonstan!J10)</f>
+        <v>-2429.5999999999767</v>
+      </c>
+      <c r="L10">
+        <f>(pdbkonstan!L10-pdbkonstan!K10)</f>
+        <v>-14798.5</v>
+      </c>
+      <c r="M10">
+        <f>(pdbkonstan!M10-pdbkonstan!L10)</f>
+        <v>1163.1999999999825</v>
+      </c>
+      <c r="N10">
+        <f>(pdbkonstan!N10-pdbkonstan!M10)</f>
+        <v>7572.8999999999942</v>
+      </c>
+      <c r="O10">
+        <f>(pdbkonstan!O10-pdbkonstan!N10)</f>
+        <v>8799.8000000000175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>(pdbkonstan!C11-pdbkonstan!B11)</f>
+        <v>39560.600000000035</v>
+      </c>
+      <c r="D11">
+        <f>(pdbkonstan!D11-pdbkonstan!C11)</f>
+        <v>41338</v>
+      </c>
+      <c r="E11">
+        <f>(pdbkonstan!E11-pdbkonstan!D11)</f>
+        <v>17941.299999999988</v>
+      </c>
+      <c r="F11">
+        <f>(pdbkonstan!F11-pdbkonstan!E11)</f>
+        <v>43573.200000000012</v>
+      </c>
+      <c r="G11">
+        <f>(pdbkonstan!G11-pdbkonstan!F11)</f>
+        <v>37900.200000000012</v>
+      </c>
+      <c r="H11">
+        <f>(pdbkonstan!H11-pdbkonstan!G11)</f>
+        <v>45029.900000000023</v>
+      </c>
+      <c r="I11">
+        <f>(pdbkonstan!I11-pdbkonstan!H11)</f>
+        <v>54048.099999999977</v>
+      </c>
+      <c r="J11">
+        <f>(pdbkonstan!J11-pdbkonstan!I11)</f>
+        <v>50628.099999999977</v>
+      </c>
+      <c r="K11">
+        <f>(pdbkonstan!K11-pdbkonstan!J11)</f>
+        <v>53708</v>
+      </c>
+      <c r="L11">
+        <f>(pdbkonstan!L11-pdbkonstan!K11)</f>
+        <v>11744.400000000023</v>
+      </c>
+      <c r="M11">
+        <f>(pdbkonstan!M11-pdbkonstan!L11)</f>
+        <v>19183.5</v>
+      </c>
+      <c r="N11">
+        <f>(pdbkonstan!N11-pdbkonstan!M11)</f>
+        <v>37964</v>
+      </c>
+      <c r="O11">
+        <f>(pdbkonstan!O11-pdbkonstan!N11)</f>
+        <v>36333.29999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f>(pdbkonstan!C12-pdbkonstan!B12)</f>
+        <v>-152.59999999999127</v>
+      </c>
+      <c r="D12">
+        <f>(pdbkonstan!D12-pdbkonstan!C12)</f>
+        <v>5914.5999999999913</v>
+      </c>
+      <c r="E12">
+        <f>(pdbkonstan!E12-pdbkonstan!D12)</f>
+        <v>-197.39999999999418</v>
+      </c>
+      <c r="F12">
+        <f>(pdbkonstan!F12-pdbkonstan!E12)</f>
+        <v>6064.6999999999971</v>
+      </c>
+      <c r="G12">
+        <f>(pdbkonstan!G12-pdbkonstan!F12)</f>
+        <v>4920</v>
+      </c>
+      <c r="H12">
+        <f>(pdbkonstan!H12-pdbkonstan!G12)</f>
+        <v>1321</v>
+      </c>
+      <c r="I12">
+        <f>(pdbkonstan!I12-pdbkonstan!H12)</f>
+        <v>-547.30000000000291</v>
+      </c>
+      <c r="J12">
+        <f>(pdbkonstan!J12-pdbkonstan!I12)</f>
+        <v>2976.3000000000029</v>
+      </c>
+      <c r="K12">
+        <f>(pdbkonstan!K12-pdbkonstan!J12)</f>
+        <v>2938</v>
+      </c>
+      <c r="L12">
+        <f>(pdbkonstan!L12-pdbkonstan!K12)</f>
+        <v>-5229.1999999999971</v>
+      </c>
+      <c r="M12">
+        <f>(pdbkonstan!M12-pdbkonstan!L12)</f>
+        <v>-1124.1999999999971</v>
+      </c>
+      <c r="N12">
+        <f>(pdbkonstan!N12-pdbkonstan!M12)</f>
+        <v>-1965.6000000000058</v>
+      </c>
+      <c r="O12">
+        <f>(pdbkonstan!O12-pdbkonstan!N12)</f>
+        <v>3943.9000000000087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>(pdbkonstan!C13-pdbkonstan!B13)</f>
+        <v>6254.2000000000116</v>
+      </c>
+      <c r="D13">
+        <f>(pdbkonstan!D13-pdbkonstan!C13)</f>
+        <v>6192.5</v>
+      </c>
+      <c r="E13">
+        <f>(pdbkonstan!E13-pdbkonstan!D13)</f>
+        <v>7159.5</v>
+      </c>
+      <c r="F13">
+        <f>(pdbkonstan!F13-pdbkonstan!E13)</f>
+        <v>1810.2999999999884</v>
+      </c>
+      <c r="G13">
+        <f>(pdbkonstan!G13-pdbkonstan!F13)</f>
+        <v>-5644.5</v>
+      </c>
+      <c r="H13">
+        <f>(pdbkonstan!H13-pdbkonstan!G13)</f>
+        <v>-100.69999999999709</v>
+      </c>
+      <c r="I13">
+        <f>(pdbkonstan!I13-pdbkonstan!H13)</f>
+        <v>4283.4000000000087</v>
+      </c>
+      <c r="J13">
+        <f>(pdbkonstan!J13-pdbkonstan!I13)</f>
+        <v>10145.199999999997</v>
+      </c>
+      <c r="K13">
+        <f>(pdbkonstan!K13-pdbkonstan!J13)</f>
+        <v>19397.800000000003</v>
+      </c>
+      <c r="L13">
+        <f>(pdbkonstan!L13-pdbkonstan!K13)</f>
+        <v>-12953.600000000006</v>
+      </c>
+      <c r="M13">
+        <f>(pdbkonstan!M13-pdbkonstan!L13)</f>
+        <v>-5421.8999999999942</v>
+      </c>
+      <c r="N13">
+        <f>(pdbkonstan!N13-pdbkonstan!M13)</f>
+        <v>11897.399999999994</v>
+      </c>
+      <c r="O13">
+        <f>(pdbkonstan!O13-pdbkonstan!N13)</f>
+        <v>-2757.7999999999884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>(pdbkonstan!C14-pdbkonstan!B14)</f>
+        <v>2155.0999999999985</v>
+      </c>
+      <c r="D14">
+        <f>(pdbkonstan!D14-pdbkonstan!C14)</f>
+        <v>-1187</v>
+      </c>
+      <c r="E14">
+        <f>(pdbkonstan!E14-pdbkonstan!D14)</f>
+        <v>1080.4000000000015</v>
+      </c>
+      <c r="F14">
+        <f>(pdbkonstan!F14-pdbkonstan!E14)</f>
+        <v>1222</v>
+      </c>
+      <c r="G14">
+        <f>(pdbkonstan!G14-pdbkonstan!F14)</f>
+        <v>911.5</v>
+      </c>
+      <c r="H14">
+        <f>(pdbkonstan!H14-pdbkonstan!G14)</f>
+        <v>1996.0999999999985</v>
+      </c>
+      <c r="I14">
+        <f>(pdbkonstan!I14-pdbkonstan!H14)</f>
+        <v>573.70000000000073</v>
+      </c>
+      <c r="J14">
+        <f>(pdbkonstan!J14-pdbkonstan!I14)</f>
+        <v>2492.7000000000007</v>
+      </c>
+      <c r="K14">
+        <f>(pdbkonstan!K14-pdbkonstan!J14)</f>
+        <v>-287.60000000000218</v>
+      </c>
+      <c r="L14">
+        <f>(pdbkonstan!L14-pdbkonstan!K14)</f>
+        <v>-2511.5</v>
+      </c>
+      <c r="M14">
+        <f>(pdbkonstan!M14-pdbkonstan!L14)</f>
+        <v>2026.7000000000007</v>
+      </c>
+      <c r="N14">
+        <f>(pdbkonstan!N14-pdbkonstan!M14)</f>
+        <v>2635.7000000000007</v>
+      </c>
+      <c r="O14">
+        <f>(pdbkonstan!O14-pdbkonstan!N14)</f>
+        <v>-103.90000000000146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f>(pdbkonstan!C15-pdbkonstan!B15)</f>
+        <v>-1544.1999999999971</v>
+      </c>
+      <c r="D15">
+        <f>(pdbkonstan!D15-pdbkonstan!C15)</f>
+        <v>-444</v>
+      </c>
+      <c r="E15">
+        <f>(pdbkonstan!E15-pdbkonstan!D15)</f>
+        <v>3393.6999999999971</v>
+      </c>
+      <c r="F15">
+        <f>(pdbkonstan!F15-pdbkonstan!E15)</f>
+        <v>3561.9000000000015</v>
+      </c>
+      <c r="G15">
+        <f>(pdbkonstan!G15-pdbkonstan!F15)</f>
+        <v>-1007.0999999999985</v>
+      </c>
+      <c r="H15">
+        <f>(pdbkonstan!H15-pdbkonstan!G15)</f>
+        <v>1055.1999999999971</v>
+      </c>
+      <c r="I15">
+        <f>(pdbkonstan!I15-pdbkonstan!H15)</f>
+        <v>79.80000000000291</v>
+      </c>
+      <c r="J15">
+        <f>(pdbkonstan!J15-pdbkonstan!I15)</f>
+        <v>466.90000000000146</v>
+      </c>
+      <c r="K15">
+        <f>(pdbkonstan!K15-pdbkonstan!J15)</f>
+        <v>-2839</v>
+      </c>
+      <c r="L15">
+        <f>(pdbkonstan!L15-pdbkonstan!K15)</f>
+        <v>-1286.2000000000044</v>
+      </c>
+      <c r="M15">
+        <f>(pdbkonstan!M15-pdbkonstan!L15)</f>
+        <v>-2161.1999999999971</v>
+      </c>
+      <c r="N15">
+        <f>(pdbkonstan!N15-pdbkonstan!M15)</f>
+        <v>330.90000000000146</v>
+      </c>
+      <c r="O15">
+        <f>(pdbkonstan!O15-pdbkonstan!N15)</f>
+        <v>674.19999999999709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f>(pdbkonstan!C16-pdbkonstan!B16)</f>
+        <v>2646.8000000000029</v>
+      </c>
+      <c r="D16">
+        <f>(pdbkonstan!D16-pdbkonstan!C16)</f>
+        <v>-2041.2000000000116</v>
+      </c>
+      <c r="E16">
+        <f>(pdbkonstan!E16-pdbkonstan!D16)</f>
+        <v>-361</v>
+      </c>
+      <c r="F16">
+        <f>(pdbkonstan!F16-pdbkonstan!E16)</f>
+        <v>2440.7000000000116</v>
+      </c>
+      <c r="G16">
+        <f>(pdbkonstan!G16-pdbkonstan!F16)</f>
+        <v>-113.30000000000291</v>
+      </c>
+      <c r="H16">
+        <f>(pdbkonstan!H16-pdbkonstan!G16)</f>
+        <v>1843.0999999999913</v>
+      </c>
+      <c r="I16">
+        <f>(pdbkonstan!I16-pdbkonstan!H16)</f>
+        <v>240.70000000001164</v>
+      </c>
+      <c r="J16">
+        <f>(pdbkonstan!J16-pdbkonstan!I16)</f>
+        <v>1041</v>
+      </c>
+      <c r="K16">
+        <f>(pdbkonstan!K16-pdbkonstan!J16)</f>
+        <v>6529.3999999999942</v>
+      </c>
+      <c r="L16">
+        <f>(pdbkonstan!L16-pdbkonstan!K16)</f>
+        <v>174.30000000000291</v>
+      </c>
+      <c r="M16">
+        <f>(pdbkonstan!M16-pdbkonstan!L16)</f>
+        <v>-2324.1000000000058</v>
+      </c>
+      <c r="N16">
+        <f>(pdbkonstan!N16-pdbkonstan!M16)</f>
+        <v>2913.3000000000029</v>
+      </c>
+      <c r="O16">
+        <f>(pdbkonstan!O16-pdbkonstan!N16)</f>
+        <v>3662.6000000000058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>(pdbkonstan!C17-pdbkonstan!B17)</f>
+        <v>9898.3000000000029</v>
+      </c>
+      <c r="D17">
+        <f>(pdbkonstan!D17-pdbkonstan!C17)</f>
+        <v>15871.099999999991</v>
+      </c>
+      <c r="E17">
+        <f>(pdbkonstan!E17-pdbkonstan!D17)</f>
+        <v>7146.8000000000175</v>
+      </c>
+      <c r="F17">
+        <f>(pdbkonstan!F17-pdbkonstan!E17)</f>
+        <v>5943.2999999999884</v>
+      </c>
+      <c r="G17">
+        <f>(pdbkonstan!G17-pdbkonstan!F17)</f>
+        <v>11651.100000000006</v>
+      </c>
+      <c r="H17">
+        <f>(pdbkonstan!H17-pdbkonstan!G17)</f>
+        <v>9626.7999999999884</v>
+      </c>
+      <c r="I17">
+        <f>(pdbkonstan!I17-pdbkonstan!H17)</f>
+        <v>7910.4000000000233</v>
+      </c>
+      <c r="J17">
+        <f>(pdbkonstan!J17-pdbkonstan!I17)</f>
+        <v>-2588.3000000000175</v>
+      </c>
+      <c r="K17">
+        <f>(pdbkonstan!K17-pdbkonstan!J17)</f>
+        <v>15249</v>
+      </c>
+      <c r="L17">
+        <f>(pdbkonstan!L17-pdbkonstan!K17)</f>
+        <v>18319.600000000006</v>
+      </c>
+      <c r="M17">
+        <f>(pdbkonstan!M17-pdbkonstan!L17)</f>
+        <v>20505.5</v>
+      </c>
+      <c r="N17">
+        <f>(pdbkonstan!N17-pdbkonstan!M17)</f>
+        <v>1609.2999999999884</v>
+      </c>
+      <c r="O17">
+        <f>(pdbkonstan!O17-pdbkonstan!N17)</f>
+        <v>247.90000000002328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>(pdbkonstan!C18-pdbkonstan!B18)</f>
+        <v>1389.6000000000058</v>
+      </c>
+      <c r="D18">
+        <f>(pdbkonstan!D18-pdbkonstan!C18)</f>
+        <v>5154.7999999999884</v>
+      </c>
+      <c r="E18">
+        <f>(pdbkonstan!E18-pdbkonstan!D18)</f>
+        <v>-1361.6999999999971</v>
+      </c>
+      <c r="F18">
+        <f>(pdbkonstan!F18-pdbkonstan!E18)</f>
+        <v>831.60000000000582</v>
+      </c>
+      <c r="G18">
+        <f>(pdbkonstan!G18-pdbkonstan!F18)</f>
+        <v>3664.8000000000029</v>
+      </c>
+      <c r="H18">
+        <f>(pdbkonstan!H18-pdbkonstan!G18)</f>
+        <v>-6501.2000000000116</v>
+      </c>
+      <c r="I18">
+        <f>(pdbkonstan!I18-pdbkonstan!H18)</f>
+        <v>1725.9000000000087</v>
+      </c>
+      <c r="J18">
+        <f>(pdbkonstan!J18-pdbkonstan!I18)</f>
+        <v>4961</v>
+      </c>
+      <c r="K18">
+        <f>(pdbkonstan!K18-pdbkonstan!J18)</f>
+        <v>-4229</v>
+      </c>
+      <c r="L18">
+        <f>(pdbkonstan!L18-pdbkonstan!K18)</f>
+        <v>-4061.1000000000058</v>
+      </c>
+      <c r="M18">
+        <f>(pdbkonstan!M18-pdbkonstan!L18)</f>
+        <v>735.10000000000582</v>
+      </c>
+      <c r="N18">
+        <f>(pdbkonstan!N18-pdbkonstan!M18)</f>
+        <v>-2830.1999999999971</v>
+      </c>
+      <c r="O18">
+        <f>(pdbkonstan!O18-pdbkonstan!N18)</f>
+        <v>-2405.0000000000073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f>(pdbkonstan!C19-pdbkonstan!B19)</f>
+        <v>3961.5</v>
+      </c>
+      <c r="D19">
+        <f>(pdbkonstan!D19-pdbkonstan!C19)</f>
+        <v>4342.5999999999985</v>
+      </c>
+      <c r="E19">
+        <f>(pdbkonstan!E19-pdbkonstan!D19)</f>
+        <v>1976.2999999999956</v>
+      </c>
+      <c r="F19">
+        <f>(pdbkonstan!F19-pdbkonstan!E19)</f>
+        <v>1478.1000000000058</v>
+      </c>
+      <c r="G19">
+        <f>(pdbkonstan!G19-pdbkonstan!F19)</f>
+        <v>3778.3999999999942</v>
+      </c>
+      <c r="H19">
+        <f>(pdbkonstan!H19-pdbkonstan!G19)</f>
+        <v>3633.5</v>
+      </c>
+      <c r="I19">
+        <f>(pdbkonstan!I19-pdbkonstan!H19)</f>
+        <v>-605.80000000000291</v>
+      </c>
+      <c r="J19">
+        <f>(pdbkonstan!J19-pdbkonstan!I19)</f>
+        <v>1911.5</v>
+      </c>
+      <c r="K19">
+        <f>(pdbkonstan!K19-pdbkonstan!J19)</f>
+        <v>-733.69999999999709</v>
+      </c>
+      <c r="L19">
+        <f>(pdbkonstan!L19-pdbkonstan!K19)</f>
+        <v>-6451.5</v>
+      </c>
+      <c r="M19">
+        <f>(pdbkonstan!M19-pdbkonstan!L19)</f>
+        <v>572.80000000000291</v>
+      </c>
+      <c r="N19">
+        <f>(pdbkonstan!N19-pdbkonstan!M19)</f>
+        <v>-1297.3000000000029</v>
+      </c>
+      <c r="O19">
+        <f>(pdbkonstan!O19-pdbkonstan!N19)</f>
+        <v>2610.9000000000087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f>(pdbkonstan!C20-pdbkonstan!B20)</f>
+        <v>7388.1999999999971</v>
+      </c>
+      <c r="D20">
+        <f>(pdbkonstan!D20-pdbkonstan!C20)</f>
+        <v>-971</v>
+      </c>
+      <c r="E20">
+        <f>(pdbkonstan!E20-pdbkonstan!D20)</f>
+        <v>7083.6999999999971</v>
+      </c>
+      <c r="F20">
+        <f>(pdbkonstan!F20-pdbkonstan!E20)</f>
+        <v>4086.7000000000116</v>
+      </c>
+      <c r="G20">
+        <f>(pdbkonstan!G20-pdbkonstan!F20)</f>
+        <v>4473</v>
+      </c>
+      <c r="H20">
+        <f>(pdbkonstan!H20-pdbkonstan!G20)</f>
+        <v>760.89999999999418</v>
+      </c>
+      <c r="I20">
+        <f>(pdbkonstan!I20-pdbkonstan!H20)</f>
+        <v>4539.6000000000058</v>
+      </c>
+      <c r="J20">
+        <f>(pdbkonstan!J20-pdbkonstan!I20)</f>
+        <v>7356</v>
+      </c>
+      <c r="K20">
+        <f>(pdbkonstan!K20-pdbkonstan!J20)</f>
+        <v>2528.2999999999884</v>
+      </c>
+      <c r="L20">
+        <f>(pdbkonstan!L20-pdbkonstan!K20)</f>
+        <v>5382.6000000000058</v>
+      </c>
+      <c r="M20">
+        <f>(pdbkonstan!M20-pdbkonstan!L20)</f>
+        <v>11167.800000000003</v>
+      </c>
+      <c r="N20">
+        <f>(pdbkonstan!N20-pdbkonstan!M20)</f>
+        <v>16022.399999999994</v>
+      </c>
+      <c r="O20">
+        <f>(pdbkonstan!O20-pdbkonstan!N20)</f>
+        <v>17606.300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f>(pdbkonstan!C21-pdbkonstan!B21)</f>
+        <v>11494.5</v>
+      </c>
+      <c r="D21">
+        <f>(pdbkonstan!D21-pdbkonstan!C21)</f>
+        <v>16558.5</v>
+      </c>
+      <c r="E21">
+        <f>(pdbkonstan!E21-pdbkonstan!D21)</f>
+        <v>14648.899999999994</v>
+      </c>
+      <c r="F21">
+        <f>(pdbkonstan!F21-pdbkonstan!E21)</f>
+        <v>5091.8000000000175</v>
+      </c>
+      <c r="G21">
+        <f>(pdbkonstan!G21-pdbkonstan!F21)</f>
+        <v>13983.799999999988</v>
+      </c>
+      <c r="H21">
+        <f>(pdbkonstan!H21-pdbkonstan!G21)</f>
+        <v>8332.8999999999942</v>
+      </c>
+      <c r="I21">
+        <f>(pdbkonstan!I21-pdbkonstan!H21)</f>
+        <v>5608.3999999999942</v>
+      </c>
+      <c r="J21">
+        <f>(pdbkonstan!J21-pdbkonstan!I21)</f>
+        <v>-1252.5</v>
+      </c>
+      <c r="K21">
+        <f>(pdbkonstan!K21-pdbkonstan!J21)</f>
+        <v>-1044.2999999999884</v>
+      </c>
+      <c r="L21">
+        <f>(pdbkonstan!L21-pdbkonstan!K21)</f>
+        <v>-11145.899999999994</v>
+      </c>
+      <c r="M21">
+        <f>(pdbkonstan!M21-pdbkonstan!L21)</f>
+        <v>-3136.6000000000058</v>
+      </c>
+      <c r="N21">
+        <f>(pdbkonstan!N21-pdbkonstan!M21)</f>
+        <v>12747.899999999994</v>
+      </c>
+      <c r="O21">
+        <f>(pdbkonstan!O21-pdbkonstan!N21)</f>
+        <v>27694.399999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>(pdbkonstan!C22-pdbkonstan!B22)</f>
+        <v>2027.2999999999993</v>
+      </c>
+      <c r="D22">
+        <f>(pdbkonstan!D22-pdbkonstan!C22)</f>
+        <v>-357.79999999999927</v>
+      </c>
+      <c r="E22">
+        <f>(pdbkonstan!E22-pdbkonstan!D22)</f>
+        <v>-1272.9000000000015</v>
+      </c>
+      <c r="F22">
+        <f>(pdbkonstan!F22-pdbkonstan!E22)</f>
+        <v>2095.9000000000015</v>
+      </c>
+      <c r="G22">
+        <f>(pdbkonstan!G22-pdbkonstan!F22)</f>
+        <v>1990.7999999999993</v>
+      </c>
+      <c r="H22">
+        <f>(pdbkonstan!H22-pdbkonstan!G22)</f>
+        <v>1426.0999999999985</v>
+      </c>
+      <c r="I22">
+        <f>(pdbkonstan!I22-pdbkonstan!H22)</f>
+        <v>1648.4000000000015</v>
+      </c>
+      <c r="J22">
+        <f>(pdbkonstan!J22-pdbkonstan!I22)</f>
+        <v>2972.3000000000029</v>
+      </c>
+      <c r="K22">
+        <f>(pdbkonstan!K22-pdbkonstan!J22)</f>
+        <v>-1416.3000000000029</v>
+      </c>
+      <c r="L22">
+        <f>(pdbkonstan!L22-pdbkonstan!K22)</f>
+        <v>-3344.5999999999985</v>
+      </c>
+      <c r="M22">
+        <f>(pdbkonstan!M22-pdbkonstan!L22)</f>
+        <v>3374.6999999999971</v>
+      </c>
+      <c r="N22">
+        <f>(pdbkonstan!N22-pdbkonstan!M22)</f>
+        <v>3741.2000000000044</v>
+      </c>
+      <c r="O22">
+        <f>(pdbkonstan!O22-pdbkonstan!N22)</f>
+        <v>-12.400000000001455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>(pdbkonstan!C23-pdbkonstan!B23)</f>
+        <v>8555</v>
+      </c>
+      <c r="D23">
+        <f>(pdbkonstan!D23-pdbkonstan!C23)</f>
+        <v>6090.1999999999825</v>
+      </c>
+      <c r="E23">
+        <f>(pdbkonstan!E23-pdbkonstan!D23)</f>
+        <v>22260.100000000006</v>
+      </c>
+      <c r="F23">
+        <f>(pdbkonstan!F23-pdbkonstan!E23)</f>
+        <v>6857</v>
+      </c>
+      <c r="G23">
+        <f>(pdbkonstan!G23-pdbkonstan!F23)</f>
+        <v>4266.6000000000058</v>
+      </c>
+      <c r="H23">
+        <f>(pdbkonstan!H23-pdbkonstan!G23)</f>
+        <v>8234.2999999999884</v>
+      </c>
+      <c r="I23">
+        <f>(pdbkonstan!I23-pdbkonstan!H23)</f>
+        <v>7004.5</v>
+      </c>
+      <c r="J23">
+        <f>(pdbkonstan!J23-pdbkonstan!I23)</f>
+        <v>8379.3000000000175</v>
+      </c>
+      <c r="K23">
+        <f>(pdbkonstan!K23-pdbkonstan!J23)</f>
+        <v>-7053.3000000000175</v>
+      </c>
+      <c r="L23">
+        <f>(pdbkonstan!L23-pdbkonstan!K23)</f>
+        <v>-39494.899999999994</v>
+      </c>
+      <c r="M23">
+        <f>(pdbkonstan!M23-pdbkonstan!L23)</f>
+        <v>28391.700000000012</v>
+      </c>
+      <c r="N23">
+        <f>(pdbkonstan!N23-pdbkonstan!M23)</f>
+        <v>20042.099999999977</v>
+      </c>
+      <c r="O23">
+        <f>(pdbkonstan!O23-pdbkonstan!N23)</f>
+        <v>15851.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f>(pdbkonstan!C24-pdbkonstan!B24)</f>
+        <v>1992.5</v>
+      </c>
+      <c r="D24">
+        <f>(pdbkonstan!D24-pdbkonstan!C24)</f>
+        <v>-473.29999999999927</v>
+      </c>
+      <c r="E24">
+        <f>(pdbkonstan!E24-pdbkonstan!D24)</f>
+        <v>786.90000000000146</v>
+      </c>
+      <c r="F24">
+        <f>(pdbkonstan!F24-pdbkonstan!E24)</f>
+        <v>804.5</v>
+      </c>
+      <c r="G24">
+        <f>(pdbkonstan!G24-pdbkonstan!F24)</f>
+        <v>1197.5</v>
+      </c>
+      <c r="H24">
+        <f>(pdbkonstan!H24-pdbkonstan!G24)</f>
+        <v>112.39999999999782</v>
+      </c>
+      <c r="I24">
+        <f>(pdbkonstan!I24-pdbkonstan!H24)</f>
+        <v>893.90000000000146</v>
+      </c>
+      <c r="J24">
+        <f>(pdbkonstan!J24-pdbkonstan!I24)</f>
+        <v>562.29999999999927</v>
+      </c>
+      <c r="K24">
+        <f>(pdbkonstan!K24-pdbkonstan!J24)</f>
+        <v>2167</v>
+      </c>
+      <c r="L24">
+        <f>(pdbkonstan!L24-pdbkonstan!K24)</f>
+        <v>-945.5</v>
+      </c>
+      <c r="M24">
+        <f>(pdbkonstan!M24-pdbkonstan!L24)</f>
+        <v>2218.2000000000007</v>
+      </c>
+      <c r="N24">
+        <f>(pdbkonstan!N24-pdbkonstan!M24)</f>
+        <v>-585</v>
+      </c>
+      <c r="O24">
+        <f>(pdbkonstan!O24-pdbkonstan!N24)</f>
+        <v>-588.40000000000146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f>(pdbkonstan!C25-pdbkonstan!B25)</f>
+        <v>-165.30000000000109</v>
+      </c>
+      <c r="D25">
+        <f>(pdbkonstan!D25-pdbkonstan!C25)</f>
+        <v>-57</v>
+      </c>
+      <c r="E25">
+        <f>(pdbkonstan!E25-pdbkonstan!D25)</f>
+        <v>-103.69999999999891</v>
+      </c>
+      <c r="F25">
+        <f>(pdbkonstan!F25-pdbkonstan!E25)</f>
+        <v>1132.1999999999989</v>
+      </c>
+      <c r="G25">
+        <f>(pdbkonstan!G25-pdbkonstan!F25)</f>
+        <v>742.50000000000182</v>
+      </c>
+      <c r="H25">
+        <f>(pdbkonstan!H25-pdbkonstan!G25)</f>
+        <v>-506.70000000000073</v>
+      </c>
+      <c r="I25">
+        <f>(pdbkonstan!I25-pdbkonstan!H25)</f>
+        <v>-271.80000000000109</v>
+      </c>
+      <c r="J25">
+        <f>(pdbkonstan!J25-pdbkonstan!I25)</f>
+        <v>-131.89999999999964</v>
+      </c>
+      <c r="K25">
+        <f>(pdbkonstan!K25-pdbkonstan!J25)</f>
+        <v>814.70000000000073</v>
+      </c>
+      <c r="L25">
+        <f>(pdbkonstan!L25-pdbkonstan!K25)</f>
+        <v>-145.90000000000146</v>
+      </c>
+      <c r="M25">
+        <f>(pdbkonstan!M25-pdbkonstan!L25)</f>
+        <v>-269.79999999999927</v>
+      </c>
+      <c r="N25">
+        <f>(pdbkonstan!N25-pdbkonstan!M25)</f>
+        <v>982.29999999999927</v>
+      </c>
+      <c r="O25">
+        <f>(pdbkonstan!O25-pdbkonstan!N25)</f>
+        <v>-360.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f>(pdbkonstan!C26-pdbkonstan!B26)</f>
+        <v>4129</v>
+      </c>
+      <c r="D26">
+        <f>(pdbkonstan!D26-pdbkonstan!C26)</f>
+        <v>7714.8999999999942</v>
+      </c>
+      <c r="E26">
+        <f>(pdbkonstan!E26-pdbkonstan!D26)</f>
+        <v>4412.1000000000058</v>
+      </c>
+      <c r="F26">
+        <f>(pdbkonstan!F26-pdbkonstan!E26)</f>
+        <v>5242.0999999999913</v>
+      </c>
+      <c r="G26">
+        <f>(pdbkonstan!G26-pdbkonstan!F26)</f>
+        <v>847.60000000000582</v>
+      </c>
+      <c r="H26">
+        <f>(pdbkonstan!H26-pdbkonstan!G26)</f>
+        <v>5115.0999999999913</v>
+      </c>
+      <c r="I26">
+        <f>(pdbkonstan!I26-pdbkonstan!H26)</f>
+        <v>1541.4000000000087</v>
+      </c>
+      <c r="J26">
+        <f>(pdbkonstan!J26-pdbkonstan!I26)</f>
+        <v>5557.3000000000029</v>
+      </c>
+      <c r="K26">
+        <f>(pdbkonstan!K26-pdbkonstan!J26)</f>
+        <v>4328.0999999999913</v>
+      </c>
+      <c r="L26">
+        <f>(pdbkonstan!L26-pdbkonstan!K26)</f>
+        <v>-2610.3000000000029</v>
+      </c>
+      <c r="M26">
+        <f>(pdbkonstan!M26-pdbkonstan!L26)</f>
+        <v>6034.7000000000116</v>
+      </c>
+      <c r="N26">
+        <f>(pdbkonstan!N26-pdbkonstan!M26)</f>
+        <v>7590.7999999999884</v>
+      </c>
+      <c r="O26">
+        <f>(pdbkonstan!O26-pdbkonstan!N26)</f>
+        <v>6008.6000000000058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f>(pdbkonstan!C27-pdbkonstan!B27)</f>
+        <v>276.60000000000036</v>
+      </c>
+      <c r="D27">
+        <f>(pdbkonstan!D27-pdbkonstan!C27)</f>
+        <v>204.69999999999982</v>
+      </c>
+      <c r="E27">
+        <f>(pdbkonstan!E27-pdbkonstan!D27)</f>
+        <v>210.09999999999945</v>
+      </c>
+      <c r="F27">
+        <f>(pdbkonstan!F27-pdbkonstan!E27)</f>
+        <v>342.60000000000036</v>
+      </c>
+      <c r="G27">
+        <f>(pdbkonstan!G27-pdbkonstan!F27)</f>
+        <v>486.5</v>
+      </c>
+      <c r="H27">
+        <f>(pdbkonstan!H27-pdbkonstan!G27)</f>
+        <v>265.60000000000036</v>
+      </c>
+      <c r="I27">
+        <f>(pdbkonstan!I27-pdbkonstan!H27)</f>
+        <v>350.69999999999982</v>
+      </c>
+      <c r="J27">
+        <f>(pdbkonstan!J27-pdbkonstan!I27)</f>
+        <v>444.09999999999945</v>
+      </c>
+      <c r="K27">
+        <f>(pdbkonstan!K27-pdbkonstan!J27)</f>
+        <v>575.5</v>
+      </c>
+      <c r="L27">
+        <f>(pdbkonstan!L27-pdbkonstan!K27)</f>
+        <v>444.39999999999964</v>
+      </c>
+      <c r="M27">
+        <f>(pdbkonstan!M27-pdbkonstan!L27)</f>
+        <v>470</v>
+      </c>
+      <c r="N27">
+        <f>(pdbkonstan!N27-pdbkonstan!M27)</f>
+        <v>320.80000000000109</v>
+      </c>
+      <c r="O27">
+        <f>(pdbkonstan!O27-pdbkonstan!N27)</f>
+        <v>501.29999999999927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f>(pdbkonstan!C28-pdbkonstan!B28)</f>
+        <v>56516.5</v>
+      </c>
+      <c r="D28">
+        <f>(pdbkonstan!D28-pdbkonstan!C28)</f>
+        <v>44804.5</v>
+      </c>
+      <c r="E28">
+        <f>(pdbkonstan!E28-pdbkonstan!D28)</f>
+        <v>44493.199999999953</v>
+      </c>
+      <c r="F28">
+        <f>(pdbkonstan!F28-pdbkonstan!E28)</f>
+        <v>53896</v>
+      </c>
+      <c r="G28">
+        <f>(pdbkonstan!G28-pdbkonstan!F28)</f>
+        <v>52548.300000000047</v>
+      </c>
+      <c r="H28">
+        <f>(pdbkonstan!H28-pdbkonstan!G28)</f>
+        <v>45876.400000000023</v>
+      </c>
+      <c r="I28">
+        <f>(pdbkonstan!I28-pdbkonstan!H28)</f>
+        <v>62884.599999999977</v>
+      </c>
+      <c r="J28">
+        <f>(pdbkonstan!J28-pdbkonstan!I28)</f>
+        <v>60157.900000000023</v>
+      </c>
+      <c r="K28">
+        <f>(pdbkonstan!K28-pdbkonstan!J28)</f>
+        <v>60342.199999999953</v>
+      </c>
+      <c r="L28">
+        <f>(pdbkonstan!L28-pdbkonstan!K28)</f>
+        <v>-36090.199999999953</v>
+      </c>
+      <c r="M28">
+        <f>(pdbkonstan!M28-pdbkonstan!L28)</f>
+        <v>30182.899999999907</v>
+      </c>
+      <c r="N28">
+        <f>(pdbkonstan!N28-pdbkonstan!M28)</f>
+        <v>22207.5</v>
+      </c>
+      <c r="O28">
+        <f>(pdbkonstan!O28-pdbkonstan!N28)</f>
+        <v>55264.100000000093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f>(pdbkonstan!C29-pdbkonstan!B29)</f>
+        <v>8737.2000000000116</v>
+      </c>
+      <c r="D29">
+        <f>(pdbkonstan!D29-pdbkonstan!C29)</f>
+        <v>12553.199999999983</v>
+      </c>
+      <c r="E29">
+        <f>(pdbkonstan!E29-pdbkonstan!D29)</f>
+        <v>14860.200000000012</v>
+      </c>
+      <c r="F29">
+        <f>(pdbkonstan!F29-pdbkonstan!E29)</f>
+        <v>10937.299999999988</v>
+      </c>
+      <c r="G29">
+        <f>(pdbkonstan!G29-pdbkonstan!F29)</f>
+        <v>739.10000000000582</v>
+      </c>
+      <c r="H29">
+        <f>(pdbkonstan!H29-pdbkonstan!G29)</f>
+        <v>9121.7999999999884</v>
+      </c>
+      <c r="I29">
+        <f>(pdbkonstan!I29-pdbkonstan!H29)</f>
+        <v>11353.300000000017</v>
+      </c>
+      <c r="J29">
+        <f>(pdbkonstan!J29-pdbkonstan!I29)</f>
+        <v>12135.899999999994</v>
+      </c>
+      <c r="K29">
+        <f>(pdbkonstan!K29-pdbkonstan!J29)</f>
+        <v>9771.2000000000116</v>
+      </c>
+      <c r="L29">
+        <f>(pdbkonstan!L29-pdbkonstan!K29)</f>
+        <v>-38429.400000000023</v>
+      </c>
+      <c r="M29">
+        <f>(pdbkonstan!M29-pdbkonstan!L29)</f>
+        <v>28372.600000000035</v>
+      </c>
+      <c r="N29">
+        <f>(pdbkonstan!N29-pdbkonstan!M29)</f>
+        <v>15519.399999999965</v>
+      </c>
+      <c r="O29">
+        <f>(pdbkonstan!O29-pdbkonstan!N29)</f>
+        <v>12499.100000000035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f>(pdbkonstan!C30-pdbkonstan!B30)</f>
+        <v>80538.599999999977</v>
+      </c>
+      <c r="D30">
+        <f>(pdbkonstan!D30-pdbkonstan!C30)</f>
+        <v>42158.699999999953</v>
+      </c>
+      <c r="E30">
+        <f>(pdbkonstan!E30-pdbkonstan!D30)</f>
+        <v>36500.400000000023</v>
+      </c>
+      <c r="F30">
+        <f>(pdbkonstan!F30-pdbkonstan!E30)</f>
+        <v>47088.099999999977</v>
+      </c>
+      <c r="G30">
+        <f>(pdbkonstan!G30-pdbkonstan!F30)</f>
+        <v>29127.900000000023</v>
+      </c>
+      <c r="H30">
+        <f>(pdbkonstan!H30-pdbkonstan!G30)</f>
+        <v>39474.5</v>
+      </c>
+      <c r="I30">
+        <f>(pdbkonstan!I30-pdbkonstan!H30)</f>
+        <v>44632.399999999907</v>
+      </c>
+      <c r="J30">
+        <f>(pdbkonstan!J30-pdbkonstan!I30)</f>
+        <v>52996.300000000047</v>
+      </c>
+      <c r="K30">
+        <f>(pdbkonstan!K30-pdbkonstan!J30)</f>
+        <v>53535.800000000047</v>
+      </c>
+      <c r="L30">
+        <f>(pdbkonstan!L30-pdbkonstan!K30)</f>
+        <v>-16105.100000000093</v>
+      </c>
+      <c r="M30">
+        <f>(pdbkonstan!M30-pdbkonstan!L30)</f>
+        <v>35807.600000000093</v>
+      </c>
+      <c r="N30">
+        <f>(pdbkonstan!N30-pdbkonstan!M30)</f>
+        <v>64601</v>
+      </c>
+      <c r="O30">
+        <f>(pdbkonstan!O30-pdbkonstan!N30)</f>
+        <v>61663.100000000093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f>(pdbkonstan!C31-pdbkonstan!B31)</f>
+        <v>20398.600000000006</v>
+      </c>
+      <c r="D31">
+        <f>(pdbkonstan!D31-pdbkonstan!C31)</f>
+        <v>18888.599999999977</v>
+      </c>
+      <c r="E31">
+        <f>(pdbkonstan!E31-pdbkonstan!D31)</f>
+        <v>19843.600000000035</v>
+      </c>
+      <c r="F31">
+        <f>(pdbkonstan!F31-pdbkonstan!E31)</f>
+        <v>22426.799999999988</v>
+      </c>
+      <c r="G31">
+        <f>(pdbkonstan!G31-pdbkonstan!F31)</f>
+        <v>21922.900000000023</v>
+      </c>
+      <c r="H31">
+        <f>(pdbkonstan!H31-pdbkonstan!G31)</f>
+        <v>25987.5</v>
+      </c>
+      <c r="I31">
+        <f>(pdbkonstan!I31-pdbkonstan!H31)</f>
+        <v>31836</v>
+      </c>
+      <c r="J31">
+        <f>(pdbkonstan!J31-pdbkonstan!I31)</f>
+        <v>28657.099999999977</v>
+      </c>
+      <c r="K31">
+        <f>(pdbkonstan!K31-pdbkonstan!J31)</f>
+        <v>27789.400000000023</v>
+      </c>
+      <c r="L31">
+        <f>(pdbkonstan!L31-pdbkonstan!K31)</f>
+        <v>-69707</v>
+      </c>
+      <c r="M31">
+        <f>(pdbkonstan!M31-pdbkonstan!L31)</f>
+        <v>12750.399999999965</v>
+      </c>
+      <c r="N31">
+        <f>(pdbkonstan!N31-pdbkonstan!M31)</f>
+        <v>80704.5</v>
+      </c>
+      <c r="O31">
+        <f>(pdbkonstan!O31-pdbkonstan!N31)</f>
+        <v>67981.100000000035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f>(pdbkonstan!C32-pdbkonstan!B32)</f>
+        <v>4020.5999999999985</v>
+      </c>
+      <c r="D32">
+        <f>(pdbkonstan!D32-pdbkonstan!C32)</f>
+        <v>3782.5</v>
+      </c>
+      <c r="E32">
+        <f>(pdbkonstan!E32-pdbkonstan!D32)</f>
+        <v>4132.1999999999971</v>
+      </c>
+      <c r="F32">
+        <f>(pdbkonstan!F32-pdbkonstan!E32)</f>
+        <v>3727.0999999999985</v>
+      </c>
+      <c r="G32">
+        <f>(pdbkonstan!G32-pdbkonstan!F32)</f>
+        <v>2913.6000000000058</v>
+      </c>
+      <c r="H32">
+        <f>(pdbkonstan!H32-pdbkonstan!G32)</f>
+        <v>3100.5</v>
+      </c>
+      <c r="I32">
+        <f>(pdbkonstan!I32-pdbkonstan!H32)</f>
+        <v>2953.5999999999985</v>
+      </c>
+      <c r="J32">
+        <f>(pdbkonstan!J32-pdbkonstan!I32)</f>
+        <v>2602.9000000000015</v>
+      </c>
+      <c r="K32">
+        <f>(pdbkonstan!K32-pdbkonstan!J32)</f>
+        <v>870.09999999999854</v>
+      </c>
+      <c r="L32">
+        <f>(pdbkonstan!L32-pdbkonstan!K32)</f>
+        <v>-15639.5</v>
+      </c>
+      <c r="M32">
+        <f>(pdbkonstan!M32-pdbkonstan!L32)</f>
+        <v>2782.0999999999985</v>
+      </c>
+      <c r="N32">
+        <f>(pdbkonstan!N32-pdbkonstan!M32)</f>
+        <v>15792.800000000003</v>
+      </c>
+      <c r="O32">
+        <f>(pdbkonstan!O32-pdbkonstan!N32)</f>
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f>(pdbkonstan!C33-pdbkonstan!B33)</f>
+        <v>9719.6000000000058</v>
+      </c>
+      <c r="D33">
+        <f>(pdbkonstan!D33-pdbkonstan!C33)</f>
+        <v>10428.100000000006</v>
+      </c>
+      <c r="E33">
+        <f>(pdbkonstan!E33-pdbkonstan!D33)</f>
+        <v>11383.5</v>
+      </c>
+      <c r="F33">
+        <f>(pdbkonstan!F33-pdbkonstan!E33)</f>
+        <v>10340.099999999977</v>
+      </c>
+      <c r="G33">
+        <f>(pdbkonstan!G33-pdbkonstan!F33)</f>
+        <v>8193.3000000000175</v>
+      </c>
+      <c r="H33">
+        <f>(pdbkonstan!H33-pdbkonstan!G33)</f>
+        <v>10800.5</v>
+      </c>
+      <c r="I33">
+        <f>(pdbkonstan!I33-pdbkonstan!H33)</f>
+        <v>12352.699999999983</v>
+      </c>
+      <c r="J33">
+        <f>(pdbkonstan!J33-pdbkonstan!I33)</f>
+        <v>14336</v>
+      </c>
+      <c r="K33">
+        <f>(pdbkonstan!K33-pdbkonstan!J33)</f>
+        <v>17365.900000000023</v>
+      </c>
+      <c r="L33">
+        <f>(pdbkonstan!L33-pdbkonstan!K33)</f>
+        <v>-18542.700000000012</v>
+      </c>
+      <c r="M33">
+        <f>(pdbkonstan!M33-pdbkonstan!L33)</f>
+        <v>8833.1000000000058</v>
+      </c>
+      <c r="N33">
+        <f>(pdbkonstan!N33-pdbkonstan!M33)</f>
+        <v>21324.199999999983</v>
+      </c>
+      <c r="O33">
+        <f>(pdbkonstan!O33-pdbkonstan!N33)</f>
+        <v>26097.900000000023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f>(pdbkonstan!C34-pdbkonstan!B34)</f>
+        <v>25645.699999999983</v>
+      </c>
+      <c r="D34">
+        <f>(pdbkonstan!D34-pdbkonstan!C34)</f>
+        <v>34584.900000000023</v>
+      </c>
+      <c r="E34">
+        <f>(pdbkonstan!E34-pdbkonstan!D34)</f>
+        <v>32871.399999999965</v>
+      </c>
+      <c r="F34">
+        <f>(pdbkonstan!F34-pdbkonstan!E34)</f>
+        <v>35325.5</v>
+      </c>
+      <c r="G34">
+        <f>(pdbkonstan!G34-pdbkonstan!F34)</f>
+        <v>37294.200000000012</v>
+      </c>
+      <c r="H34">
+        <f>(pdbkonstan!H34-pdbkonstan!G34)</f>
+        <v>37438.299999999988</v>
+      </c>
+      <c r="I34">
+        <f>(pdbkonstan!I34-pdbkonstan!H34)</f>
+        <v>44212.600000000035</v>
+      </c>
+      <c r="J34">
+        <f>(pdbkonstan!J34-pdbkonstan!I34)</f>
+        <v>35341.999999999942</v>
+      </c>
+      <c r="K34">
+        <f>(pdbkonstan!K34-pdbkonstan!J34)</f>
+        <v>50773.400000000023</v>
+      </c>
+      <c r="L34">
+        <f>(pdbkonstan!L34-pdbkonstan!K34)</f>
+        <v>62526.800000000047</v>
+      </c>
+      <c r="M34">
+        <f>(pdbkonstan!M34-pdbkonstan!L34)</f>
+        <v>44443.199999999953</v>
+      </c>
+      <c r="N34">
+        <f>(pdbkonstan!N34-pdbkonstan!M34)</f>
+        <v>53812.900000000023</v>
+      </c>
+      <c r="O34">
+        <f>(pdbkonstan!O34-pdbkonstan!N34)</f>
+        <v>56985.599999999977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f>(pdbkonstan!C35-pdbkonstan!B35)</f>
+        <v>16714.600000000006</v>
+      </c>
+      <c r="D35">
+        <f>(pdbkonstan!D35-pdbkonstan!C35)</f>
+        <v>24453.099999999977</v>
+      </c>
+      <c r="E35">
+        <f>(pdbkonstan!E35-pdbkonstan!D35)</f>
+        <v>24619</v>
+      </c>
+      <c r="F35">
+        <f>(pdbkonstan!F35-pdbkonstan!E35)</f>
+        <v>14310.400000000023</v>
+      </c>
+      <c r="G35">
+        <f>(pdbkonstan!G35-pdbkonstan!F35)</f>
+        <v>27443.5</v>
+      </c>
+      <c r="H35">
+        <f>(pdbkonstan!H35-pdbkonstan!G35)</f>
+        <v>31010.400000000023</v>
+      </c>
+      <c r="I35">
+        <f>(pdbkonstan!I35-pdbkonstan!H35)</f>
+        <v>20692</v>
+      </c>
+      <c r="J35">
+        <f>(pdbkonstan!J35-pdbkonstan!I35)</f>
+        <v>16649.199999999953</v>
+      </c>
+      <c r="K35">
+        <f>(pdbkonstan!K35-pdbkonstan!J35)</f>
+        <v>27472.5</v>
+      </c>
+      <c r="L35">
+        <f>(pdbkonstan!L35-pdbkonstan!K35)</f>
+        <v>14393.400000000023</v>
+      </c>
+      <c r="M35">
+        <f>(pdbkonstan!M35-pdbkonstan!L35)</f>
+        <v>7151.2000000000116</v>
+      </c>
+      <c r="N35">
+        <f>(pdbkonstan!N35-pdbkonstan!M35)</f>
+        <v>8986.0999999999767</v>
+      </c>
+      <c r="O35">
+        <f>(pdbkonstan!O35-pdbkonstan!N35)</f>
+        <v>22613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f>(pdbkonstan!C36-pdbkonstan!B36)</f>
+        <v>15227.899999999994</v>
+      </c>
+      <c r="D36">
+        <f>(pdbkonstan!D36-pdbkonstan!C36)</f>
+        <v>15812.800000000017</v>
+      </c>
+      <c r="E36">
+        <f>(pdbkonstan!E36-pdbkonstan!D36)</f>
+        <v>14983.299999999988</v>
+      </c>
+      <c r="F36">
+        <f>(pdbkonstan!F36-pdbkonstan!E36)</f>
+        <v>12202.700000000012</v>
+      </c>
+      <c r="G36">
+        <f>(pdbkonstan!G36-pdbkonstan!F36)</f>
+        <v>10539.399999999965</v>
+      </c>
+      <c r="H36">
+        <f>(pdbkonstan!H36-pdbkonstan!G36)</f>
+        <v>12520.900000000023</v>
+      </c>
+      <c r="I36">
+        <f>(pdbkonstan!I36-pdbkonstan!H36)</f>
+        <v>10068</v>
+      </c>
+      <c r="J36">
+        <f>(pdbkonstan!J36-pdbkonstan!I36)</f>
+        <v>10079.700000000012</v>
+      </c>
+      <c r="K36">
+        <f>(pdbkonstan!K36-pdbkonstan!J36)</f>
+        <v>17252.899999999965</v>
+      </c>
+      <c r="L36">
+        <f>(pdbkonstan!L36-pdbkonstan!K36)</f>
+        <v>7358.3000000000466</v>
+      </c>
+      <c r="M36">
+        <f>(pdbkonstan!M36-pdbkonstan!L36)</f>
+        <v>9023.5</v>
+      </c>
+      <c r="N36">
+        <f>(pdbkonstan!N36-pdbkonstan!M36)</f>
+        <v>5732</v>
+      </c>
+      <c r="O36">
+        <f>(pdbkonstan!O36-pdbkonstan!N36)</f>
+        <v>4849.8999999999651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f>(pdbkonstan!C37-pdbkonstan!B37)</f>
+        <v>6147.4000000000087</v>
+      </c>
+      <c r="D37">
+        <f>(pdbkonstan!D37-pdbkonstan!C37)</f>
+        <v>5788</v>
+      </c>
+      <c r="E37">
+        <f>(pdbkonstan!E37-pdbkonstan!D37)</f>
+        <v>6241.2999999999884</v>
+      </c>
+      <c r="F37">
+        <f>(pdbkonstan!F37-pdbkonstan!E37)</f>
+        <v>6735.7000000000116</v>
+      </c>
+      <c r="G37">
+        <f>(pdbkonstan!G37-pdbkonstan!F37)</f>
+        <v>6108.6999999999971</v>
+      </c>
+      <c r="H37">
+        <f>(pdbkonstan!H37-pdbkonstan!G37)</f>
+        <v>5024.3999999999942</v>
+      </c>
+      <c r="I37">
+        <f>(pdbkonstan!I37-pdbkonstan!H37)</f>
+        <v>7007.3000000000029</v>
+      </c>
+      <c r="J37">
+        <f>(pdbkonstan!J37-pdbkonstan!I37)</f>
+        <v>7824.6999999999971</v>
+      </c>
+      <c r="K37">
+        <f>(pdbkonstan!K37-pdbkonstan!J37)</f>
+        <v>10165.699999999997</v>
+      </c>
+      <c r="L37">
+        <f>(pdbkonstan!L37-pdbkonstan!K37)</f>
+        <v>14739.399999999994</v>
+      </c>
+      <c r="M37">
+        <f>(pdbkonstan!M37-pdbkonstan!L37)</f>
+        <v>14858.200000000012</v>
+      </c>
+      <c r="N37">
+        <f>(pdbkonstan!N37-pdbkonstan!M37)</f>
+        <v>4312.2999999999884</v>
+      </c>
+      <c r="O37">
+        <f>(pdbkonstan!O37-pdbkonstan!N37)</f>
+        <v>7528.4000000000233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f>(pdbkonstan!C38-pdbkonstan!B38)</f>
+        <v>16690.699999999983</v>
+      </c>
+      <c r="D38">
+        <f>(pdbkonstan!D38-pdbkonstan!C38)</f>
+        <v>5898.5</v>
+      </c>
+      <c r="E38">
+        <f>(pdbkonstan!E38-pdbkonstan!D38)</f>
+        <v>7213.6000000000349</v>
+      </c>
+      <c r="F38">
+        <f>(pdbkonstan!F38-pdbkonstan!E38)</f>
+        <v>6880.7999999999884</v>
+      </c>
+      <c r="G38">
+        <f>(pdbkonstan!G38-pdbkonstan!F38)</f>
+        <v>13724.899999999965</v>
+      </c>
+      <c r="H38">
+        <f>(pdbkonstan!H38-pdbkonstan!G38)</f>
+        <v>9910.4000000000233</v>
+      </c>
+      <c r="I38">
+        <f>(pdbkonstan!I38-pdbkonstan!H38)</f>
+        <v>6549.2999999999884</v>
+      </c>
+      <c r="J38">
+        <f>(pdbkonstan!J38-pdbkonstan!I38)</f>
+        <v>22763.299999999988</v>
+      </c>
+      <c r="K38">
+        <f>(pdbkonstan!K38-pdbkonstan!J38)</f>
+        <v>16261.200000000012</v>
+      </c>
+      <c r="L38">
+        <f>(pdbkonstan!L38-pdbkonstan!K38)</f>
+        <v>-92.799999999988358</v>
+      </c>
+      <c r="M38">
+        <f>(pdbkonstan!M38-pdbkonstan!L38)</f>
+        <v>-1199.4000000000233</v>
+      </c>
+      <c r="N38">
+        <f>(pdbkonstan!N38-pdbkonstan!M38)</f>
+        <v>9157.4000000000233</v>
+      </c>
+      <c r="O38">
+        <f>(pdbkonstan!O38-pdbkonstan!N38)</f>
+        <v>5585.0999999999767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f>(pdbkonstan!C39-pdbkonstan!B39)</f>
+        <v>13469.600000000006</v>
+      </c>
+      <c r="D39">
+        <f>(pdbkonstan!D39-pdbkonstan!C39)</f>
+        <v>17675.199999999983</v>
+      </c>
+      <c r="E39">
+        <f>(pdbkonstan!E39-pdbkonstan!D39)</f>
+        <v>17311.900000000023</v>
+      </c>
+      <c r="F39">
+        <f>(pdbkonstan!F39-pdbkonstan!E39)</f>
+        <v>13668.799999999988</v>
+      </c>
+      <c r="G39">
+        <f>(pdbkonstan!G39-pdbkonstan!F39)</f>
+        <v>19335.099999999977</v>
+      </c>
+      <c r="H39">
+        <f>(pdbkonstan!H39-pdbkonstan!G39)</f>
+        <v>10867.5</v>
+      </c>
+      <c r="I39">
+        <f>(pdbkonstan!I39-pdbkonstan!H39)</f>
+        <v>10923.200000000012</v>
+      </c>
+      <c r="J39">
+        <f>(pdbkonstan!J39-pdbkonstan!I39)</f>
+        <v>16323</v>
+      </c>
+      <c r="K39">
+        <f>(pdbkonstan!K39-pdbkonstan!J39)</f>
+        <v>20216.100000000035</v>
+      </c>
+      <c r="L39">
+        <f>(pdbkonstan!L39-pdbkonstan!K39)</f>
+        <v>8922.8999999999651</v>
+      </c>
+      <c r="M39">
+        <f>(pdbkonstan!M39-pdbkonstan!L39)</f>
+        <v>387.20000000001164</v>
+      </c>
+      <c r="N39">
+        <f>(pdbkonstan!N39-pdbkonstan!M39)</f>
+        <v>2013.5</v>
+      </c>
+      <c r="O39">
+        <f>(pdbkonstan!O39-pdbkonstan!N39)</f>
+        <v>6278.5999999999767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202E13F5-6D4E-40B4-A0E0-A3F0014AF4E3}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -8098,7 +11448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ED8B8B-A750-4F01-8974-C106EF59E1BB}">
   <dimension ref="A1:V40"/>
   <sheetViews>
@@ -10836,7 +14186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBA0D3-89A9-4084-9703-326396B3B9CB}">
   <dimension ref="A1:V40"/>
   <sheetViews>
@@ -13574,7 +16924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EDB01C-9CF8-4BB3-AEF7-F666665BAF08}">
   <dimension ref="A1:V41"/>
   <sheetViews>
@@ -17200,7 +20550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEC2DB7-1DC8-4340-82D4-50F8E068F3E3}">
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -21026,7 +24376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F74FD5-82C8-4A53-BD97-D930DDDA4AB2}">
   <dimension ref="A1:W40"/>
   <sheetViews>
@@ -24742,7 +28092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A34D0B8-1424-4DAC-8E10-7B49A8292234}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
@@ -28947,7 +32297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26237320-2821-4D54-BA56-A38651B29E8A}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -29531,7 +32881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58183647-5DA9-49AF-8DF0-14BC8717C3D7}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -30418,235 +33768,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885CF204-AC76-4C78-90FF-E2938012036A}">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>2010</v>
-      </c>
-      <c r="C1">
-        <v>2011</v>
-      </c>
-      <c r="D1">
-        <v>2012</v>
-      </c>
-      <c r="E1">
-        <v>2013</v>
-      </c>
-      <c r="F1">
-        <v>2014</v>
-      </c>
-      <c r="G1">
-        <v>2015</v>
-      </c>
-      <c r="H1">
-        <v>2016</v>
-      </c>
-      <c r="I1">
-        <v>2017</v>
-      </c>
-      <c r="J1">
-        <v>2018</v>
-      </c>
-      <c r="K1">
-        <v>2019</v>
-      </c>
-      <c r="L1">
-        <v>2020</v>
-      </c>
-      <c r="M1">
-        <v>2021</v>
-      </c>
-      <c r="N1">
-        <v>2022</v>
-      </c>
-      <c r="O1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
-        <v>1126146.3999999999</v>
-      </c>
-      <c r="C2">
-        <v>1320751.3</v>
-      </c>
-      <c r="D2">
-        <v>1548310.3</v>
-      </c>
-      <c r="E2">
-        <v>1726191.3</v>
-      </c>
-      <c r="F2">
-        <v>1876872.76</v>
-      </c>
-      <c r="G2">
-        <v>1984149.71</v>
-      </c>
-      <c r="H2">
-        <v>2082948.89</v>
-      </c>
-      <c r="I2">
-        <v>2133295.9</v>
-      </c>
-      <c r="J2">
-        <v>2220656.9700000002</v>
-      </c>
-      <c r="K2">
-        <v>2461112.0499999998</v>
-      </c>
-      <c r="L2">
-        <v>2739165.85</v>
-      </c>
-      <c r="M2">
-        <v>2750028.0184309999</v>
-      </c>
-      <c r="N2">
-        <v>3106425.2555920002</v>
-      </c>
-      <c r="O2">
-        <v>3061200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3">
-        <v>1711.5129999999999</v>
-      </c>
-      <c r="C3">
-        <v>2329.2429999999999</v>
-      </c>
-      <c r="D3">
-        <v>2748.0250000000001</v>
-      </c>
-      <c r="E3">
-        <v>3334.518</v>
-      </c>
-      <c r="F3">
-        <v>2656.4580000000001</v>
-      </c>
-      <c r="G3">
-        <v>4600.9750000000004</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2164.4839999999999</v>
-      </c>
-      <c r="I3">
-        <v>2623.1109999999999</v>
-      </c>
-      <c r="J3">
-        <v>2847.922</v>
-      </c>
-      <c r="K3">
-        <v>3617.6640000000002</v>
-      </c>
-      <c r="L3">
-        <v>2107.982</v>
-      </c>
-      <c r="M3">
-        <v>2826.4409999999998</v>
-      </c>
-      <c r="N3">
-        <v>2634.4029999999998</v>
-      </c>
-      <c r="O3">
-        <v>4622.4780000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:K4" si="0">B3/B2*100</f>
-        <v>0.15197961828053616</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.17635742626185563</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.17748541749027955</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.19317198505171471</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.14153639269611437</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.23188648400931403</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.10391440761659783</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.12296048569727246</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.12824682238067592</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.14699306356246561</v>
-      </c>
-      <c r="L4">
-        <f>L3/L2*100</f>
-        <v>7.695707800971599E-2</v>
-      </c>
-      <c r="M4">
-        <f>M3/M2*100</f>
-        <v>0.1027786255651532</v>
-      </c>
-      <c r="N4">
-        <f>N3/N2*100</f>
-        <v>8.4804969804366151E-2</v>
-      </c>
-      <c r="O4">
-        <f>O3/O2*100</f>
-        <v>0.15100215601724815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://kemenperin.go.id/laporan-keuangan" xr:uid="{7866FAC7-C302-408B-A8D2-BBF0FE3B2E26}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31542,6 +34663,235 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885CF204-AC76-4C78-90FF-E2938012036A}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>1126146.3999999999</v>
+      </c>
+      <c r="C2">
+        <v>1320751.3</v>
+      </c>
+      <c r="D2">
+        <v>1548310.3</v>
+      </c>
+      <c r="E2">
+        <v>1726191.3</v>
+      </c>
+      <c r="F2">
+        <v>1876872.76</v>
+      </c>
+      <c r="G2">
+        <v>1984149.71</v>
+      </c>
+      <c r="H2">
+        <v>2082948.89</v>
+      </c>
+      <c r="I2">
+        <v>2133295.9</v>
+      </c>
+      <c r="J2">
+        <v>2220656.9700000002</v>
+      </c>
+      <c r="K2">
+        <v>2461112.0499999998</v>
+      </c>
+      <c r="L2">
+        <v>2739165.85</v>
+      </c>
+      <c r="M2">
+        <v>2750028.0184309999</v>
+      </c>
+      <c r="N2">
+        <v>3106425.2555920002</v>
+      </c>
+      <c r="O2">
+        <v>3061200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>1711.5129999999999</v>
+      </c>
+      <c r="C3">
+        <v>2329.2429999999999</v>
+      </c>
+      <c r="D3">
+        <v>2748.0250000000001</v>
+      </c>
+      <c r="E3">
+        <v>3334.518</v>
+      </c>
+      <c r="F3">
+        <v>2656.4580000000001</v>
+      </c>
+      <c r="G3">
+        <v>4600.9750000000004</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2164.4839999999999</v>
+      </c>
+      <c r="I3">
+        <v>2623.1109999999999</v>
+      </c>
+      <c r="J3">
+        <v>2847.922</v>
+      </c>
+      <c r="K3">
+        <v>3617.6640000000002</v>
+      </c>
+      <c r="L3">
+        <v>2107.982</v>
+      </c>
+      <c r="M3">
+        <v>2826.4409999999998</v>
+      </c>
+      <c r="N3">
+        <v>2634.4029999999998</v>
+      </c>
+      <c r="O3">
+        <v>4622.4780000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:K4" si="0">B3/B2*100</f>
+        <v>0.15197961828053616</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.17635742626185563</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.17748541749027955</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.19317198505171471</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.14153639269611437</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.23188648400931403</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.10391440761659783</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.12296048569727246</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.12824682238067592</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.14699306356246561</v>
+      </c>
+      <c r="L4">
+        <f>L3/L2*100</f>
+        <v>7.695707800971599E-2</v>
+      </c>
+      <c r="M4">
+        <f>M3/M2*100</f>
+        <v>0.1027786255651532</v>
+      </c>
+      <c r="N4">
+        <f>N3/N2*100</f>
+        <v>8.4804969804366151E-2</v>
+      </c>
+      <c r="O4">
+        <f>O3/O2*100</f>
+        <v>0.15100215601724815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="https://kemenperin.go.id/laporan-keuangan" xr:uid="{7866FAC7-C302-408B-A8D2-BBF0FE3B2E26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14A10D-423A-4DA1-A786-97ECEABC1CE5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31557,7 +34907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -33409,12 +36759,13 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.08984375" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -35256,6 +38607,2210 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71CA41-5C0C-4AA1-8C29-5A5542EB39DD}">
+  <dimension ref="A1:AC39"/>
+  <sheetViews>
+    <sheetView topLeftCell="L27" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.08984375" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>754434.4</v>
+      </c>
+      <c r="C2">
+        <v>832513.6</v>
+      </c>
+      <c r="D2">
+        <v>902125.9</v>
+      </c>
+      <c r="E2">
+        <v>994778.4</v>
+      </c>
+      <c r="F2">
+        <v>1089549.7</v>
+      </c>
+      <c r="G2">
+        <v>1183968.6000000001</v>
+      </c>
+      <c r="H2">
+        <v>1266865.3999999999</v>
+      </c>
+      <c r="I2">
+        <v>1347526.2</v>
+      </c>
+      <c r="J2">
+        <v>1417316.9</v>
+      </c>
+      <c r="K2">
+        <v>1488985.7</v>
+      </c>
+      <c r="L2">
+        <v>1575380</v>
+      </c>
+      <c r="M2">
+        <v>1672938.4</v>
+      </c>
+      <c r="N2">
+        <v>1805453.6</v>
+      </c>
+      <c r="O2">
+        <v>1932512.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58125.9</v>
+      </c>
+      <c r="C3">
+        <v>62247.7</v>
+      </c>
+      <c r="D3">
+        <v>65882.2</v>
+      </c>
+      <c r="E3">
+        <v>69599.199999999997</v>
+      </c>
+      <c r="F3">
+        <v>74618</v>
+      </c>
+      <c r="G3">
+        <v>82321.8</v>
+      </c>
+      <c r="H3">
+        <v>87542.399999999994</v>
+      </c>
+      <c r="I3">
+        <v>91609.4</v>
+      </c>
+      <c r="J3">
+        <v>97396.800000000003</v>
+      </c>
+      <c r="K3">
+        <v>104121.9</v>
+      </c>
+      <c r="L3">
+        <v>108645.6</v>
+      </c>
+      <c r="M3">
+        <v>112008.5</v>
+      </c>
+      <c r="N3">
+        <v>118386.1</v>
+      </c>
+      <c r="O3">
+        <v>130116.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>143559.4</v>
+      </c>
+      <c r="C4">
+        <v>163484</v>
+      </c>
+      <c r="D4">
+        <v>184254</v>
+      </c>
+      <c r="E4">
+        <v>210670.8</v>
+      </c>
+      <c r="F4">
+        <v>245488</v>
+      </c>
+      <c r="G4">
+        <v>288916.59999999998</v>
+      </c>
+      <c r="H4">
+        <v>317190</v>
+      </c>
+      <c r="I4">
+        <v>348827.6</v>
+      </c>
+      <c r="J4">
+        <v>385908</v>
+      </c>
+      <c r="K4">
+        <v>419635.20000000001</v>
+      </c>
+      <c r="L4">
+        <v>431468.9</v>
+      </c>
+      <c r="M4">
+        <v>469594.4</v>
+      </c>
+      <c r="N4">
+        <v>505060.8</v>
+      </c>
+      <c r="O4">
+        <v>555041.19999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>160732.5</v>
+      </c>
+      <c r="C5">
+        <v>253025.5</v>
+      </c>
+      <c r="D5">
+        <v>270519.09999999998</v>
+      </c>
+      <c r="E5">
+        <v>282193.09999999998</v>
+      </c>
+      <c r="F5">
+        <v>259766.6</v>
+      </c>
+      <c r="G5">
+        <v>229973.9</v>
+      </c>
+      <c r="H5">
+        <v>231697.8</v>
+      </c>
+      <c r="I5">
+        <v>323364.5</v>
+      </c>
+      <c r="J5">
+        <v>401276.9</v>
+      </c>
+      <c r="K5">
+        <v>368890.5</v>
+      </c>
+      <c r="L5">
+        <v>283194.7</v>
+      </c>
+      <c r="M5">
+        <v>603138</v>
+      </c>
+      <c r="N5">
+        <v>1296911.8999999999</v>
+      </c>
+      <c r="O5">
+        <v>1116570.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>336169.7</v>
+      </c>
+      <c r="C6">
+        <v>444067.8</v>
+      </c>
+      <c r="D6">
+        <v>492894.2</v>
+      </c>
+      <c r="E6">
+        <v>520088.1</v>
+      </c>
+      <c r="F6">
+        <v>509783.3</v>
+      </c>
+      <c r="G6">
+        <v>384515.9</v>
+      </c>
+      <c r="H6">
+        <v>364985.59999999998</v>
+      </c>
+      <c r="I6">
+        <v>391449.9</v>
+      </c>
+      <c r="J6">
+        <v>460169.9</v>
+      </c>
+      <c r="K6">
+        <v>439602.8</v>
+      </c>
+      <c r="L6">
+        <v>332559.59999999998</v>
+      </c>
+      <c r="M6">
+        <v>461703</v>
+      </c>
+      <c r="N6">
+        <v>587597.30000000005</v>
+      </c>
+      <c r="O6">
+        <v>521070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>109244.2</v>
+      </c>
+      <c r="C7">
+        <v>104283.9</v>
+      </c>
+      <c r="D7">
+        <v>100844.8</v>
+      </c>
+      <c r="E7">
+        <v>98468.4</v>
+      </c>
+      <c r="F7">
+        <v>93615.2</v>
+      </c>
+      <c r="G7">
+        <v>74264.2</v>
+      </c>
+      <c r="H7">
+        <v>73301</v>
+      </c>
+      <c r="I7">
+        <v>94322.3</v>
+      </c>
+      <c r="J7">
+        <v>111321.4</v>
+      </c>
+      <c r="K7">
+        <v>96824.6</v>
+      </c>
+      <c r="L7">
+        <v>130956.9</v>
+      </c>
+      <c r="M7">
+        <v>204590.1</v>
+      </c>
+      <c r="N7">
+        <v>242717.1</v>
+      </c>
+      <c r="O7">
+        <v>272022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>111982.2</v>
+      </c>
+      <c r="C8">
+        <v>123436.2</v>
+      </c>
+      <c r="D8">
+        <v>136049.5</v>
+      </c>
+      <c r="E8">
+        <v>149996.20000000001</v>
+      </c>
+      <c r="F8">
+        <v>176257.9</v>
+      </c>
+      <c r="G8">
+        <v>192940.1</v>
+      </c>
+      <c r="H8">
+        <v>220883.9</v>
+      </c>
+      <c r="I8">
+        <v>220417.9</v>
+      </c>
+      <c r="J8">
+        <v>226218.9</v>
+      </c>
+      <c r="K8">
+        <v>244595.6</v>
+      </c>
+      <c r="L8">
+        <v>246830.7</v>
+      </c>
+      <c r="M8">
+        <v>254219</v>
+      </c>
+      <c r="N8">
+        <v>266164.59999999998</v>
+      </c>
+      <c r="O8">
+        <v>288355.59999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>99085.4</v>
+      </c>
+      <c r="C9">
+        <v>113975.3</v>
+      </c>
+      <c r="D9">
+        <v>127724.2</v>
+      </c>
+      <c r="E9">
+        <v>144604.1</v>
+      </c>
+      <c r="F9">
+        <v>165990.6</v>
+      </c>
+      <c r="G9">
+        <v>190267.9</v>
+      </c>
+      <c r="H9">
+        <v>211623.6</v>
+      </c>
+      <c r="I9">
+        <v>238217</v>
+      </c>
+      <c r="J9">
+        <v>267094</v>
+      </c>
+      <c r="K9">
+        <v>304285.5</v>
+      </c>
+      <c r="L9">
+        <v>294255.5</v>
+      </c>
+      <c r="M9">
+        <v>301085.2</v>
+      </c>
+      <c r="N9">
+        <v>341427.3</v>
+      </c>
+      <c r="O9">
+        <v>383091.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>233822.2</v>
+      </c>
+      <c r="C10">
+        <v>284098.7</v>
+      </c>
+      <c r="D10">
+        <v>298402.90000000002</v>
+      </c>
+      <c r="E10">
+        <v>314215.5</v>
+      </c>
+      <c r="F10">
+        <v>337200.6</v>
+      </c>
+      <c r="G10">
+        <v>320845.09999999998</v>
+      </c>
+      <c r="H10">
+        <v>286400</v>
+      </c>
+      <c r="I10">
+        <v>309372.7</v>
+      </c>
+      <c r="J10">
+        <v>332299</v>
+      </c>
+      <c r="K10">
+        <v>336672.6</v>
+      </c>
+      <c r="L10">
+        <v>307606.40000000002</v>
+      </c>
+      <c r="M10">
+        <v>320008.5</v>
+      </c>
+      <c r="N10">
+        <v>363619.5</v>
+      </c>
+      <c r="O10">
+        <v>400446.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>360443.1</v>
+      </c>
+      <c r="C11">
+        <v>410387.4</v>
+      </c>
+      <c r="D11">
+        <v>457773.4</v>
+      </c>
+      <c r="E11">
+        <v>491142.40000000002</v>
+      </c>
+      <c r="F11">
+        <v>562016.6</v>
+      </c>
+      <c r="G11">
+        <v>647071.9</v>
+      </c>
+      <c r="H11">
+        <v>740810.2</v>
+      </c>
+      <c r="I11">
+        <v>834425.1</v>
+      </c>
+      <c r="J11">
+        <v>927443.5</v>
+      </c>
+      <c r="K11">
+        <v>1012959.8</v>
+      </c>
+      <c r="L11">
+        <v>1057000.7</v>
+      </c>
+      <c r="M11">
+        <v>1121362</v>
+      </c>
+      <c r="N11">
+        <v>1238099.1000000001</v>
+      </c>
+      <c r="O11">
+        <v>1368428.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>67249.399999999994</v>
+      </c>
+      <c r="C12">
+        <v>71735.399999999994</v>
+      </c>
+      <c r="D12">
+        <v>79340</v>
+      </c>
+      <c r="E12">
+        <v>82684.3</v>
+      </c>
+      <c r="F12">
+        <v>95668.1</v>
+      </c>
+      <c r="G12">
+        <v>108651.6</v>
+      </c>
+      <c r="H12">
+        <v>117086.3</v>
+      </c>
+      <c r="I12">
+        <v>122229.6</v>
+      </c>
+      <c r="J12">
+        <v>131937.29999999999</v>
+      </c>
+      <c r="K12">
+        <v>140966.5</v>
+      </c>
+      <c r="L12">
+        <v>135935.1</v>
+      </c>
+      <c r="M12">
+        <v>135145.79999999999</v>
+      </c>
+      <c r="N12">
+        <v>135754</v>
+      </c>
+      <c r="O12">
+        <v>147826.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>96306.9</v>
+      </c>
+      <c r="C13">
+        <v>108192.1</v>
+      </c>
+      <c r="D13">
+        <v>116557.8</v>
+      </c>
+      <c r="E13">
+        <v>129912</v>
+      </c>
+      <c r="F13">
+        <v>139031.6</v>
+      </c>
+      <c r="G13">
+        <v>139393.60000000001</v>
+      </c>
+      <c r="H13">
+        <v>143545</v>
+      </c>
+      <c r="I13">
+        <v>150535.29999999999</v>
+      </c>
+      <c r="J13">
+        <v>168545.2</v>
+      </c>
+      <c r="K13">
+        <v>200019.4</v>
+      </c>
+      <c r="L13">
+        <v>186626.8</v>
+      </c>
+      <c r="M13">
+        <v>180216.9</v>
+      </c>
+      <c r="N13">
+        <v>201642.5</v>
+      </c>
+      <c r="O13">
+        <v>203949.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>19697.2</v>
+      </c>
+      <c r="C14">
+        <v>22045</v>
+      </c>
+      <c r="D14">
+        <v>21686.7</v>
+      </c>
+      <c r="E14">
+        <v>24810</v>
+      </c>
+      <c r="F14">
+        <v>28600.2</v>
+      </c>
+      <c r="G14">
+        <v>31440.9</v>
+      </c>
+      <c r="H14">
+        <v>35214.1</v>
+      </c>
+      <c r="I14">
+        <v>36988.800000000003</v>
+      </c>
+      <c r="J14">
+        <v>41716</v>
+      </c>
+      <c r="K14">
+        <v>42499</v>
+      </c>
+      <c r="L14">
+        <v>39204</v>
+      </c>
+      <c r="M14">
+        <v>42508.7</v>
+      </c>
+      <c r="N14">
+        <v>48125.3</v>
+      </c>
+      <c r="O14">
+        <v>49241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>56775.1</v>
+      </c>
+      <c r="C15">
+        <v>59501</v>
+      </c>
+      <c r="D15">
+        <v>60628.6</v>
+      </c>
+      <c r="E15">
+        <v>66958</v>
+      </c>
+      <c r="F15">
+        <v>76071.899999999994</v>
+      </c>
+      <c r="G15">
+        <v>77993.399999999994</v>
+      </c>
+      <c r="H15">
+        <v>80077.600000000006</v>
+      </c>
+      <c r="I15">
+        <v>81580.800000000003</v>
+      </c>
+      <c r="J15">
+        <v>83710</v>
+      </c>
+      <c r="K15">
+        <v>80319.899999999994</v>
+      </c>
+      <c r="L15">
+        <v>78689.2</v>
+      </c>
+      <c r="M15">
+        <v>76689.399999999994</v>
+      </c>
+      <c r="N15">
+        <v>80134.899999999994</v>
+      </c>
+      <c r="O15">
+        <v>81980.899999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>67984.800000000003</v>
+      </c>
+      <c r="C16">
+        <v>75308</v>
+      </c>
+      <c r="D16">
+        <v>73664.800000000003</v>
+      </c>
+      <c r="E16">
+        <v>74319</v>
+      </c>
+      <c r="F16">
+        <v>84372.5</v>
+      </c>
+      <c r="G16">
+        <v>87760.4</v>
+      </c>
+      <c r="H16">
+        <v>89650</v>
+      </c>
+      <c r="I16">
+        <v>96616.2</v>
+      </c>
+      <c r="J16">
+        <v>101758.2</v>
+      </c>
+      <c r="K16">
+        <v>109892.2</v>
+      </c>
+      <c r="L16">
+        <v>110562.3</v>
+      </c>
+      <c r="M16">
+        <v>113201.5</v>
+      </c>
+      <c r="N16">
+        <v>128957.7</v>
+      </c>
+      <c r="O16">
+        <v>141009.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>114332.4</v>
+      </c>
+      <c r="C17">
+        <v>124716.9</v>
+      </c>
+      <c r="D17">
+        <v>143460.20000000001</v>
+      </c>
+      <c r="E17">
+        <v>157042.1</v>
+      </c>
+      <c r="F17">
+        <v>180037.2</v>
+      </c>
+      <c r="G17">
+        <v>209788.2</v>
+      </c>
+      <c r="H17">
+        <v>223404.7</v>
+      </c>
+      <c r="I17">
+        <v>236192.9</v>
+      </c>
+      <c r="J17">
+        <v>239678</v>
+      </c>
+      <c r="K17">
+        <v>265925.09999999998</v>
+      </c>
+      <c r="L17">
+        <v>296710.3</v>
+      </c>
+      <c r="M17">
+        <v>339183.4</v>
+      </c>
+      <c r="N17">
+        <v>357326.3</v>
+      </c>
+      <c r="O17">
+        <v>366319.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>66763</v>
+      </c>
+      <c r="C18">
+        <v>72006</v>
+      </c>
+      <c r="D18">
+        <v>76425</v>
+      </c>
+      <c r="E18">
+        <v>76466.3</v>
+      </c>
+      <c r="F18">
+        <v>80262.899999999994</v>
+      </c>
+      <c r="G18">
+        <v>85951.4</v>
+      </c>
+      <c r="H18">
+        <v>79100.899999999994</v>
+      </c>
+      <c r="I18">
+        <v>85869.6</v>
+      </c>
+      <c r="J18">
+        <v>92662.6</v>
+      </c>
+      <c r="K18">
+        <v>87975.4</v>
+      </c>
+      <c r="L18">
+        <v>82856.600000000006</v>
+      </c>
+      <c r="M18">
+        <v>88607.7</v>
+      </c>
+      <c r="N18">
+        <v>87798</v>
+      </c>
+      <c r="O18">
+        <v>83864.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>50948.3</v>
+      </c>
+      <c r="C19">
+        <v>55606.400000000001</v>
+      </c>
+      <c r="D19">
+        <v>63028.2</v>
+      </c>
+      <c r="E19">
+        <v>69400.600000000006</v>
+      </c>
+      <c r="F19">
+        <v>76852</v>
+      </c>
+      <c r="G19">
+        <v>83371</v>
+      </c>
+      <c r="H19">
+        <v>89056</v>
+      </c>
+      <c r="I19">
+        <v>89605.8</v>
+      </c>
+      <c r="J19">
+        <v>93166.9</v>
+      </c>
+      <c r="K19">
+        <v>93362.6</v>
+      </c>
+      <c r="L19">
+        <v>85860.2</v>
+      </c>
+      <c r="M19">
+        <v>89016.8</v>
+      </c>
+      <c r="N19">
+        <v>91078</v>
+      </c>
+      <c r="O19">
+        <v>98386.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>54471.5</v>
+      </c>
+      <c r="C20">
+        <v>62846.1</v>
+      </c>
+      <c r="D20">
+        <v>64557.3</v>
+      </c>
+      <c r="E20">
+        <v>74495.100000000006</v>
+      </c>
+      <c r="F20">
+        <v>82118.8</v>
+      </c>
+      <c r="G20">
+        <v>90159.3</v>
+      </c>
+      <c r="H20">
+        <v>89559.7</v>
+      </c>
+      <c r="I20">
+        <v>98845.5</v>
+      </c>
+      <c r="J20">
+        <v>111341.3</v>
+      </c>
+      <c r="K20">
+        <v>116068.6</v>
+      </c>
+      <c r="L20">
+        <v>120956.8</v>
+      </c>
+      <c r="M20">
+        <v>137599</v>
+      </c>
+      <c r="N20">
+        <v>168012.79999999999</v>
+      </c>
+      <c r="O20">
+        <v>196315.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130750.5</v>
+      </c>
+      <c r="C21">
+        <v>142059.4</v>
+      </c>
+      <c r="D21">
+        <v>162969.70000000001</v>
+      </c>
+      <c r="E21">
+        <v>186194.9</v>
+      </c>
+      <c r="F21">
+        <v>198080.6</v>
+      </c>
+      <c r="G21">
+        <v>226678.1</v>
+      </c>
+      <c r="H21">
+        <v>241756.5</v>
+      </c>
+      <c r="I21">
+        <v>252870.9</v>
+      </c>
+      <c r="J21">
+        <v>257687</v>
+      </c>
+      <c r="K21">
+        <v>265384.3</v>
+      </c>
+      <c r="L21">
+        <v>252142.8</v>
+      </c>
+      <c r="M21">
+        <v>257365.6</v>
+      </c>
+      <c r="N21">
+        <v>284559.3</v>
+      </c>
+      <c r="O21">
+        <v>327987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>23767.200000000001</v>
+      </c>
+      <c r="C22">
+        <v>23376.400000000001</v>
+      </c>
+      <c r="D22">
+        <v>24832.1</v>
+      </c>
+      <c r="E22">
+        <v>25504.2</v>
+      </c>
+      <c r="F22">
+        <v>33078.800000000003</v>
+      </c>
+      <c r="G22">
+        <v>37287.5</v>
+      </c>
+      <c r="H22">
+        <v>40169.5</v>
+      </c>
+      <c r="I22">
+        <v>43093</v>
+      </c>
+      <c r="J22">
+        <v>47879.6</v>
+      </c>
+      <c r="K22">
+        <v>46982.5</v>
+      </c>
+      <c r="L22">
+        <v>43230.6</v>
+      </c>
+      <c r="M22">
+        <v>48900</v>
+      </c>
+      <c r="N22">
+        <v>55327.3</v>
+      </c>
+      <c r="O22">
+        <v>56489.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>134260.20000000001</v>
+      </c>
+      <c r="C23">
+        <v>154863.9</v>
+      </c>
+      <c r="D23">
+        <v>166390.70000000001</v>
+      </c>
+      <c r="E23">
+        <v>192768</v>
+      </c>
+      <c r="F23">
+        <v>207401.4</v>
+      </c>
+      <c r="G23">
+        <v>220511</v>
+      </c>
+      <c r="H23">
+        <v>236558.9</v>
+      </c>
+      <c r="I23">
+        <v>246916.1</v>
+      </c>
+      <c r="J23">
+        <v>260986.8</v>
+      </c>
+      <c r="K23">
+        <v>258287.3</v>
+      </c>
+      <c r="L23">
+        <v>208886</v>
+      </c>
+      <c r="M23">
+        <v>251892.9</v>
+      </c>
+      <c r="N23">
+        <v>284619.90000000002</v>
+      </c>
+      <c r="O23">
+        <v>310892.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>20069.3</v>
+      </c>
+      <c r="C24">
+        <v>21984.5</v>
+      </c>
+      <c r="D24">
+        <v>22486.5</v>
+      </c>
+      <c r="E24">
+        <v>24930.6</v>
+      </c>
+      <c r="F24">
+        <v>28117.7</v>
+      </c>
+      <c r="G24">
+        <v>31339.7</v>
+      </c>
+      <c r="H24">
+        <v>32124.2</v>
+      </c>
+      <c r="I24">
+        <v>33851.1</v>
+      </c>
+      <c r="J24">
+        <v>35487.599999999999</v>
+      </c>
+      <c r="K24">
+        <v>39239</v>
+      </c>
+      <c r="L24">
+        <v>38653.1</v>
+      </c>
+      <c r="M24">
+        <v>42173.1</v>
+      </c>
+      <c r="N24">
+        <v>41970.5</v>
+      </c>
+      <c r="O24">
+        <v>42184.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>15119.7</v>
+      </c>
+      <c r="C25">
+        <v>15523.3</v>
+      </c>
+      <c r="D25">
+        <v>15947</v>
+      </c>
+      <c r="E25">
+        <v>16583.8</v>
+      </c>
+      <c r="F25">
+        <v>18673.099999999999</v>
+      </c>
+      <c r="G25">
+        <v>20648.599999999999</v>
+      </c>
+      <c r="H25">
+        <v>20690</v>
+      </c>
+      <c r="I25">
+        <v>20718.5</v>
+      </c>
+      <c r="J25">
+        <v>21151.8</v>
+      </c>
+      <c r="K25">
+        <v>23039.599999999999</v>
+      </c>
+      <c r="L25">
+        <v>23120.799999999999</v>
+      </c>
+      <c r="M25">
+        <v>23034.2</v>
+      </c>
+      <c r="N25">
+        <v>24749.599999999999</v>
+      </c>
+      <c r="O25">
+        <v>24741.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>72549.100000000006</v>
+      </c>
+      <c r="C26">
+        <v>91721.9</v>
+      </c>
+      <c r="D26">
+        <v>95637.8</v>
+      </c>
+      <c r="E26">
+        <v>98686.8</v>
+      </c>
+      <c r="F26">
+        <v>114905.1</v>
+      </c>
+      <c r="G26">
+        <v>129833.7</v>
+      </c>
+      <c r="H26">
+        <v>142344.4</v>
+      </c>
+      <c r="I26">
+        <v>162339.79999999999</v>
+      </c>
+      <c r="J26">
+        <v>176640.3</v>
+      </c>
+      <c r="K26">
+        <v>185115.3</v>
+      </c>
+      <c r="L26">
+        <v>179741.6</v>
+      </c>
+      <c r="M26">
+        <v>190047.2</v>
+      </c>
+      <c r="N26">
+        <v>204673.7</v>
+      </c>
+      <c r="O26">
+        <v>218250.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>5848.5</v>
+      </c>
+      <c r="C27">
+        <v>6208.8</v>
+      </c>
+      <c r="D27">
+        <v>6603.8</v>
+      </c>
+      <c r="E27">
+        <v>7209</v>
+      </c>
+      <c r="F27">
+        <v>7840.6</v>
+      </c>
+      <c r="G27">
+        <v>8546.2999999999993</v>
+      </c>
+      <c r="H27">
+        <v>8909.4</v>
+      </c>
+      <c r="I27">
+        <v>9438.6</v>
+      </c>
+      <c r="J27">
+        <v>10023.6</v>
+      </c>
+      <c r="K27">
+        <v>10736.1</v>
+      </c>
+      <c r="L27">
+        <v>11305.4</v>
+      </c>
+      <c r="M27">
+        <v>12026.4</v>
+      </c>
+      <c r="N27">
+        <v>12536.9</v>
+      </c>
+      <c r="O27">
+        <v>13285.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>626905.4</v>
+      </c>
+      <c r="C28">
+        <v>712184.4</v>
+      </c>
+      <c r="D28">
+        <v>805208.1</v>
+      </c>
+      <c r="E28">
+        <v>905990.5</v>
+      </c>
+      <c r="F28">
+        <v>1041949.5</v>
+      </c>
+      <c r="G28">
+        <v>1177084.1000000001</v>
+      </c>
+      <c r="H28">
+        <v>1287600.8</v>
+      </c>
+      <c r="I28">
+        <v>1410513.6</v>
+      </c>
+      <c r="J28">
+        <v>1562297</v>
+      </c>
+      <c r="K28">
+        <v>1701741.2</v>
+      </c>
+      <c r="L28">
+        <v>1652659.6</v>
+      </c>
+      <c r="M28">
+        <v>1771726.7</v>
+      </c>
+      <c r="N28">
+        <v>1912978.7</v>
+      </c>
+      <c r="O28">
+        <v>2072384.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>182140.5</v>
+      </c>
+      <c r="C29">
+        <v>208944.3</v>
+      </c>
+      <c r="D29">
+        <v>228666.5</v>
+      </c>
+      <c r="E29">
+        <v>258942.3</v>
+      </c>
+      <c r="F29">
+        <v>292839.09999999998</v>
+      </c>
+      <c r="G29">
+        <v>311606.09999999998</v>
+      </c>
+      <c r="H29">
+        <v>334787.8</v>
+      </c>
+      <c r="I29">
+        <v>356436</v>
+      </c>
+      <c r="J29">
+        <v>386619.9</v>
+      </c>
+      <c r="K29">
+        <v>416437.3</v>
+      </c>
+      <c r="L29">
+        <v>360030.1</v>
+      </c>
+      <c r="M29">
+        <v>407988.2</v>
+      </c>
+      <c r="N29">
+        <v>439271.6</v>
+      </c>
+      <c r="O29">
+        <v>467184.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>741783.3</v>
+      </c>
+      <c r="C30">
+        <v>857147.8</v>
+      </c>
+      <c r="D30">
+        <v>909817.9</v>
+      </c>
+      <c r="E30">
+        <v>1002203.3</v>
+      </c>
+      <c r="F30">
+        <v>1126400.3</v>
+      </c>
+      <c r="G30">
+        <v>1221270.6000000001</v>
+      </c>
+      <c r="H30">
+        <v>1300622.6000000001</v>
+      </c>
+      <c r="I30">
+        <v>1412429.2</v>
+      </c>
+      <c r="J30">
+        <v>1545193.1</v>
+      </c>
+      <c r="K30">
+        <v>1643831.6</v>
+      </c>
+      <c r="L30">
+        <v>1633958.6</v>
+      </c>
+      <c r="M30">
+        <v>1791946.7</v>
+      </c>
+      <c r="N30">
+        <v>2077425.1</v>
+      </c>
+      <c r="O30">
+        <v>2235260.7000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>245375.4</v>
+      </c>
+      <c r="C31">
+        <v>276122.40000000002</v>
+      </c>
+      <c r="D31">
+        <v>313156.2</v>
+      </c>
+      <c r="E31">
+        <v>375305.9</v>
+      </c>
+      <c r="F31">
+        <v>466968.9</v>
+      </c>
+      <c r="G31">
+        <v>578464.30000000005</v>
+      </c>
+      <c r="H31">
+        <v>644993.9</v>
+      </c>
+      <c r="I31">
+        <v>735229.6</v>
+      </c>
+      <c r="J31">
+        <v>797777</v>
+      </c>
+      <c r="K31">
+        <v>881505.4</v>
+      </c>
+      <c r="L31">
+        <v>689552.4</v>
+      </c>
+      <c r="M31">
+        <v>719610.3</v>
+      </c>
+      <c r="N31">
+        <v>983519.5</v>
+      </c>
+      <c r="O31">
+        <v>1231241.8999999999</v>
+      </c>
+      <c r="Q31">
+        <v>2010</v>
+      </c>
+      <c r="R31">
+        <v>2011</v>
+      </c>
+      <c r="S31">
+        <v>2012</v>
+      </c>
+      <c r="T31">
+        <v>2013</v>
+      </c>
+      <c r="U31">
+        <v>2014</v>
+      </c>
+      <c r="V31">
+        <v>2015</v>
+      </c>
+      <c r="W31">
+        <v>2016</v>
+      </c>
+      <c r="X31">
+        <v>2017</v>
+      </c>
+      <c r="Y31">
+        <v>2018</v>
+      </c>
+      <c r="Z31">
+        <v>2019</v>
+      </c>
+      <c r="AA31">
+        <v>2020</v>
+      </c>
+      <c r="AB31">
+        <v>2021</v>
+      </c>
+      <c r="AC31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>35764.300000000003</v>
+      </c>
+      <c r="C32">
+        <v>41102.400000000001</v>
+      </c>
+      <c r="D32">
+        <v>51052.4</v>
+      </c>
+      <c r="E32">
+        <v>63489</v>
+      </c>
+      <c r="F32">
+        <v>74255.100000000006</v>
+      </c>
+      <c r="G32">
+        <v>80790.5</v>
+      </c>
+      <c r="H32">
+        <v>86421.4</v>
+      </c>
+      <c r="I32">
+        <v>91953.3</v>
+      </c>
+      <c r="J32">
+        <v>96571.7</v>
+      </c>
+      <c r="K32">
+        <v>99204</v>
+      </c>
+      <c r="L32">
+        <v>74611.3</v>
+      </c>
+      <c r="M32">
+        <v>79143.5</v>
+      </c>
+      <c r="N32">
+        <v>105015.3</v>
+      </c>
+      <c r="O32">
+        <v>120463.6</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(B11:B25)</f>
+        <v>1278938.6000000001</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:AC32" si="0">SUM(C11:C25)</f>
+        <v>1420151.7999999998</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>1549748</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>1693211.3000000003</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>1890383.4</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>2098046.6</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>2258803.6</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="0"/>
+        <v>2430339.2000000002</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>2615151.7999999998</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>2782921.1999999997</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>2760435.3</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="0"/>
+        <v>2946897</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="0"/>
+        <v>3228155.1999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>164517.5</v>
+      </c>
+      <c r="C33">
+        <v>183112.9</v>
+      </c>
+      <c r="D33">
+        <v>201559.9</v>
+      </c>
+      <c r="E33">
+        <v>226009.3</v>
+      </c>
+      <c r="F33">
+        <v>246807</v>
+      </c>
+      <c r="G33">
+        <v>260765.3</v>
+      </c>
+      <c r="H33">
+        <v>276634.09999999998</v>
+      </c>
+      <c r="I33">
+        <v>295059.8</v>
+      </c>
+      <c r="J33">
+        <v>316138</v>
+      </c>
+      <c r="K33">
+        <v>341003.7</v>
+      </c>
+      <c r="L33">
+        <v>319443.7</v>
+      </c>
+      <c r="M33">
+        <v>333090.3</v>
+      </c>
+      <c r="N33">
+        <v>366923.4</v>
+      </c>
+      <c r="O33">
+        <v>405799.9</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(pdbkonstan!B11:B25)</f>
+        <v>1278938.6000000001</v>
+      </c>
+      <c r="R33">
+        <f>SUM(pdbkonstan!C11:C25)</f>
+        <v>1374400.0999999999</v>
+      </c>
+      <c r="S33">
+        <f>SUM(pdbkonstan!D11:D25)</f>
+        <v>1470331.0999999999</v>
+      </c>
+      <c r="T33">
+        <f>SUM(pdbkonstan!E11:E25)</f>
+        <v>1550511.9999999995</v>
+      </c>
+      <c r="U33">
+        <f>SUM(pdbkonstan!F11:F25)</f>
+        <v>1637505.9</v>
+      </c>
+      <c r="V33">
+        <f>SUM(pdbkonstan!G11:G25)</f>
+        <v>1720221.2</v>
+      </c>
+      <c r="W33">
+        <f>SUM(pdbkonstan!H11:H25)</f>
+        <v>1796484.7999999998</v>
+      </c>
+      <c r="X33">
+        <f>SUM(pdbkonstan!I11:I25)</f>
+        <v>1883616.7</v>
+      </c>
+      <c r="Y33">
+        <f>SUM(pdbkonstan!J11:J25)</f>
+        <v>1973536.6</v>
+      </c>
+      <c r="Z33">
+        <f>SUM(pdbkonstan!K11:K25)</f>
+        <v>2059265.5999999996</v>
+      </c>
+      <c r="AA33">
+        <f>SUM(pdbkonstan!L11:L25)</f>
+        <v>2007316.6</v>
+      </c>
+      <c r="AB33">
+        <f>SUM(pdbkonstan!M11:M25)</f>
+        <v>2081054.8</v>
+      </c>
+      <c r="AC33">
+        <f>SUM(pdbkonstan!N11:N25)</f>
+        <v>2185263.2000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>256048.1</v>
+      </c>
+      <c r="C34">
+        <v>281777.59999999998</v>
+      </c>
+      <c r="D34">
+        <v>311362.40000000002</v>
+      </c>
+      <c r="E34">
+        <v>341009.4</v>
+      </c>
+      <c r="F34">
+        <v>369457.3</v>
+      </c>
+      <c r="G34">
+        <v>406016.5</v>
+      </c>
+      <c r="H34">
+        <v>449188.7</v>
+      </c>
+      <c r="I34">
+        <v>513715.9</v>
+      </c>
+      <c r="J34">
+        <v>558938</v>
+      </c>
+      <c r="K34">
+        <v>626532.6</v>
+      </c>
+      <c r="L34">
+        <v>695963.3</v>
+      </c>
+      <c r="M34">
+        <v>748802.9</v>
+      </c>
+      <c r="N34">
+        <v>812737.3</v>
+      </c>
+      <c r="O34">
+        <v>883637</v>
+      </c>
+      <c r="Q34">
+        <f>Q32/Q33*100</f>
+        <v>100</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:AC34" si="1">R32/R33*100</f>
+        <v>103.32884871006631</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>105.40129362699329</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>109.20336637188237</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>115.44284512196261</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>121.96376838048504</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>125.73463465986465</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>129.02514614571001</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>132.5109349378167</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>135.14144071556385</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>137.51868041145076</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>141.60592983904124</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="1"/>
+        <v>147.7238622789236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>239728.4</v>
+      </c>
+      <c r="C35">
+        <v>270586.3</v>
+      </c>
+      <c r="D35">
+        <v>320534.3</v>
+      </c>
+      <c r="E35">
+        <v>370131.9</v>
+      </c>
+      <c r="F35">
+        <v>408438.8</v>
+      </c>
+      <c r="G35">
+        <v>464399.9</v>
+      </c>
+      <c r="H35">
+        <v>520206.8</v>
+      </c>
+      <c r="I35">
+        <v>571203.6</v>
+      </c>
+      <c r="J35">
+        <v>616315.1</v>
+      </c>
+      <c r="K35">
+        <v>671433.8</v>
+      </c>
+      <c r="L35">
+        <v>696072.9</v>
+      </c>
+      <c r="M35">
+        <v>736187.2</v>
+      </c>
+      <c r="N35">
+        <v>809370.7</v>
+      </c>
+      <c r="O35">
+        <v>869167.8</v>
+      </c>
+      <c r="Q35">
+        <f>B31</f>
+        <v>245375.4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:AC35" si="2">C31</f>
+        <v>276122.40000000002</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>313156.2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>375305.9</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>466968.9</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>578464.30000000005</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>644993.9</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>735229.6</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>797777</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="2"/>
+        <v>881505.4</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="2"/>
+        <v>689552.4</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="2"/>
+        <v>719610.3</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="2"/>
+        <v>983519.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>198213.5</v>
+      </c>
+      <c r="C36">
+        <v>218796.6</v>
+      </c>
+      <c r="D36">
+        <v>237913.9</v>
+      </c>
+      <c r="E36">
+        <v>264275</v>
+      </c>
+      <c r="F36">
+        <v>294573.40000000002</v>
+      </c>
+      <c r="G36">
+        <v>327601.40000000002</v>
+      </c>
+      <c r="H36">
+        <v>350488.2</v>
+      </c>
+      <c r="I36">
+        <v>382259.20000000001</v>
+      </c>
+      <c r="J36">
+        <v>406013.7</v>
+      </c>
+      <c r="K36">
+        <v>439455.9</v>
+      </c>
+      <c r="L36">
+        <v>453780.9</v>
+      </c>
+      <c r="M36">
+        <v>468221.7</v>
+      </c>
+      <c r="N36">
+        <v>488311.2</v>
+      </c>
+      <c r="O36">
+        <v>505457.4</v>
+      </c>
+      <c r="Q36">
+        <f>(pdbkonstan!B31)</f>
+        <v>245375.4</v>
+      </c>
+      <c r="R36">
+        <f>(pdbkonstan!C31)</f>
+        <v>265774</v>
+      </c>
+      <c r="S36">
+        <f>(pdbkonstan!D31)</f>
+        <v>284662.59999999998</v>
+      </c>
+      <c r="T36">
+        <f>(pdbkonstan!E31)</f>
+        <v>304506.2</v>
+      </c>
+      <c r="U36">
+        <f>(pdbkonstan!F31)</f>
+        <v>326933</v>
+      </c>
+      <c r="V36">
+        <f>(pdbkonstan!G31)</f>
+        <v>348855.9</v>
+      </c>
+      <c r="W36">
+        <f>(pdbkonstan!H31)</f>
+        <v>374843.4</v>
+      </c>
+      <c r="X36">
+        <f>(pdbkonstan!I31)</f>
+        <v>406679.4</v>
+      </c>
+      <c r="Y36">
+        <f>(pdbkonstan!J31)</f>
+        <v>435336.5</v>
+      </c>
+      <c r="Z36">
+        <f>(pdbkonstan!K31)</f>
+        <v>463125.9</v>
+      </c>
+      <c r="AA36">
+        <f>(pdbkonstan!L31)</f>
+        <v>393418.9</v>
+      </c>
+      <c r="AB36">
+        <f>(pdbkonstan!M31)</f>
+        <v>406169.3</v>
+      </c>
+      <c r="AC36">
+        <f>(pdbkonstan!N31)</f>
+        <v>486873.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>66444.7</v>
+      </c>
+      <c r="C37">
+        <v>76404.899999999994</v>
+      </c>
+      <c r="D37">
+        <v>86235.4</v>
+      </c>
+      <c r="E37">
+        <v>96881.3</v>
+      </c>
+      <c r="F37">
+        <v>109147.2</v>
+      </c>
+      <c r="G37">
+        <v>123191.5</v>
+      </c>
+      <c r="H37">
+        <v>132100.5</v>
+      </c>
+      <c r="I37">
+        <v>144830.70000000001</v>
+      </c>
+      <c r="J37">
+        <v>158070.1</v>
+      </c>
+      <c r="K37">
+        <v>174689</v>
+      </c>
+      <c r="L37">
+        <v>201480.4</v>
+      </c>
+      <c r="M37">
+        <v>227235.1</v>
+      </c>
+      <c r="N37">
+        <v>236171.6</v>
+      </c>
+      <c r="O37">
+        <v>251998.5</v>
+      </c>
+      <c r="Q37">
+        <f>Q35/Q36*100</f>
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:AC37" si="3">R35/R36*100</f>
+        <v>103.89368410755002</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>110.00960435266171</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>123.2506595924812</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>142.83321047431738</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>165.81754816243611</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="3"/>
+        <v>172.07022986132341</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="3"/>
+        <v>180.78850317965453</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>183.2552519717506</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>190.33817802027482</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="3"/>
+        <v>175.27180315943133</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>177.1700372233943</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="3"/>
+        <v>202.00707041537251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>259646.1</v>
+      </c>
+      <c r="C38">
+        <v>304755.7</v>
+      </c>
+      <c r="D38">
+        <v>340567.6</v>
+      </c>
+      <c r="E38">
+        <v>372195</v>
+      </c>
+      <c r="F38">
+        <v>404629.6</v>
+      </c>
+      <c r="G38">
+        <v>449382.40000000002</v>
+      </c>
+      <c r="H38">
+        <v>476490.9</v>
+      </c>
+      <c r="I38">
+        <v>499343.6</v>
+      </c>
+      <c r="J38">
+        <v>541685.6</v>
+      </c>
+      <c r="K38">
+        <v>571584.1</v>
+      </c>
+      <c r="L38">
+        <v>585960.1</v>
+      </c>
+      <c r="M38">
+        <v>586757</v>
+      </c>
+      <c r="N38">
+        <v>604938.5</v>
+      </c>
+      <c r="O38">
+        <v>616444.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>201559.5</v>
+      </c>
+      <c r="C39">
+        <v>232726.8</v>
+      </c>
+      <c r="D39">
+        <v>270372.3</v>
+      </c>
+      <c r="E39">
+        <v>307862.3</v>
+      </c>
+      <c r="F39">
+        <v>341818.4</v>
+      </c>
+      <c r="G39">
+        <v>387611.4</v>
+      </c>
+      <c r="H39">
+        <v>417344.8</v>
+      </c>
+      <c r="I39">
+        <v>447137.6</v>
+      </c>
+      <c r="J39">
+        <v>481747</v>
+      </c>
+      <c r="K39">
+        <v>522354.2</v>
+      </c>
+      <c r="L39">
+        <v>551227.1</v>
+      </c>
+      <c r="M39">
+        <v>557666.69999999995</v>
+      </c>
+      <c r="N39">
+        <v>566535.9</v>
+      </c>
+      <c r="O39">
+        <v>583612.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FAECCE-3E6F-45F0-BEB5-506F159BA624}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -37638,7 +43193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854DBD27-7348-4774-91D0-6BC60195BBC4}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
@@ -38435,7 +43990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A55BCC-F424-4843-99DB-069AD186D09E}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -40666,7 +46221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB3D1EF-A768-4610-8E47-1F5FFBE23520}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -42895,2235 +48450,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDAA977-0A70-47AE-8349-C8DF616374F5}">
-  <dimension ref="A1:O39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="84.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1">
-        <v>2010</v>
-      </c>
-      <c r="C1">
-        <v>2011</v>
-      </c>
-      <c r="D1">
-        <v>2012</v>
-      </c>
-      <c r="E1">
-        <v>2013</v>
-      </c>
-      <c r="F1">
-        <v>2014</v>
-      </c>
-      <c r="G1">
-        <v>2015</v>
-      </c>
-      <c r="H1">
-        <v>2016</v>
-      </c>
-      <c r="I1">
-        <v>2017</v>
-      </c>
-      <c r="J1">
-        <v>2018</v>
-      </c>
-      <c r="K1">
-        <v>2019</v>
-      </c>
-      <c r="L1">
-        <v>2020</v>
-      </c>
-      <c r="M1">
-        <v>2021</v>
-      </c>
-      <c r="N1">
-        <v>2022</v>
-      </c>
-      <c r="O1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>(pdbkonstan!C2-pdbkonstan!B2)</f>
-        <v>26146.699999999953</v>
-      </c>
-      <c r="D2">
-        <f>(pdbkonstan!D2-pdbkonstan!C2)</f>
-        <v>35723.300000000047</v>
-      </c>
-      <c r="E2">
-        <f>(pdbkonstan!E2-pdbkonstan!D2)</f>
-        <v>31459.29999999993</v>
-      </c>
-      <c r="F2">
-        <f>(pdbkonstan!F2-pdbkonstan!E2)</f>
-        <v>32625.800000000047</v>
-      </c>
-      <c r="G2">
-        <f>(pdbkonstan!G2-pdbkonstan!F2)</f>
-        <v>26416</v>
-      </c>
-      <c r="H2">
-        <f>(pdbkonstan!H2-pdbkonstan!G2)</f>
-        <v>29551.400000000023</v>
-      </c>
-      <c r="I2">
-        <f>(pdbkonstan!I2-pdbkonstan!H2)</f>
-        <v>33906</v>
-      </c>
-      <c r="J2">
-        <f>(pdbkonstan!J2-pdbkonstan!I2)</f>
-        <v>35392.099999999977</v>
-      </c>
-      <c r="K2">
-        <f>(pdbkonstan!K2-pdbkonstan!J2)</f>
-        <v>33247.900000000023</v>
-      </c>
-      <c r="L2">
-        <f>(pdbkonstan!L2-pdbkonstan!K2)</f>
-        <v>22184.400000000023</v>
-      </c>
-      <c r="M2">
-        <f>(pdbkonstan!M2-pdbkonstan!L2)</f>
-        <v>11890.399999999907</v>
-      </c>
-      <c r="N2">
-        <f>(pdbkonstan!N2-pdbkonstan!M2)</f>
-        <v>24974.5</v>
-      </c>
-      <c r="O2">
-        <f>(pdbkonstan!O2-pdbkonstan!N2)</f>
-        <v>1983.1000000000931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>(pdbkonstan!C3-pdbkonstan!B3)</f>
-        <v>605.09999999999854</v>
-      </c>
-      <c r="D3">
-        <f>(pdbkonstan!D3-pdbkonstan!C3)</f>
-        <v>141</v>
-      </c>
-      <c r="E3">
-        <f>(pdbkonstan!E3-pdbkonstan!D3)</f>
-        <v>356.80000000000291</v>
-      </c>
-      <c r="F3">
-        <f>(pdbkonstan!F3-pdbkonstan!E3)</f>
-        <v>344.69999999999709</v>
-      </c>
-      <c r="G3">
-        <f>(pdbkonstan!G3-pdbkonstan!F3)</f>
-        <v>1050</v>
-      </c>
-      <c r="H3">
-        <f>(pdbkonstan!H3-pdbkonstan!G3)</f>
-        <v>-621.5</v>
-      </c>
-      <c r="I3">
-        <f>(pdbkonstan!I3-pdbkonstan!H3)</f>
-        <v>1277.5999999999985</v>
-      </c>
-      <c r="J3">
-        <f>(pdbkonstan!J3-pdbkonstan!I3)</f>
-        <v>1702.2000000000044</v>
-      </c>
-      <c r="K3">
-        <f>(pdbkonstan!K3-pdbkonstan!J3)</f>
-        <v>235.79999999999563</v>
-      </c>
-      <c r="L3">
-        <f>(pdbkonstan!L3-pdbkonstan!K3)</f>
-        <v>-18.299999999995634</v>
-      </c>
-      <c r="M3">
-        <f>(pdbkonstan!M3-pdbkonstan!L3)</f>
-        <v>47.299999999995634</v>
-      </c>
-      <c r="N3">
-        <f>(pdbkonstan!N3-pdbkonstan!M3)</f>
-        <v>-798</v>
-      </c>
-      <c r="O3">
-        <f>(pdbkonstan!O3-pdbkonstan!N3)</f>
-        <v>1627.5999999999985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>(pdbkonstan!C4-pdbkonstan!B4)</f>
-        <v>10985.800000000017</v>
-      </c>
-      <c r="D4">
-        <f>(pdbkonstan!D4-pdbkonstan!C4)</f>
-        <v>9719.0999999999767</v>
-      </c>
-      <c r="E4">
-        <f>(pdbkonstan!E4-pdbkonstan!D4)</f>
-        <v>11885</v>
-      </c>
-      <c r="F4">
-        <f>(pdbkonstan!F4-pdbkonstan!E4)</f>
-        <v>12940.400000000023</v>
-      </c>
-      <c r="G4">
-        <f>(pdbkonstan!G4-pdbkonstan!F4)</f>
-        <v>14927.099999999977</v>
-      </c>
-      <c r="H4">
-        <f>(pdbkonstan!H4-pdbkonstan!G4)</f>
-        <v>10579.800000000017</v>
-      </c>
-      <c r="I4">
-        <f>(pdbkonstan!I4-pdbkonstan!H4)</f>
-        <v>12236.600000000006</v>
-      </c>
-      <c r="J4">
-        <f>(pdbkonstan!J4-pdbkonstan!I4)</f>
-        <v>11783</v>
-      </c>
-      <c r="K4">
-        <f>(pdbkonstan!K4-pdbkonstan!J4)</f>
-        <v>13662.399999999994</v>
-      </c>
-      <c r="L4">
-        <f>(pdbkonstan!L4-pdbkonstan!K4)</f>
-        <v>1833.6999999999825</v>
-      </c>
-      <c r="M4">
-        <f>(pdbkonstan!M4-pdbkonstan!L4)</f>
-        <v>13854.299999999988</v>
-      </c>
-      <c r="N4">
-        <f>(pdbkonstan!N4-pdbkonstan!M4)</f>
-        <v>7485.8000000000466</v>
-      </c>
-      <c r="O4">
-        <f>(pdbkonstan!O4-pdbkonstan!N4)</f>
-        <v>15123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>(pdbkonstan!C5-pdbkonstan!B5)</f>
-        <v>38511.5</v>
-      </c>
-      <c r="D5">
-        <f>(pdbkonstan!D5-pdbkonstan!C5)</f>
-        <v>31345.200000000012</v>
-      </c>
-      <c r="E5">
-        <f>(pdbkonstan!E5-pdbkonstan!D5)</f>
-        <v>17005.399999999994</v>
-      </c>
-      <c r="F5">
-        <f>(pdbkonstan!F5-pdbkonstan!E5)</f>
-        <v>3479</v>
-      </c>
-      <c r="G5">
-        <f>(pdbkonstan!G5-pdbkonstan!F5)</f>
-        <v>-18348.300000000017</v>
-      </c>
-      <c r="H5">
-        <f>(pdbkonstan!H5-pdbkonstan!G5)</f>
-        <v>-9626.6999999999825</v>
-      </c>
-      <c r="I5">
-        <f>(pdbkonstan!I5-pdbkonstan!H5)</f>
-        <v>3380.2999999999884</v>
-      </c>
-      <c r="J5">
-        <f>(pdbkonstan!J5-pdbkonstan!I5)</f>
-        <v>9082.5</v>
-      </c>
-      <c r="K5">
-        <f>(pdbkonstan!K5-pdbkonstan!J5)</f>
-        <v>24037.100000000006</v>
-      </c>
-      <c r="L5">
-        <f>(pdbkonstan!L5-pdbkonstan!K5)</f>
-        <v>-14099.899999999994</v>
-      </c>
-      <c r="M5">
-        <f>(pdbkonstan!M5-pdbkonstan!L5)</f>
-        <v>16211.199999999983</v>
-      </c>
-      <c r="N5">
-        <f>(pdbkonstan!N5-pdbkonstan!M5)</f>
-        <v>21234</v>
-      </c>
-      <c r="O5">
-        <f>(pdbkonstan!O5-pdbkonstan!N5)</f>
-        <v>28347.400000000023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f>(pdbkonstan!C6-pdbkonstan!B6)</f>
-        <v>-432.60000000003492</v>
-      </c>
-      <c r="D6">
-        <f>(pdbkonstan!D6-pdbkonstan!C6)</f>
-        <v>-12104.699999999953</v>
-      </c>
-      <c r="E6">
-        <f>(pdbkonstan!E6-pdbkonstan!D6)</f>
-        <v>-10304.300000000047</v>
-      </c>
-      <c r="F6">
-        <f>(pdbkonstan!F6-pdbkonstan!E6)</f>
-        <v>-6166.3999999999651</v>
-      </c>
-      <c r="G6">
-        <f>(pdbkonstan!G6-pdbkonstan!F6)</f>
-        <v>164.09999999997672</v>
-      </c>
-      <c r="H6">
-        <f>(pdbkonstan!H6-pdbkonstan!G6)</f>
-        <v>6418.1000000000349</v>
-      </c>
-      <c r="I6">
-        <f>(pdbkonstan!I6-pdbkonstan!H6)</f>
-        <v>-11090.900000000023</v>
-      </c>
-      <c r="J6">
-        <f>(pdbkonstan!J6-pdbkonstan!I6)</f>
-        <v>-4232.9000000000233</v>
-      </c>
-      <c r="K6">
-        <f>(pdbkonstan!K6-pdbkonstan!J6)</f>
-        <v>-8440</v>
-      </c>
-      <c r="L6">
-        <f>(pdbkonstan!L6-pdbkonstan!K6)</f>
-        <v>-17396.899999999965</v>
-      </c>
-      <c r="M6">
-        <f>(pdbkonstan!M6-pdbkonstan!L6)</f>
-        <v>-12037.100000000006</v>
-      </c>
-      <c r="N6">
-        <f>(pdbkonstan!N6-pdbkonstan!M6)</f>
-        <v>-12560.300000000017</v>
-      </c>
-      <c r="O6">
-        <f>(pdbkonstan!O6-pdbkonstan!N6)</f>
-        <v>1815.6000000000058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>(pdbkonstan!C7-pdbkonstan!B7)</f>
-        <v>-13830.5</v>
-      </c>
-      <c r="D7">
-        <f>(pdbkonstan!D7-pdbkonstan!C7)</f>
-        <v>-3799.1999999999971</v>
-      </c>
-      <c r="E7">
-        <f>(pdbkonstan!E7-pdbkonstan!D7)</f>
-        <v>6994.1000000000058</v>
-      </c>
-      <c r="F7">
-        <f>(pdbkonstan!F7-pdbkonstan!E7)</f>
-        <v>-350.70000000001164</v>
-      </c>
-      <c r="G7">
-        <f>(pdbkonstan!G7-pdbkonstan!F7)</f>
-        <v>-10555</v>
-      </c>
-      <c r="H7">
-        <f>(pdbkonstan!H7-pdbkonstan!G7)</f>
-        <v>1600.3000000000029</v>
-      </c>
-      <c r="I7">
-        <f>(pdbkonstan!I7-pdbkonstan!H7)</f>
-        <v>5847.1999999999971</v>
-      </c>
-      <c r="J7">
-        <f>(pdbkonstan!J7-pdbkonstan!I7)</f>
-        <v>8569</v>
-      </c>
-      <c r="K7">
-        <f>(pdbkonstan!K7-pdbkonstan!J7)</f>
-        <v>-15716</v>
-      </c>
-      <c r="L7">
-        <f>(pdbkonstan!L7-pdbkonstan!K7)</f>
-        <v>17826</v>
-      </c>
-      <c r="M7">
-        <f>(pdbkonstan!M7-pdbkonstan!L7)</f>
-        <v>24170.200000000012</v>
-      </c>
-      <c r="N7">
-        <f>(pdbkonstan!N7-pdbkonstan!M7)</f>
-        <v>23413.199999999983</v>
-      </c>
-      <c r="O7">
-        <f>(pdbkonstan!O7-pdbkonstan!N7)</f>
-        <v>13040.400000000023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>(pdbkonstan!C8-pdbkonstan!B8)</f>
-        <v>6579.3000000000029</v>
-      </c>
-      <c r="D8">
-        <f>(pdbkonstan!D8-pdbkonstan!C8)</f>
-        <v>7164</v>
-      </c>
-      <c r="E8">
-        <f>(pdbkonstan!E8-pdbkonstan!D8)</f>
-        <v>5797.6000000000058</v>
-      </c>
-      <c r="F8">
-        <f>(pdbkonstan!F8-pdbkonstan!E8)</f>
-        <v>6473.1999999999825</v>
-      </c>
-      <c r="G8">
-        <f>(pdbkonstan!G8-pdbkonstan!F8)</f>
-        <v>1576.9000000000233</v>
-      </c>
-      <c r="H8">
-        <f>(pdbkonstan!H8-pdbkonstan!G8)</f>
-        <v>8874.1999999999825</v>
-      </c>
-      <c r="I8">
-        <f>(pdbkonstan!I8-pdbkonstan!H8)</f>
-        <v>6948.7000000000116</v>
-      </c>
-      <c r="J8">
-        <f>(pdbkonstan!J8-pdbkonstan!I8)</f>
-        <v>3408</v>
-      </c>
-      <c r="K8">
-        <f>(pdbkonstan!K8-pdbkonstan!J8)</f>
-        <v>9820.1000000000058</v>
-      </c>
-      <c r="L8">
-        <f>(pdbkonstan!L8-pdbkonstan!K8)</f>
-        <v>-2060.2000000000116</v>
-      </c>
-      <c r="M8">
-        <f>(pdbkonstan!M8-pdbkonstan!L8)</f>
-        <v>3280</v>
-      </c>
-      <c r="N8">
-        <f>(pdbkonstan!N8-pdbkonstan!M8)</f>
-        <v>3960.2000000000116</v>
-      </c>
-      <c r="O8">
-        <f>(pdbkonstan!O8-pdbkonstan!N8)</f>
-        <v>9329.3999999999942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f>(pdbkonstan!C9-pdbkonstan!B9)</f>
-        <v>9153.9000000000087</v>
-      </c>
-      <c r="D9">
-        <f>(pdbkonstan!D9-pdbkonstan!C9)</f>
-        <v>8054</v>
-      </c>
-      <c r="E9">
-        <f>(pdbkonstan!E9-pdbkonstan!D9)</f>
-        <v>9197.3999999999942</v>
-      </c>
-      <c r="F9">
-        <f>(pdbkonstan!F9-pdbkonstan!E9)</f>
-        <v>12304.599999999991</v>
-      </c>
-      <c r="G9">
-        <f>(pdbkonstan!G9-pdbkonstan!F9)</f>
-        <v>10600.200000000012</v>
-      </c>
-      <c r="H9">
-        <f>(pdbkonstan!H9-pdbkonstan!G9)</f>
-        <v>10926.200000000012</v>
-      </c>
-      <c r="I9">
-        <f>(pdbkonstan!I9-pdbkonstan!H9)</f>
-        <v>13442.099999999977</v>
-      </c>
-      <c r="J9">
-        <f>(pdbkonstan!J9-pdbkonstan!I9)</f>
-        <v>14927.300000000017</v>
-      </c>
-      <c r="K9">
-        <f>(pdbkonstan!K9-pdbkonstan!J9)</f>
-        <v>19245.100000000006</v>
-      </c>
-      <c r="L9">
-        <f>(pdbkonstan!L9-pdbkonstan!K9)</f>
-        <v>-11265.100000000006</v>
-      </c>
-      <c r="M9">
-        <f>(pdbkonstan!M9-pdbkonstan!L9)</f>
-        <v>1435.6000000000058</v>
-      </c>
-      <c r="N9">
-        <f>(pdbkonstan!N9-pdbkonstan!M9)</f>
-        <v>17292.299999999988</v>
-      </c>
-      <c r="O9">
-        <f>(pdbkonstan!O9-pdbkonstan!N9)</f>
-        <v>17677.100000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <f>(pdbkonstan!C10-pdbkonstan!B10)</f>
-        <v>-770.30000000001746</v>
-      </c>
-      <c r="D10">
-        <f>(pdbkonstan!D10-pdbkonstan!C10)</f>
-        <v>-5595.7999999999884</v>
-      </c>
-      <c r="E10">
-        <f>(pdbkonstan!E10-pdbkonstan!D10)</f>
-        <v>-6006.2000000000116</v>
-      </c>
-      <c r="F10">
-        <f>(pdbkonstan!F10-pdbkonstan!E10)</f>
-        <v>-4699.1000000000058</v>
-      </c>
-      <c r="G10">
-        <f>(pdbkonstan!G10-pdbkonstan!F10)</f>
-        <v>-2438.7999999999884</v>
-      </c>
-      <c r="H10">
-        <f>(pdbkonstan!H10-pdbkonstan!G10)</f>
-        <v>6080.1000000000058</v>
-      </c>
-      <c r="I10">
-        <f>(pdbkonstan!I10-pdbkonstan!H10)</f>
-        <v>-542.70000000001164</v>
-      </c>
-      <c r="J10">
-        <f>(pdbkonstan!J10-pdbkonstan!I10)</f>
-        <v>-17.600000000005821</v>
-      </c>
-      <c r="K10">
-        <f>(pdbkonstan!K10-pdbkonstan!J10)</f>
-        <v>-2429.5999999999767</v>
-      </c>
-      <c r="L10">
-        <f>(pdbkonstan!L10-pdbkonstan!K10)</f>
-        <v>-14798.5</v>
-      </c>
-      <c r="M10">
-        <f>(pdbkonstan!M10-pdbkonstan!L10)</f>
-        <v>1163.1999999999825</v>
-      </c>
-      <c r="N10">
-        <f>(pdbkonstan!N10-pdbkonstan!M10)</f>
-        <v>7572.8999999999942</v>
-      </c>
-      <c r="O10">
-        <f>(pdbkonstan!O10-pdbkonstan!N10)</f>
-        <v>8799.8000000000175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <f>(pdbkonstan!C11-pdbkonstan!B11)</f>
-        <v>39560.600000000035</v>
-      </c>
-      <c r="D11">
-        <f>(pdbkonstan!D11-pdbkonstan!C11)</f>
-        <v>41338</v>
-      </c>
-      <c r="E11">
-        <f>(pdbkonstan!E11-pdbkonstan!D11)</f>
-        <v>17941.299999999988</v>
-      </c>
-      <c r="F11">
-        <f>(pdbkonstan!F11-pdbkonstan!E11)</f>
-        <v>43573.200000000012</v>
-      </c>
-      <c r="G11">
-        <f>(pdbkonstan!G11-pdbkonstan!F11)</f>
-        <v>37900.200000000012</v>
-      </c>
-      <c r="H11">
-        <f>(pdbkonstan!H11-pdbkonstan!G11)</f>
-        <v>45029.900000000023</v>
-      </c>
-      <c r="I11">
-        <f>(pdbkonstan!I11-pdbkonstan!H11)</f>
-        <v>54048.099999999977</v>
-      </c>
-      <c r="J11">
-        <f>(pdbkonstan!J11-pdbkonstan!I11)</f>
-        <v>50628.099999999977</v>
-      </c>
-      <c r="K11">
-        <f>(pdbkonstan!K11-pdbkonstan!J11)</f>
-        <v>53708</v>
-      </c>
-      <c r="L11">
-        <f>(pdbkonstan!L11-pdbkonstan!K11)</f>
-        <v>11744.400000000023</v>
-      </c>
-      <c r="M11">
-        <f>(pdbkonstan!M11-pdbkonstan!L11)</f>
-        <v>19183.5</v>
-      </c>
-      <c r="N11">
-        <f>(pdbkonstan!N11-pdbkonstan!M11)</f>
-        <v>37964</v>
-      </c>
-      <c r="O11">
-        <f>(pdbkonstan!O11-pdbkonstan!N11)</f>
-        <v>36333.29999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <f>(pdbkonstan!C12-pdbkonstan!B12)</f>
-        <v>-152.59999999999127</v>
-      </c>
-      <c r="D12">
-        <f>(pdbkonstan!D12-pdbkonstan!C12)</f>
-        <v>5914.5999999999913</v>
-      </c>
-      <c r="E12">
-        <f>(pdbkonstan!E12-pdbkonstan!D12)</f>
-        <v>-197.39999999999418</v>
-      </c>
-      <c r="F12">
-        <f>(pdbkonstan!F12-pdbkonstan!E12)</f>
-        <v>6064.6999999999971</v>
-      </c>
-      <c r="G12">
-        <f>(pdbkonstan!G12-pdbkonstan!F12)</f>
-        <v>4920</v>
-      </c>
-      <c r="H12">
-        <f>(pdbkonstan!H12-pdbkonstan!G12)</f>
-        <v>1321</v>
-      </c>
-      <c r="I12">
-        <f>(pdbkonstan!I12-pdbkonstan!H12)</f>
-        <v>-547.30000000000291</v>
-      </c>
-      <c r="J12">
-        <f>(pdbkonstan!J12-pdbkonstan!I12)</f>
-        <v>2976.3000000000029</v>
-      </c>
-      <c r="K12">
-        <f>(pdbkonstan!K12-pdbkonstan!J12)</f>
-        <v>2938</v>
-      </c>
-      <c r="L12">
-        <f>(pdbkonstan!L12-pdbkonstan!K12)</f>
-        <v>-5229.1999999999971</v>
-      </c>
-      <c r="M12">
-        <f>(pdbkonstan!M12-pdbkonstan!L12)</f>
-        <v>-1124.1999999999971</v>
-      </c>
-      <c r="N12">
-        <f>(pdbkonstan!N12-pdbkonstan!M12)</f>
-        <v>-1965.6000000000058</v>
-      </c>
-      <c r="O12">
-        <f>(pdbkonstan!O12-pdbkonstan!N12)</f>
-        <v>3943.9000000000087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f>(pdbkonstan!C13-pdbkonstan!B13)</f>
-        <v>6254.2000000000116</v>
-      </c>
-      <c r="D13">
-        <f>(pdbkonstan!D13-pdbkonstan!C13)</f>
-        <v>6192.5</v>
-      </c>
-      <c r="E13">
-        <f>(pdbkonstan!E13-pdbkonstan!D13)</f>
-        <v>7159.5</v>
-      </c>
-      <c r="F13">
-        <f>(pdbkonstan!F13-pdbkonstan!E13)</f>
-        <v>1810.2999999999884</v>
-      </c>
-      <c r="G13">
-        <f>(pdbkonstan!G13-pdbkonstan!F13)</f>
-        <v>-5644.5</v>
-      </c>
-      <c r="H13">
-        <f>(pdbkonstan!H13-pdbkonstan!G13)</f>
-        <v>-100.69999999999709</v>
-      </c>
-      <c r="I13">
-        <f>(pdbkonstan!I13-pdbkonstan!H13)</f>
-        <v>4283.4000000000087</v>
-      </c>
-      <c r="J13">
-        <f>(pdbkonstan!J13-pdbkonstan!I13)</f>
-        <v>10145.199999999997</v>
-      </c>
-      <c r="K13">
-        <f>(pdbkonstan!K13-pdbkonstan!J13)</f>
-        <v>19397.800000000003</v>
-      </c>
-      <c r="L13">
-        <f>(pdbkonstan!L13-pdbkonstan!K13)</f>
-        <v>-12953.600000000006</v>
-      </c>
-      <c r="M13">
-        <f>(pdbkonstan!M13-pdbkonstan!L13)</f>
-        <v>-5421.8999999999942</v>
-      </c>
-      <c r="N13">
-        <f>(pdbkonstan!N13-pdbkonstan!M13)</f>
-        <v>11897.399999999994</v>
-      </c>
-      <c r="O13">
-        <f>(pdbkonstan!O13-pdbkonstan!N13)</f>
-        <v>-2757.7999999999884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <f>(pdbkonstan!C14-pdbkonstan!B14)</f>
-        <v>2155.0999999999985</v>
-      </c>
-      <c r="D14">
-        <f>(pdbkonstan!D14-pdbkonstan!C14)</f>
-        <v>-1187</v>
-      </c>
-      <c r="E14">
-        <f>(pdbkonstan!E14-pdbkonstan!D14)</f>
-        <v>1080.4000000000015</v>
-      </c>
-      <c r="F14">
-        <f>(pdbkonstan!F14-pdbkonstan!E14)</f>
-        <v>1222</v>
-      </c>
-      <c r="G14">
-        <f>(pdbkonstan!G14-pdbkonstan!F14)</f>
-        <v>911.5</v>
-      </c>
-      <c r="H14">
-        <f>(pdbkonstan!H14-pdbkonstan!G14)</f>
-        <v>1996.0999999999985</v>
-      </c>
-      <c r="I14">
-        <f>(pdbkonstan!I14-pdbkonstan!H14)</f>
-        <v>573.70000000000073</v>
-      </c>
-      <c r="J14">
-        <f>(pdbkonstan!J14-pdbkonstan!I14)</f>
-        <v>2492.7000000000007</v>
-      </c>
-      <c r="K14">
-        <f>(pdbkonstan!K14-pdbkonstan!J14)</f>
-        <v>-287.60000000000218</v>
-      </c>
-      <c r="L14">
-        <f>(pdbkonstan!L14-pdbkonstan!K14)</f>
-        <v>-2511.5</v>
-      </c>
-      <c r="M14">
-        <f>(pdbkonstan!M14-pdbkonstan!L14)</f>
-        <v>2026.7000000000007</v>
-      </c>
-      <c r="N14">
-        <f>(pdbkonstan!N14-pdbkonstan!M14)</f>
-        <v>2635.7000000000007</v>
-      </c>
-      <c r="O14">
-        <f>(pdbkonstan!O14-pdbkonstan!N14)</f>
-        <v>-103.90000000000146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <f>(pdbkonstan!C15-pdbkonstan!B15)</f>
-        <v>-1544.1999999999971</v>
-      </c>
-      <c r="D15">
-        <f>(pdbkonstan!D15-pdbkonstan!C15)</f>
-        <v>-444</v>
-      </c>
-      <c r="E15">
-        <f>(pdbkonstan!E15-pdbkonstan!D15)</f>
-        <v>3393.6999999999971</v>
-      </c>
-      <c r="F15">
-        <f>(pdbkonstan!F15-pdbkonstan!E15)</f>
-        <v>3561.9000000000015</v>
-      </c>
-      <c r="G15">
-        <f>(pdbkonstan!G15-pdbkonstan!F15)</f>
-        <v>-1007.0999999999985</v>
-      </c>
-      <c r="H15">
-        <f>(pdbkonstan!H15-pdbkonstan!G15)</f>
-        <v>1055.1999999999971</v>
-      </c>
-      <c r="I15">
-        <f>(pdbkonstan!I15-pdbkonstan!H15)</f>
-        <v>79.80000000000291</v>
-      </c>
-      <c r="J15">
-        <f>(pdbkonstan!J15-pdbkonstan!I15)</f>
-        <v>466.90000000000146</v>
-      </c>
-      <c r="K15">
-        <f>(pdbkonstan!K15-pdbkonstan!J15)</f>
-        <v>-2839</v>
-      </c>
-      <c r="L15">
-        <f>(pdbkonstan!L15-pdbkonstan!K15)</f>
-        <v>-1286.2000000000044</v>
-      </c>
-      <c r="M15">
-        <f>(pdbkonstan!M15-pdbkonstan!L15)</f>
-        <v>-2161.1999999999971</v>
-      </c>
-      <c r="N15">
-        <f>(pdbkonstan!N15-pdbkonstan!M15)</f>
-        <v>330.90000000000146</v>
-      </c>
-      <c r="O15">
-        <f>(pdbkonstan!O15-pdbkonstan!N15)</f>
-        <v>674.19999999999709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <f>(pdbkonstan!C16-pdbkonstan!B16)</f>
-        <v>2646.8000000000029</v>
-      </c>
-      <c r="D16">
-        <f>(pdbkonstan!D16-pdbkonstan!C16)</f>
-        <v>-2041.2000000000116</v>
-      </c>
-      <c r="E16">
-        <f>(pdbkonstan!E16-pdbkonstan!D16)</f>
-        <v>-361</v>
-      </c>
-      <c r="F16">
-        <f>(pdbkonstan!F16-pdbkonstan!E16)</f>
-        <v>2440.7000000000116</v>
-      </c>
-      <c r="G16">
-        <f>(pdbkonstan!G16-pdbkonstan!F16)</f>
-        <v>-113.30000000000291</v>
-      </c>
-      <c r="H16">
-        <f>(pdbkonstan!H16-pdbkonstan!G16)</f>
-        <v>1843.0999999999913</v>
-      </c>
-      <c r="I16">
-        <f>(pdbkonstan!I16-pdbkonstan!H16)</f>
-        <v>240.70000000001164</v>
-      </c>
-      <c r="J16">
-        <f>(pdbkonstan!J16-pdbkonstan!I16)</f>
-        <v>1041</v>
-      </c>
-      <c r="K16">
-        <f>(pdbkonstan!K16-pdbkonstan!J16)</f>
-        <v>6529.3999999999942</v>
-      </c>
-      <c r="L16">
-        <f>(pdbkonstan!L16-pdbkonstan!K16)</f>
-        <v>174.30000000000291</v>
-      </c>
-      <c r="M16">
-        <f>(pdbkonstan!M16-pdbkonstan!L16)</f>
-        <v>-2324.1000000000058</v>
-      </c>
-      <c r="N16">
-        <f>(pdbkonstan!N16-pdbkonstan!M16)</f>
-        <v>2913.3000000000029</v>
-      </c>
-      <c r="O16">
-        <f>(pdbkonstan!O16-pdbkonstan!N16)</f>
-        <v>3662.6000000000058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <f>(pdbkonstan!C17-pdbkonstan!B17)</f>
-        <v>9898.3000000000029</v>
-      </c>
-      <c r="D17">
-        <f>(pdbkonstan!D17-pdbkonstan!C17)</f>
-        <v>15871.099999999991</v>
-      </c>
-      <c r="E17">
-        <f>(pdbkonstan!E17-pdbkonstan!D17)</f>
-        <v>7146.8000000000175</v>
-      </c>
-      <c r="F17">
-        <f>(pdbkonstan!F17-pdbkonstan!E17)</f>
-        <v>5943.2999999999884</v>
-      </c>
-      <c r="G17">
-        <f>(pdbkonstan!G17-pdbkonstan!F17)</f>
-        <v>11651.100000000006</v>
-      </c>
-      <c r="H17">
-        <f>(pdbkonstan!H17-pdbkonstan!G17)</f>
-        <v>9626.7999999999884</v>
-      </c>
-      <c r="I17">
-        <f>(pdbkonstan!I17-pdbkonstan!H17)</f>
-        <v>7910.4000000000233</v>
-      </c>
-      <c r="J17">
-        <f>(pdbkonstan!J17-pdbkonstan!I17)</f>
-        <v>-2588.3000000000175</v>
-      </c>
-      <c r="K17">
-        <f>(pdbkonstan!K17-pdbkonstan!J17)</f>
-        <v>15249</v>
-      </c>
-      <c r="L17">
-        <f>(pdbkonstan!L17-pdbkonstan!K17)</f>
-        <v>18319.600000000006</v>
-      </c>
-      <c r="M17">
-        <f>(pdbkonstan!M17-pdbkonstan!L17)</f>
-        <v>20505.5</v>
-      </c>
-      <c r="N17">
-        <f>(pdbkonstan!N17-pdbkonstan!M17)</f>
-        <v>1609.2999999999884</v>
-      </c>
-      <c r="O17">
-        <f>(pdbkonstan!O17-pdbkonstan!N17)</f>
-        <v>247.90000000002328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <f>(pdbkonstan!C18-pdbkonstan!B18)</f>
-        <v>1389.6000000000058</v>
-      </c>
-      <c r="D18">
-        <f>(pdbkonstan!D18-pdbkonstan!C18)</f>
-        <v>5154.7999999999884</v>
-      </c>
-      <c r="E18">
-        <f>(pdbkonstan!E18-pdbkonstan!D18)</f>
-        <v>-1361.6999999999971</v>
-      </c>
-      <c r="F18">
-        <f>(pdbkonstan!F18-pdbkonstan!E18)</f>
-        <v>831.60000000000582</v>
-      </c>
-      <c r="G18">
-        <f>(pdbkonstan!G18-pdbkonstan!F18)</f>
-        <v>3664.8000000000029</v>
-      </c>
-      <c r="H18">
-        <f>(pdbkonstan!H18-pdbkonstan!G18)</f>
-        <v>-6501.2000000000116</v>
-      </c>
-      <c r="I18">
-        <f>(pdbkonstan!I18-pdbkonstan!H18)</f>
-        <v>1725.9000000000087</v>
-      </c>
-      <c r="J18">
-        <f>(pdbkonstan!J18-pdbkonstan!I18)</f>
-        <v>4961</v>
-      </c>
-      <c r="K18">
-        <f>(pdbkonstan!K18-pdbkonstan!J18)</f>
-        <v>-4229</v>
-      </c>
-      <c r="L18">
-        <f>(pdbkonstan!L18-pdbkonstan!K18)</f>
-        <v>-4061.1000000000058</v>
-      </c>
-      <c r="M18">
-        <f>(pdbkonstan!M18-pdbkonstan!L18)</f>
-        <v>735.10000000000582</v>
-      </c>
-      <c r="N18">
-        <f>(pdbkonstan!N18-pdbkonstan!M18)</f>
-        <v>-2830.1999999999971</v>
-      </c>
-      <c r="O18">
-        <f>(pdbkonstan!O18-pdbkonstan!N18)</f>
-        <v>-2405.0000000000073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <f>(pdbkonstan!C19-pdbkonstan!B19)</f>
-        <v>3961.5</v>
-      </c>
-      <c r="D19">
-        <f>(pdbkonstan!D19-pdbkonstan!C19)</f>
-        <v>4342.5999999999985</v>
-      </c>
-      <c r="E19">
-        <f>(pdbkonstan!E19-pdbkonstan!D19)</f>
-        <v>1976.2999999999956</v>
-      </c>
-      <c r="F19">
-        <f>(pdbkonstan!F19-pdbkonstan!E19)</f>
-        <v>1478.1000000000058</v>
-      </c>
-      <c r="G19">
-        <f>(pdbkonstan!G19-pdbkonstan!F19)</f>
-        <v>3778.3999999999942</v>
-      </c>
-      <c r="H19">
-        <f>(pdbkonstan!H19-pdbkonstan!G19)</f>
-        <v>3633.5</v>
-      </c>
-      <c r="I19">
-        <f>(pdbkonstan!I19-pdbkonstan!H19)</f>
-        <v>-605.80000000000291</v>
-      </c>
-      <c r="J19">
-        <f>(pdbkonstan!J19-pdbkonstan!I19)</f>
-        <v>1911.5</v>
-      </c>
-      <c r="K19">
-        <f>(pdbkonstan!K19-pdbkonstan!J19)</f>
-        <v>-733.69999999999709</v>
-      </c>
-      <c r="L19">
-        <f>(pdbkonstan!L19-pdbkonstan!K19)</f>
-        <v>-6451.5</v>
-      </c>
-      <c r="M19">
-        <f>(pdbkonstan!M19-pdbkonstan!L19)</f>
-        <v>572.80000000000291</v>
-      </c>
-      <c r="N19">
-        <f>(pdbkonstan!N19-pdbkonstan!M19)</f>
-        <v>-1297.3000000000029</v>
-      </c>
-      <c r="O19">
-        <f>(pdbkonstan!O19-pdbkonstan!N19)</f>
-        <v>2610.9000000000087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <f>(pdbkonstan!C20-pdbkonstan!B20)</f>
-        <v>7388.1999999999971</v>
-      </c>
-      <c r="D20">
-        <f>(pdbkonstan!D20-pdbkonstan!C20)</f>
-        <v>-971</v>
-      </c>
-      <c r="E20">
-        <f>(pdbkonstan!E20-pdbkonstan!D20)</f>
-        <v>7083.6999999999971</v>
-      </c>
-      <c r="F20">
-        <f>(pdbkonstan!F20-pdbkonstan!E20)</f>
-        <v>4086.7000000000116</v>
-      </c>
-      <c r="G20">
-        <f>(pdbkonstan!G20-pdbkonstan!F20)</f>
-        <v>4473</v>
-      </c>
-      <c r="H20">
-        <f>(pdbkonstan!H20-pdbkonstan!G20)</f>
-        <v>760.89999999999418</v>
-      </c>
-      <c r="I20">
-        <f>(pdbkonstan!I20-pdbkonstan!H20)</f>
-        <v>4539.6000000000058</v>
-      </c>
-      <c r="J20">
-        <f>(pdbkonstan!J20-pdbkonstan!I20)</f>
-        <v>7356</v>
-      </c>
-      <c r="K20">
-        <f>(pdbkonstan!K20-pdbkonstan!J20)</f>
-        <v>2528.2999999999884</v>
-      </c>
-      <c r="L20">
-        <f>(pdbkonstan!L20-pdbkonstan!K20)</f>
-        <v>5382.6000000000058</v>
-      </c>
-      <c r="M20">
-        <f>(pdbkonstan!M20-pdbkonstan!L20)</f>
-        <v>11167.800000000003</v>
-      </c>
-      <c r="N20">
-        <f>(pdbkonstan!N20-pdbkonstan!M20)</f>
-        <v>16022.399999999994</v>
-      </c>
-      <c r="O20">
-        <f>(pdbkonstan!O20-pdbkonstan!N20)</f>
-        <v>17606.300000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <f>(pdbkonstan!C21-pdbkonstan!B21)</f>
-        <v>11494.5</v>
-      </c>
-      <c r="D21">
-        <f>(pdbkonstan!D21-pdbkonstan!C21)</f>
-        <v>16558.5</v>
-      </c>
-      <c r="E21">
-        <f>(pdbkonstan!E21-pdbkonstan!D21)</f>
-        <v>14648.899999999994</v>
-      </c>
-      <c r="F21">
-        <f>(pdbkonstan!F21-pdbkonstan!E21)</f>
-        <v>5091.8000000000175</v>
-      </c>
-      <c r="G21">
-        <f>(pdbkonstan!G21-pdbkonstan!F21)</f>
-        <v>13983.799999999988</v>
-      </c>
-      <c r="H21">
-        <f>(pdbkonstan!H21-pdbkonstan!G21)</f>
-        <v>8332.8999999999942</v>
-      </c>
-      <c r="I21">
-        <f>(pdbkonstan!I21-pdbkonstan!H21)</f>
-        <v>5608.3999999999942</v>
-      </c>
-      <c r="J21">
-        <f>(pdbkonstan!J21-pdbkonstan!I21)</f>
-        <v>-1252.5</v>
-      </c>
-      <c r="K21">
-        <f>(pdbkonstan!K21-pdbkonstan!J21)</f>
-        <v>-1044.2999999999884</v>
-      </c>
-      <c r="L21">
-        <f>(pdbkonstan!L21-pdbkonstan!K21)</f>
-        <v>-11145.899999999994</v>
-      </c>
-      <c r="M21">
-        <f>(pdbkonstan!M21-pdbkonstan!L21)</f>
-        <v>-3136.6000000000058</v>
-      </c>
-      <c r="N21">
-        <f>(pdbkonstan!N21-pdbkonstan!M21)</f>
-        <v>12747.899999999994</v>
-      </c>
-      <c r="O21">
-        <f>(pdbkonstan!O21-pdbkonstan!N21)</f>
-        <v>27694.399999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <f>(pdbkonstan!C22-pdbkonstan!B22)</f>
-        <v>2027.2999999999993</v>
-      </c>
-      <c r="D22">
-        <f>(pdbkonstan!D22-pdbkonstan!C22)</f>
-        <v>-357.79999999999927</v>
-      </c>
-      <c r="E22">
-        <f>(pdbkonstan!E22-pdbkonstan!D22)</f>
-        <v>-1272.9000000000015</v>
-      </c>
-      <c r="F22">
-        <f>(pdbkonstan!F22-pdbkonstan!E22)</f>
-        <v>2095.9000000000015</v>
-      </c>
-      <c r="G22">
-        <f>(pdbkonstan!G22-pdbkonstan!F22)</f>
-        <v>1990.7999999999993</v>
-      </c>
-      <c r="H22">
-        <f>(pdbkonstan!H22-pdbkonstan!G22)</f>
-        <v>1426.0999999999985</v>
-      </c>
-      <c r="I22">
-        <f>(pdbkonstan!I22-pdbkonstan!H22)</f>
-        <v>1648.4000000000015</v>
-      </c>
-      <c r="J22">
-        <f>(pdbkonstan!J22-pdbkonstan!I22)</f>
-        <v>2972.3000000000029</v>
-      </c>
-      <c r="K22">
-        <f>(pdbkonstan!K22-pdbkonstan!J22)</f>
-        <v>-1416.3000000000029</v>
-      </c>
-      <c r="L22">
-        <f>(pdbkonstan!L22-pdbkonstan!K22)</f>
-        <v>-3344.5999999999985</v>
-      </c>
-      <c r="M22">
-        <f>(pdbkonstan!M22-pdbkonstan!L22)</f>
-        <v>3374.6999999999971</v>
-      </c>
-      <c r="N22">
-        <f>(pdbkonstan!N22-pdbkonstan!M22)</f>
-        <v>3741.2000000000044</v>
-      </c>
-      <c r="O22">
-        <f>(pdbkonstan!O22-pdbkonstan!N22)</f>
-        <v>-12.400000000001455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <f>(pdbkonstan!C23-pdbkonstan!B23)</f>
-        <v>8555</v>
-      </c>
-      <c r="D23">
-        <f>(pdbkonstan!D23-pdbkonstan!C23)</f>
-        <v>6090.1999999999825</v>
-      </c>
-      <c r="E23">
-        <f>(pdbkonstan!E23-pdbkonstan!D23)</f>
-        <v>22260.100000000006</v>
-      </c>
-      <c r="F23">
-        <f>(pdbkonstan!F23-pdbkonstan!E23)</f>
-        <v>6857</v>
-      </c>
-      <c r="G23">
-        <f>(pdbkonstan!G23-pdbkonstan!F23)</f>
-        <v>4266.6000000000058</v>
-      </c>
-      <c r="H23">
-        <f>(pdbkonstan!H23-pdbkonstan!G23)</f>
-        <v>8234.2999999999884</v>
-      </c>
-      <c r="I23">
-        <f>(pdbkonstan!I23-pdbkonstan!H23)</f>
-        <v>7004.5</v>
-      </c>
-      <c r="J23">
-        <f>(pdbkonstan!J23-pdbkonstan!I23)</f>
-        <v>8379.3000000000175</v>
-      </c>
-      <c r="K23">
-        <f>(pdbkonstan!K23-pdbkonstan!J23)</f>
-        <v>-7053.3000000000175</v>
-      </c>
-      <c r="L23">
-        <f>(pdbkonstan!L23-pdbkonstan!K23)</f>
-        <v>-39494.899999999994</v>
-      </c>
-      <c r="M23">
-        <f>(pdbkonstan!M23-pdbkonstan!L23)</f>
-        <v>28391.700000000012</v>
-      </c>
-      <c r="N23">
-        <f>(pdbkonstan!N23-pdbkonstan!M23)</f>
-        <v>20042.099999999977</v>
-      </c>
-      <c r="O23">
-        <f>(pdbkonstan!O23-pdbkonstan!N23)</f>
-        <v>15851.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <f>(pdbkonstan!C24-pdbkonstan!B24)</f>
-        <v>1992.5</v>
-      </c>
-      <c r="D24">
-        <f>(pdbkonstan!D24-pdbkonstan!C24)</f>
-        <v>-473.29999999999927</v>
-      </c>
-      <c r="E24">
-        <f>(pdbkonstan!E24-pdbkonstan!D24)</f>
-        <v>786.90000000000146</v>
-      </c>
-      <c r="F24">
-        <f>(pdbkonstan!F24-pdbkonstan!E24)</f>
-        <v>804.5</v>
-      </c>
-      <c r="G24">
-        <f>(pdbkonstan!G24-pdbkonstan!F24)</f>
-        <v>1197.5</v>
-      </c>
-      <c r="H24">
-        <f>(pdbkonstan!H24-pdbkonstan!G24)</f>
-        <v>112.39999999999782</v>
-      </c>
-      <c r="I24">
-        <f>(pdbkonstan!I24-pdbkonstan!H24)</f>
-        <v>893.90000000000146</v>
-      </c>
-      <c r="J24">
-        <f>(pdbkonstan!J24-pdbkonstan!I24)</f>
-        <v>562.29999999999927</v>
-      </c>
-      <c r="K24">
-        <f>(pdbkonstan!K24-pdbkonstan!J24)</f>
-        <v>2167</v>
-      </c>
-      <c r="L24">
-        <f>(pdbkonstan!L24-pdbkonstan!K24)</f>
-        <v>-945.5</v>
-      </c>
-      <c r="M24">
-        <f>(pdbkonstan!M24-pdbkonstan!L24)</f>
-        <v>2218.2000000000007</v>
-      </c>
-      <c r="N24">
-        <f>(pdbkonstan!N24-pdbkonstan!M24)</f>
-        <v>-585</v>
-      </c>
-      <c r="O24">
-        <f>(pdbkonstan!O24-pdbkonstan!N24)</f>
-        <v>-588.40000000000146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <f>(pdbkonstan!C25-pdbkonstan!B25)</f>
-        <v>-165.30000000000109</v>
-      </c>
-      <c r="D25">
-        <f>(pdbkonstan!D25-pdbkonstan!C25)</f>
-        <v>-57</v>
-      </c>
-      <c r="E25">
-        <f>(pdbkonstan!E25-pdbkonstan!D25)</f>
-        <v>-103.69999999999891</v>
-      </c>
-      <c r="F25">
-        <f>(pdbkonstan!F25-pdbkonstan!E25)</f>
-        <v>1132.1999999999989</v>
-      </c>
-      <c r="G25">
-        <f>(pdbkonstan!G25-pdbkonstan!F25)</f>
-        <v>742.50000000000182</v>
-      </c>
-      <c r="H25">
-        <f>(pdbkonstan!H25-pdbkonstan!G25)</f>
-        <v>-506.70000000000073</v>
-      </c>
-      <c r="I25">
-        <f>(pdbkonstan!I25-pdbkonstan!H25)</f>
-        <v>-271.80000000000109</v>
-      </c>
-      <c r="J25">
-        <f>(pdbkonstan!J25-pdbkonstan!I25)</f>
-        <v>-131.89999999999964</v>
-      </c>
-      <c r="K25">
-        <f>(pdbkonstan!K25-pdbkonstan!J25)</f>
-        <v>814.70000000000073</v>
-      </c>
-      <c r="L25">
-        <f>(pdbkonstan!L25-pdbkonstan!K25)</f>
-        <v>-145.90000000000146</v>
-      </c>
-      <c r="M25">
-        <f>(pdbkonstan!M25-pdbkonstan!L25)</f>
-        <v>-269.79999999999927</v>
-      </c>
-      <c r="N25">
-        <f>(pdbkonstan!N25-pdbkonstan!M25)</f>
-        <v>982.29999999999927</v>
-      </c>
-      <c r="O25">
-        <f>(pdbkonstan!O25-pdbkonstan!N25)</f>
-        <v>-360.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <f>(pdbkonstan!C26-pdbkonstan!B26)</f>
-        <v>4129</v>
-      </c>
-      <c r="D26">
-        <f>(pdbkonstan!D26-pdbkonstan!C26)</f>
-        <v>7714.8999999999942</v>
-      </c>
-      <c r="E26">
-        <f>(pdbkonstan!E26-pdbkonstan!D26)</f>
-        <v>4412.1000000000058</v>
-      </c>
-      <c r="F26">
-        <f>(pdbkonstan!F26-pdbkonstan!E26)</f>
-        <v>5242.0999999999913</v>
-      </c>
-      <c r="G26">
-        <f>(pdbkonstan!G26-pdbkonstan!F26)</f>
-        <v>847.60000000000582</v>
-      </c>
-      <c r="H26">
-        <f>(pdbkonstan!H26-pdbkonstan!G26)</f>
-        <v>5115.0999999999913</v>
-      </c>
-      <c r="I26">
-        <f>(pdbkonstan!I26-pdbkonstan!H26)</f>
-        <v>1541.4000000000087</v>
-      </c>
-      <c r="J26">
-        <f>(pdbkonstan!J26-pdbkonstan!I26)</f>
-        <v>5557.3000000000029</v>
-      </c>
-      <c r="K26">
-        <f>(pdbkonstan!K26-pdbkonstan!J26)</f>
-        <v>4328.0999999999913</v>
-      </c>
-      <c r="L26">
-        <f>(pdbkonstan!L26-pdbkonstan!K26)</f>
-        <v>-2610.3000000000029</v>
-      </c>
-      <c r="M26">
-        <f>(pdbkonstan!M26-pdbkonstan!L26)</f>
-        <v>6034.7000000000116</v>
-      </c>
-      <c r="N26">
-        <f>(pdbkonstan!N26-pdbkonstan!M26)</f>
-        <v>7590.7999999999884</v>
-      </c>
-      <c r="O26">
-        <f>(pdbkonstan!O26-pdbkonstan!N26)</f>
-        <v>6008.6000000000058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <f>(pdbkonstan!C27-pdbkonstan!B27)</f>
-        <v>276.60000000000036</v>
-      </c>
-      <c r="D27">
-        <f>(pdbkonstan!D27-pdbkonstan!C27)</f>
-        <v>204.69999999999982</v>
-      </c>
-      <c r="E27">
-        <f>(pdbkonstan!E27-pdbkonstan!D27)</f>
-        <v>210.09999999999945</v>
-      </c>
-      <c r="F27">
-        <f>(pdbkonstan!F27-pdbkonstan!E27)</f>
-        <v>342.60000000000036</v>
-      </c>
-      <c r="G27">
-        <f>(pdbkonstan!G27-pdbkonstan!F27)</f>
-        <v>486.5</v>
-      </c>
-      <c r="H27">
-        <f>(pdbkonstan!H27-pdbkonstan!G27)</f>
-        <v>265.60000000000036</v>
-      </c>
-      <c r="I27">
-        <f>(pdbkonstan!I27-pdbkonstan!H27)</f>
-        <v>350.69999999999982</v>
-      </c>
-      <c r="J27">
-        <f>(pdbkonstan!J27-pdbkonstan!I27)</f>
-        <v>444.09999999999945</v>
-      </c>
-      <c r="K27">
-        <f>(pdbkonstan!K27-pdbkonstan!J27)</f>
-        <v>575.5</v>
-      </c>
-      <c r="L27">
-        <f>(pdbkonstan!L27-pdbkonstan!K27)</f>
-        <v>444.39999999999964</v>
-      </c>
-      <c r="M27">
-        <f>(pdbkonstan!M27-pdbkonstan!L27)</f>
-        <v>470</v>
-      </c>
-      <c r="N27">
-        <f>(pdbkonstan!N27-pdbkonstan!M27)</f>
-        <v>320.80000000000109</v>
-      </c>
-      <c r="O27">
-        <f>(pdbkonstan!O27-pdbkonstan!N27)</f>
-        <v>501.29999999999927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <f>(pdbkonstan!C28-pdbkonstan!B28)</f>
-        <v>56516.5</v>
-      </c>
-      <c r="D28">
-        <f>(pdbkonstan!D28-pdbkonstan!C28)</f>
-        <v>44804.5</v>
-      </c>
-      <c r="E28">
-        <f>(pdbkonstan!E28-pdbkonstan!D28)</f>
-        <v>44493.199999999953</v>
-      </c>
-      <c r="F28">
-        <f>(pdbkonstan!F28-pdbkonstan!E28)</f>
-        <v>53896</v>
-      </c>
-      <c r="G28">
-        <f>(pdbkonstan!G28-pdbkonstan!F28)</f>
-        <v>52548.300000000047</v>
-      </c>
-      <c r="H28">
-        <f>(pdbkonstan!H28-pdbkonstan!G28)</f>
-        <v>45876.400000000023</v>
-      </c>
-      <c r="I28">
-        <f>(pdbkonstan!I28-pdbkonstan!H28)</f>
-        <v>62884.599999999977</v>
-      </c>
-      <c r="J28">
-        <f>(pdbkonstan!J28-pdbkonstan!I28)</f>
-        <v>60157.900000000023</v>
-      </c>
-      <c r="K28">
-        <f>(pdbkonstan!K28-pdbkonstan!J28)</f>
-        <v>60342.199999999953</v>
-      </c>
-      <c r="L28">
-        <f>(pdbkonstan!L28-pdbkonstan!K28)</f>
-        <v>-36090.199999999953</v>
-      </c>
-      <c r="M28">
-        <f>(pdbkonstan!M28-pdbkonstan!L28)</f>
-        <v>30182.899999999907</v>
-      </c>
-      <c r="N28">
-        <f>(pdbkonstan!N28-pdbkonstan!M28)</f>
-        <v>22207.5</v>
-      </c>
-      <c r="O28">
-        <f>(pdbkonstan!O28-pdbkonstan!N28)</f>
-        <v>55264.100000000093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <f>(pdbkonstan!C29-pdbkonstan!B29)</f>
-        <v>8737.2000000000116</v>
-      </c>
-      <c r="D29">
-        <f>(pdbkonstan!D29-pdbkonstan!C29)</f>
-        <v>12553.199999999983</v>
-      </c>
-      <c r="E29">
-        <f>(pdbkonstan!E29-pdbkonstan!D29)</f>
-        <v>14860.200000000012</v>
-      </c>
-      <c r="F29">
-        <f>(pdbkonstan!F29-pdbkonstan!E29)</f>
-        <v>10937.299999999988</v>
-      </c>
-      <c r="G29">
-        <f>(pdbkonstan!G29-pdbkonstan!F29)</f>
-        <v>739.10000000000582</v>
-      </c>
-      <c r="H29">
-        <f>(pdbkonstan!H29-pdbkonstan!G29)</f>
-        <v>9121.7999999999884</v>
-      </c>
-      <c r="I29">
-        <f>(pdbkonstan!I29-pdbkonstan!H29)</f>
-        <v>11353.300000000017</v>
-      </c>
-      <c r="J29">
-        <f>(pdbkonstan!J29-pdbkonstan!I29)</f>
-        <v>12135.899999999994</v>
-      </c>
-      <c r="K29">
-        <f>(pdbkonstan!K29-pdbkonstan!J29)</f>
-        <v>9771.2000000000116</v>
-      </c>
-      <c r="L29">
-        <f>(pdbkonstan!L29-pdbkonstan!K29)</f>
-        <v>-38429.400000000023</v>
-      </c>
-      <c r="M29">
-        <f>(pdbkonstan!M29-pdbkonstan!L29)</f>
-        <v>28372.600000000035</v>
-      </c>
-      <c r="N29">
-        <f>(pdbkonstan!N29-pdbkonstan!M29)</f>
-        <v>15519.399999999965</v>
-      </c>
-      <c r="O29">
-        <f>(pdbkonstan!O29-pdbkonstan!N29)</f>
-        <v>12499.100000000035</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <f>(pdbkonstan!C30-pdbkonstan!B30)</f>
-        <v>80538.599999999977</v>
-      </c>
-      <c r="D30">
-        <f>(pdbkonstan!D30-pdbkonstan!C30)</f>
-        <v>42158.699999999953</v>
-      </c>
-      <c r="E30">
-        <f>(pdbkonstan!E30-pdbkonstan!D30)</f>
-        <v>36500.400000000023</v>
-      </c>
-      <c r="F30">
-        <f>(pdbkonstan!F30-pdbkonstan!E30)</f>
-        <v>47088.099999999977</v>
-      </c>
-      <c r="G30">
-        <f>(pdbkonstan!G30-pdbkonstan!F30)</f>
-        <v>29127.900000000023</v>
-      </c>
-      <c r="H30">
-        <f>(pdbkonstan!H30-pdbkonstan!G30)</f>
-        <v>39474.5</v>
-      </c>
-      <c r="I30">
-        <f>(pdbkonstan!I30-pdbkonstan!H30)</f>
-        <v>44632.399999999907</v>
-      </c>
-      <c r="J30">
-        <f>(pdbkonstan!J30-pdbkonstan!I30)</f>
-        <v>52996.300000000047</v>
-      </c>
-      <c r="K30">
-        <f>(pdbkonstan!K30-pdbkonstan!J30)</f>
-        <v>53535.800000000047</v>
-      </c>
-      <c r="L30">
-        <f>(pdbkonstan!L30-pdbkonstan!K30)</f>
-        <v>-16105.100000000093</v>
-      </c>
-      <c r="M30">
-        <f>(pdbkonstan!M30-pdbkonstan!L30)</f>
-        <v>35807.600000000093</v>
-      </c>
-      <c r="N30">
-        <f>(pdbkonstan!N30-pdbkonstan!M30)</f>
-        <v>64601</v>
-      </c>
-      <c r="O30">
-        <f>(pdbkonstan!O30-pdbkonstan!N30)</f>
-        <v>61663.100000000093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <f>(pdbkonstan!C31-pdbkonstan!B31)</f>
-        <v>20398.600000000006</v>
-      </c>
-      <c r="D31">
-        <f>(pdbkonstan!D31-pdbkonstan!C31)</f>
-        <v>18888.599999999977</v>
-      </c>
-      <c r="E31">
-        <f>(pdbkonstan!E31-pdbkonstan!D31)</f>
-        <v>19843.600000000035</v>
-      </c>
-      <c r="F31">
-        <f>(pdbkonstan!F31-pdbkonstan!E31)</f>
-        <v>22426.799999999988</v>
-      </c>
-      <c r="G31">
-        <f>(pdbkonstan!G31-pdbkonstan!F31)</f>
-        <v>21922.900000000023</v>
-      </c>
-      <c r="H31">
-        <f>(pdbkonstan!H31-pdbkonstan!G31)</f>
-        <v>25987.5</v>
-      </c>
-      <c r="I31">
-        <f>(pdbkonstan!I31-pdbkonstan!H31)</f>
-        <v>31836</v>
-      </c>
-      <c r="J31">
-        <f>(pdbkonstan!J31-pdbkonstan!I31)</f>
-        <v>28657.099999999977</v>
-      </c>
-      <c r="K31">
-        <f>(pdbkonstan!K31-pdbkonstan!J31)</f>
-        <v>27789.400000000023</v>
-      </c>
-      <c r="L31">
-        <f>(pdbkonstan!L31-pdbkonstan!K31)</f>
-        <v>-69707</v>
-      </c>
-      <c r="M31">
-        <f>(pdbkonstan!M31-pdbkonstan!L31)</f>
-        <v>12750.399999999965</v>
-      </c>
-      <c r="N31">
-        <f>(pdbkonstan!N31-pdbkonstan!M31)</f>
-        <v>80704.5</v>
-      </c>
-      <c r="O31">
-        <f>(pdbkonstan!O31-pdbkonstan!N31)</f>
-        <v>67981.100000000035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <f>(pdbkonstan!C32-pdbkonstan!B32)</f>
-        <v>4020.5999999999985</v>
-      </c>
-      <c r="D32">
-        <f>(pdbkonstan!D32-pdbkonstan!C32)</f>
-        <v>3782.5</v>
-      </c>
-      <c r="E32">
-        <f>(pdbkonstan!E32-pdbkonstan!D32)</f>
-        <v>4132.1999999999971</v>
-      </c>
-      <c r="F32">
-        <f>(pdbkonstan!F32-pdbkonstan!E32)</f>
-        <v>3727.0999999999985</v>
-      </c>
-      <c r="G32">
-        <f>(pdbkonstan!G32-pdbkonstan!F32)</f>
-        <v>2913.6000000000058</v>
-      </c>
-      <c r="H32">
-        <f>(pdbkonstan!H32-pdbkonstan!G32)</f>
-        <v>3100.5</v>
-      </c>
-      <c r="I32">
-        <f>(pdbkonstan!I32-pdbkonstan!H32)</f>
-        <v>2953.5999999999985</v>
-      </c>
-      <c r="J32">
-        <f>(pdbkonstan!J32-pdbkonstan!I32)</f>
-        <v>2602.9000000000015</v>
-      </c>
-      <c r="K32">
-        <f>(pdbkonstan!K32-pdbkonstan!J32)</f>
-        <v>870.09999999999854</v>
-      </c>
-      <c r="L32">
-        <f>(pdbkonstan!L32-pdbkonstan!K32)</f>
-        <v>-15639.5</v>
-      </c>
-      <c r="M32">
-        <f>(pdbkonstan!M32-pdbkonstan!L32)</f>
-        <v>2782.0999999999985</v>
-      </c>
-      <c r="N32">
-        <f>(pdbkonstan!N32-pdbkonstan!M32)</f>
-        <v>15792.800000000003</v>
-      </c>
-      <c r="O32">
-        <f>(pdbkonstan!O32-pdbkonstan!N32)</f>
-        <v>8722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <f>(pdbkonstan!C33-pdbkonstan!B33)</f>
-        <v>9719.6000000000058</v>
-      </c>
-      <c r="D33">
-        <f>(pdbkonstan!D33-pdbkonstan!C33)</f>
-        <v>10428.100000000006</v>
-      </c>
-      <c r="E33">
-        <f>(pdbkonstan!E33-pdbkonstan!D33)</f>
-        <v>11383.5</v>
-      </c>
-      <c r="F33">
-        <f>(pdbkonstan!F33-pdbkonstan!E33)</f>
-        <v>10340.099999999977</v>
-      </c>
-      <c r="G33">
-        <f>(pdbkonstan!G33-pdbkonstan!F33)</f>
-        <v>8193.3000000000175</v>
-      </c>
-      <c r="H33">
-        <f>(pdbkonstan!H33-pdbkonstan!G33)</f>
-        <v>10800.5</v>
-      </c>
-      <c r="I33">
-        <f>(pdbkonstan!I33-pdbkonstan!H33)</f>
-        <v>12352.699999999983</v>
-      </c>
-      <c r="J33">
-        <f>(pdbkonstan!J33-pdbkonstan!I33)</f>
-        <v>14336</v>
-      </c>
-      <c r="K33">
-        <f>(pdbkonstan!K33-pdbkonstan!J33)</f>
-        <v>17365.900000000023</v>
-      </c>
-      <c r="L33">
-        <f>(pdbkonstan!L33-pdbkonstan!K33)</f>
-        <v>-18542.700000000012</v>
-      </c>
-      <c r="M33">
-        <f>(pdbkonstan!M33-pdbkonstan!L33)</f>
-        <v>8833.1000000000058</v>
-      </c>
-      <c r="N33">
-        <f>(pdbkonstan!N33-pdbkonstan!M33)</f>
-        <v>21324.199999999983</v>
-      </c>
-      <c r="O33">
-        <f>(pdbkonstan!O33-pdbkonstan!N33)</f>
-        <v>26097.900000000023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <f>(pdbkonstan!C34-pdbkonstan!B34)</f>
-        <v>25645.699999999983</v>
-      </c>
-      <c r="D34">
-        <f>(pdbkonstan!D34-pdbkonstan!C34)</f>
-        <v>34584.900000000023</v>
-      </c>
-      <c r="E34">
-        <f>(pdbkonstan!E34-pdbkonstan!D34)</f>
-        <v>32871.399999999965</v>
-      </c>
-      <c r="F34">
-        <f>(pdbkonstan!F34-pdbkonstan!E34)</f>
-        <v>35325.5</v>
-      </c>
-      <c r="G34">
-        <f>(pdbkonstan!G34-pdbkonstan!F34)</f>
-        <v>37294.200000000012</v>
-      </c>
-      <c r="H34">
-        <f>(pdbkonstan!H34-pdbkonstan!G34)</f>
-        <v>37438.299999999988</v>
-      </c>
-      <c r="I34">
-        <f>(pdbkonstan!I34-pdbkonstan!H34)</f>
-        <v>44212.600000000035</v>
-      </c>
-      <c r="J34">
-        <f>(pdbkonstan!J34-pdbkonstan!I34)</f>
-        <v>35341.999999999942</v>
-      </c>
-      <c r="K34">
-        <f>(pdbkonstan!K34-pdbkonstan!J34)</f>
-        <v>50773.400000000023</v>
-      </c>
-      <c r="L34">
-        <f>(pdbkonstan!L34-pdbkonstan!K34)</f>
-        <v>62526.800000000047</v>
-      </c>
-      <c r="M34">
-        <f>(pdbkonstan!M34-pdbkonstan!L34)</f>
-        <v>44443.199999999953</v>
-      </c>
-      <c r="N34">
-        <f>(pdbkonstan!N34-pdbkonstan!M34)</f>
-        <v>53812.900000000023</v>
-      </c>
-      <c r="O34">
-        <f>(pdbkonstan!O34-pdbkonstan!N34)</f>
-        <v>56985.599999999977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <f>(pdbkonstan!C35-pdbkonstan!B35)</f>
-        <v>16714.600000000006</v>
-      </c>
-      <c r="D35">
-        <f>(pdbkonstan!D35-pdbkonstan!C35)</f>
-        <v>24453.099999999977</v>
-      </c>
-      <c r="E35">
-        <f>(pdbkonstan!E35-pdbkonstan!D35)</f>
-        <v>24619</v>
-      </c>
-      <c r="F35">
-        <f>(pdbkonstan!F35-pdbkonstan!E35)</f>
-        <v>14310.400000000023</v>
-      </c>
-      <c r="G35">
-        <f>(pdbkonstan!G35-pdbkonstan!F35)</f>
-        <v>27443.5</v>
-      </c>
-      <c r="H35">
-        <f>(pdbkonstan!H35-pdbkonstan!G35)</f>
-        <v>31010.400000000023</v>
-      </c>
-      <c r="I35">
-        <f>(pdbkonstan!I35-pdbkonstan!H35)</f>
-        <v>20692</v>
-      </c>
-      <c r="J35">
-        <f>(pdbkonstan!J35-pdbkonstan!I35)</f>
-        <v>16649.199999999953</v>
-      </c>
-      <c r="K35">
-        <f>(pdbkonstan!K35-pdbkonstan!J35)</f>
-        <v>27472.5</v>
-      </c>
-      <c r="L35">
-        <f>(pdbkonstan!L35-pdbkonstan!K35)</f>
-        <v>14393.400000000023</v>
-      </c>
-      <c r="M35">
-        <f>(pdbkonstan!M35-pdbkonstan!L35)</f>
-        <v>7151.2000000000116</v>
-      </c>
-      <c r="N35">
-        <f>(pdbkonstan!N35-pdbkonstan!M35)</f>
-        <v>8986.0999999999767</v>
-      </c>
-      <c r="O35">
-        <f>(pdbkonstan!O35-pdbkonstan!N35)</f>
-        <v>22613</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <f>(pdbkonstan!C36-pdbkonstan!B36)</f>
-        <v>15227.899999999994</v>
-      </c>
-      <c r="D36">
-        <f>(pdbkonstan!D36-pdbkonstan!C36)</f>
-        <v>15812.800000000017</v>
-      </c>
-      <c r="E36">
-        <f>(pdbkonstan!E36-pdbkonstan!D36)</f>
-        <v>14983.299999999988</v>
-      </c>
-      <c r="F36">
-        <f>(pdbkonstan!F36-pdbkonstan!E36)</f>
-        <v>12202.700000000012</v>
-      </c>
-      <c r="G36">
-        <f>(pdbkonstan!G36-pdbkonstan!F36)</f>
-        <v>10539.399999999965</v>
-      </c>
-      <c r="H36">
-        <f>(pdbkonstan!H36-pdbkonstan!G36)</f>
-        <v>12520.900000000023</v>
-      </c>
-      <c r="I36">
-        <f>(pdbkonstan!I36-pdbkonstan!H36)</f>
-        <v>10068</v>
-      </c>
-      <c r="J36">
-        <f>(pdbkonstan!J36-pdbkonstan!I36)</f>
-        <v>10079.700000000012</v>
-      </c>
-      <c r="K36">
-        <f>(pdbkonstan!K36-pdbkonstan!J36)</f>
-        <v>17252.899999999965</v>
-      </c>
-      <c r="L36">
-        <f>(pdbkonstan!L36-pdbkonstan!K36)</f>
-        <v>7358.3000000000466</v>
-      </c>
-      <c r="M36">
-        <f>(pdbkonstan!M36-pdbkonstan!L36)</f>
-        <v>9023.5</v>
-      </c>
-      <c r="N36">
-        <f>(pdbkonstan!N36-pdbkonstan!M36)</f>
-        <v>5732</v>
-      </c>
-      <c r="O36">
-        <f>(pdbkonstan!O36-pdbkonstan!N36)</f>
-        <v>4849.8999999999651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <f>(pdbkonstan!C37-pdbkonstan!B37)</f>
-        <v>6147.4000000000087</v>
-      </c>
-      <c r="D37">
-        <f>(pdbkonstan!D37-pdbkonstan!C37)</f>
-        <v>5788</v>
-      </c>
-      <c r="E37">
-        <f>(pdbkonstan!E37-pdbkonstan!D37)</f>
-        <v>6241.2999999999884</v>
-      </c>
-      <c r="F37">
-        <f>(pdbkonstan!F37-pdbkonstan!E37)</f>
-        <v>6735.7000000000116</v>
-      </c>
-      <c r="G37">
-        <f>(pdbkonstan!G37-pdbkonstan!F37)</f>
-        <v>6108.6999999999971</v>
-      </c>
-      <c r="H37">
-        <f>(pdbkonstan!H37-pdbkonstan!G37)</f>
-        <v>5024.3999999999942</v>
-      </c>
-      <c r="I37">
-        <f>(pdbkonstan!I37-pdbkonstan!H37)</f>
-        <v>7007.3000000000029</v>
-      </c>
-      <c r="J37">
-        <f>(pdbkonstan!J37-pdbkonstan!I37)</f>
-        <v>7824.6999999999971</v>
-      </c>
-      <c r="K37">
-        <f>(pdbkonstan!K37-pdbkonstan!J37)</f>
-        <v>10165.699999999997</v>
-      </c>
-      <c r="L37">
-        <f>(pdbkonstan!L37-pdbkonstan!K37)</f>
-        <v>14739.399999999994</v>
-      </c>
-      <c r="M37">
-        <f>(pdbkonstan!M37-pdbkonstan!L37)</f>
-        <v>14858.200000000012</v>
-      </c>
-      <c r="N37">
-        <f>(pdbkonstan!N37-pdbkonstan!M37)</f>
-        <v>4312.2999999999884</v>
-      </c>
-      <c r="O37">
-        <f>(pdbkonstan!O37-pdbkonstan!N37)</f>
-        <v>7528.4000000000233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <f>(pdbkonstan!C38-pdbkonstan!B38)</f>
-        <v>16690.699999999983</v>
-      </c>
-      <c r="D38">
-        <f>(pdbkonstan!D38-pdbkonstan!C38)</f>
-        <v>5898.5</v>
-      </c>
-      <c r="E38">
-        <f>(pdbkonstan!E38-pdbkonstan!D38)</f>
-        <v>7213.6000000000349</v>
-      </c>
-      <c r="F38">
-        <f>(pdbkonstan!F38-pdbkonstan!E38)</f>
-        <v>6880.7999999999884</v>
-      </c>
-      <c r="G38">
-        <f>(pdbkonstan!G38-pdbkonstan!F38)</f>
-        <v>13724.899999999965</v>
-      </c>
-      <c r="H38">
-        <f>(pdbkonstan!H38-pdbkonstan!G38)</f>
-        <v>9910.4000000000233</v>
-      </c>
-      <c r="I38">
-        <f>(pdbkonstan!I38-pdbkonstan!H38)</f>
-        <v>6549.2999999999884</v>
-      </c>
-      <c r="J38">
-        <f>(pdbkonstan!J38-pdbkonstan!I38)</f>
-        <v>22763.299999999988</v>
-      </c>
-      <c r="K38">
-        <f>(pdbkonstan!K38-pdbkonstan!J38)</f>
-        <v>16261.200000000012</v>
-      </c>
-      <c r="L38">
-        <f>(pdbkonstan!L38-pdbkonstan!K38)</f>
-        <v>-92.799999999988358</v>
-      </c>
-      <c r="M38">
-        <f>(pdbkonstan!M38-pdbkonstan!L38)</f>
-        <v>-1199.4000000000233</v>
-      </c>
-      <c r="N38">
-        <f>(pdbkonstan!N38-pdbkonstan!M38)</f>
-        <v>9157.4000000000233</v>
-      </c>
-      <c r="O38">
-        <f>(pdbkonstan!O38-pdbkonstan!N38)</f>
-        <v>5585.0999999999767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <f>(pdbkonstan!C39-pdbkonstan!B39)</f>
-        <v>13469.600000000006</v>
-      </c>
-      <c r="D39">
-        <f>(pdbkonstan!D39-pdbkonstan!C39)</f>
-        <v>17675.199999999983</v>
-      </c>
-      <c r="E39">
-        <f>(pdbkonstan!E39-pdbkonstan!D39)</f>
-        <v>17311.900000000023</v>
-      </c>
-      <c r="F39">
-        <f>(pdbkonstan!F39-pdbkonstan!E39)</f>
-        <v>13668.799999999988</v>
-      </c>
-      <c r="G39">
-        <f>(pdbkonstan!G39-pdbkonstan!F39)</f>
-        <v>19335.099999999977</v>
-      </c>
-      <c r="H39">
-        <f>(pdbkonstan!H39-pdbkonstan!G39)</f>
-        <v>10867.5</v>
-      </c>
-      <c r="I39">
-        <f>(pdbkonstan!I39-pdbkonstan!H39)</f>
-        <v>10923.200000000012</v>
-      </c>
-      <c r="J39">
-        <f>(pdbkonstan!J39-pdbkonstan!I39)</f>
-        <v>16323</v>
-      </c>
-      <c r="K39">
-        <f>(pdbkonstan!K39-pdbkonstan!J39)</f>
-        <v>20216.100000000035</v>
-      </c>
-      <c r="L39">
-        <f>(pdbkonstan!L39-pdbkonstan!K39)</f>
-        <v>8922.8999999999651</v>
-      </c>
-      <c r="M39">
-        <f>(pdbkonstan!M39-pdbkonstan!L39)</f>
-        <v>387.20000000001164</v>
-      </c>
-      <c r="N39">
-        <f>(pdbkonstan!N39-pdbkonstan!M39)</f>
-        <v>2013.5</v>
-      </c>
-      <c r="O39">
-        <f>(pdbkonstan!O39-pdbkonstan!N39)</f>
-        <v>6278.5999999999767</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>